--- a/resources/experiment 1/predictions/multiple/LinearRegression/upto time/Nefropatías (UPTO).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/upto time/Nefropatías (UPTO).xlsx
@@ -965,7 +965,7 @@
         <v>7.62701468447059</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.1164424297523</v>
+        <v>16.11644242975229</v>
       </c>
       <c r="AQ2" t="n">
         <v>5.531640818703022</v>
@@ -1099,25 +1099,25 @@
         <v>-14.62300836564177</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.581811148670731</v>
+        <v>-9.581811148670727</v>
       </c>
       <c r="F3" t="n">
         <v>-19.36536450674805</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.929681503468013</v>
+        <v>-7.929681503468009</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.242996380603522</v>
+        <v>-6.242996380603518</v>
       </c>
       <c r="I3" t="n">
         <v>-9.000932110968272</v>
       </c>
       <c r="J3" t="n">
-        <v>11.56118712032749</v>
+        <v>11.5611871203275</v>
       </c>
       <c r="K3" t="n">
-        <v>6.470024515007799</v>
+        <v>6.470024515007796</v>
       </c>
       <c r="L3" t="n">
         <v>17.47935380771012</v>
@@ -1144,7 +1144,7 @@
         <v>8.674901078953106</v>
       </c>
       <c r="T3" t="n">
-        <v>5.013237985893118</v>
+        <v>5.013237985893119</v>
       </c>
       <c r="U3" t="n">
         <v>12.58471435775638</v>
@@ -1162,7 +1162,7 @@
         <v>0.8153089351134954</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08365109056273284</v>
+        <v>0.08365109056273283</v>
       </c>
       <c r="AA3" t="n">
         <v>1.861783942916943</v>
@@ -1180,13 +1180,13 @@
         <v>-14.38544018036207</v>
       </c>
       <c r="AF3" t="n">
-        <v>-10.4593833384905</v>
+        <v>-10.45938333849049</v>
       </c>
       <c r="AG3" t="n">
-        <v>-18.07308338837562</v>
+        <v>-18.07308338837561</v>
       </c>
       <c r="AH3" t="n">
-        <v>-14.57863539350385</v>
+        <v>-14.57863539350384</v>
       </c>
       <c r="AI3" t="n">
         <v>-11.16132747148979</v>
@@ -1195,7 +1195,7 @@
         <v>-17.68546967633191</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.9660255148564261</v>
+        <v>-0.966025514856419</v>
       </c>
       <c r="AL3" t="n">
         <v>-1.316701065474989</v>
@@ -1210,10 +1210,10 @@
         <v>8.730927420411815</v>
       </c>
       <c r="AP3" t="n">
-        <v>18.04593674403714</v>
+        <v>18.04593674403715</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9.684220708477882</v>
+        <v>9.684220708477884</v>
       </c>
       <c r="AR3" t="n">
         <v>5.886197764207855</v>
@@ -1222,7 +1222,7 @@
         <v>13.62093844031538</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.169058306821367</v>
+        <v>6.169058306821366</v>
       </c>
       <c r="AU3" t="n">
         <v>3.324575400840785</v>
@@ -1234,7 +1234,7 @@
         <v>3.585648739650813</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.644938330466</v>
+        <v>1.644938330465999</v>
       </c>
       <c r="AY3" t="n">
         <v>6.003873393422728</v>
@@ -1246,7 +1246,7 @@
         <v>0.1641936557928237</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.937002072201521</v>
+        <v>1.937002072201522</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-6.653850372877351</v>
+        <v>-6.653850372877349</v>
       </c>
       <c r="BG3" t="n">
         <v>-3.777983360318849</v>
@@ -1267,22 +1267,22 @@
         <v>-9.845004449485847</v>
       </c>
       <c r="BI3" t="n">
-        <v>-13.13099943352039</v>
+        <v>-13.13099943352038</v>
       </c>
       <c r="BJ3" t="n">
         <v>-9.15592093441885</v>
       </c>
       <c r="BK3" t="n">
-        <v>-16.77977937242015</v>
+        <v>-16.77977937242014</v>
       </c>
       <c r="BL3" t="n">
-        <v>-5.58540028423455</v>
+        <v>-5.585400284234547</v>
       </c>
       <c r="BM3" t="n">
-        <v>-4.525418080242505</v>
+        <v>-4.525418080242503</v>
       </c>
       <c r="BN3" t="n">
-        <v>-5.990217861802321</v>
+        <v>-5.990217861802318</v>
       </c>
       <c r="BO3" t="n">
         <v>8.43277358697382</v>
@@ -1353,16 +1353,16 @@
         <v>-7.790600312720214</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.935183804101467</v>
+        <v>-5.935183804101465</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.159055453359962</v>
+        <v>-9.159055453359958</v>
       </c>
       <c r="J4" t="n">
         <v>12.7809811202382</v>
       </c>
       <c r="K4" t="n">
-        <v>7.382863026441963</v>
+        <v>7.382863026441961</v>
       </c>
       <c r="L4" t="n">
         <v>19.21045998004618</v>
@@ -1425,7 +1425,7 @@
         <v>-11.07832544027004</v>
       </c>
       <c r="AF4" t="n">
-        <v>-8.071941778132448</v>
+        <v>-8.071941778132445</v>
       </c>
       <c r="AG4" t="n">
         <v>-13.95672480147117</v>
@@ -1434,16 +1434,16 @@
         <v>-12.40975361675469</v>
       </c>
       <c r="AI4" t="n">
-        <v>-9.543423139745848</v>
+        <v>-9.543423139745844</v>
       </c>
       <c r="AJ4" t="n">
         <v>-15.03770938029341</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.265391411786998</v>
+        <v>2.265391411787002</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.150910720423765</v>
+        <v>1.150910720423767</v>
       </c>
       <c r="AM4" t="n">
         <v>3.777362367474764</v>
@@ -1479,13 +1479,13 @@
         <v>3.292067950511996</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.516252153557078</v>
+        <v>1.516252153557077</v>
       </c>
       <c r="AY4" t="n">
         <v>5.550687841946701</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.7815575314142288</v>
+        <v>0.7815575314142287</v>
       </c>
       <c r="BA4" t="n">
         <v>0.150341914592506</v>
@@ -1509,7 +1509,7 @@
         <v>-2.855626268883255</v>
       </c>
       <c r="BH4" t="n">
-        <v>-7.4991507405165</v>
+        <v>-7.499150740516498</v>
       </c>
       <c r="BI4" t="n">
         <v>-10.91945728135643</v>
@@ -1521,7 +1521,7 @@
         <v>-14.01207841720917</v>
       </c>
       <c r="BL4" t="n">
-        <v>-3.473978339703571</v>
+        <v>-3.473978339703567</v>
       </c>
       <c r="BM4" t="n">
         <v>-3.137442126731197</v>
@@ -1551,7 +1551,7 @@
         <v>9.068572947209555</v>
       </c>
       <c r="BV4" t="n">
-        <v>5.350787380564975</v>
+        <v>5.350787380564976</v>
       </c>
       <c r="BW4" t="n">
         <v>12.95778460381198</v>
@@ -1586,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.322118700899931</v>
+        <v>-4.322118700899932</v>
       </c>
       <c r="E5" t="n">
         <v>-3.140457208007048</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.910124963737525</v>
+        <v>-4.910124963737523</v>
       </c>
       <c r="G5" t="n">
         <v>2.805620979682262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8220350994080281</v>
+        <v>0.8220350994080308</v>
       </c>
       <c r="I5" t="n">
         <v>5.527917449379977</v>
@@ -1607,7 +1607,7 @@
         <v>10.22993723155297</v>
       </c>
       <c r="K5" t="n">
-        <v>5.738222795419595</v>
+        <v>5.738222795419593</v>
       </c>
       <c r="L5" t="n">
         <v>15.42545526286272</v>
@@ -1625,7 +1625,7 @@
         <v>11.32601037525571</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.207374025904507</v>
+        <v>7.207374025904505</v>
       </c>
       <c r="R5" t="n">
         <v>15.4975108978356</v>
@@ -1634,7 +1634,7 @@
         <v>7.084853703124646</v>
       </c>
       <c r="T5" t="n">
-        <v>4.065728293028288</v>
+        <v>4.065728293028289</v>
       </c>
       <c r="U5" t="n">
         <v>10.2897905569766</v>
@@ -1652,7 +1652,7 @@
         <v>0.7147972633829964</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06099662483833442</v>
+        <v>0.0609966248383344</v>
       </c>
       <c r="AA5" t="n">
         <v>1.658926881148572</v>
@@ -1673,19 +1673,19 @@
         <v>-5.051439933968688</v>
       </c>
       <c r="AG5" t="n">
-        <v>-7.926395977563343</v>
+        <v>-7.926395977563337</v>
       </c>
       <c r="AH5" t="n">
-        <v>-5.268431816310796</v>
+        <v>-5.268431816310793</v>
       </c>
       <c r="AI5" t="n">
-        <v>-4.547021435662071</v>
+        <v>-4.547021435662069</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-5.523470747061767</v>
+        <v>-5.523470747061774</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.157621328376072</v>
+        <v>-1.157621328376065</v>
       </c>
       <c r="AL5" t="n">
         <v>-1.801266552740458</v>
@@ -1700,10 +1700,10 @@
         <v>1.589134202676457</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.620120964533736</v>
+        <v>6.62012096453374</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.863914453086965</v>
+        <v>5.863914453086966</v>
       </c>
       <c r="AR5" t="n">
         <v>3.370489516825107</v>
@@ -1727,10 +1727,10 @@
         <v>1.292440039226851</v>
       </c>
       <c r="AY5" t="n">
-        <v>5.013143022655348</v>
+        <v>5.013143022655347</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.7348730366299235</v>
+        <v>0.7348730366299234</v>
       </c>
       <c r="BA5" t="n">
         <v>0.1234150092496724</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-2.991830995787432</v>
+        <v>-2.991830995787428</v>
       </c>
       <c r="BG5" t="n">
         <v>-1.804356374430442</v>
@@ -1757,7 +1757,7 @@
         <v>-4.238154521122023</v>
       </c>
       <c r="BI5" t="n">
-        <v>-4.683885821861995</v>
+        <v>-4.683885821861997</v>
       </c>
       <c r="BJ5" t="n">
         <v>-3.646284197396374</v>
@@ -1778,10 +1778,10 @@
         <v>3.648530898127699</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.482154955332566</v>
+        <v>1.482154955332567</v>
       </c>
       <c r="BQ5" t="n">
-        <v>6.22672668789922</v>
+        <v>6.226726687899221</v>
       </c>
       <c r="BR5" t="n">
         <v>7.097098413741938</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.439081608453605</v>
+        <v>5.439081608453604</v>
       </c>
       <c r="E6" t="n">
         <v>3.082020769858612</v>
@@ -1885,7 +1885,7 @@
         <v>7.142415860738893</v>
       </c>
       <c r="V6" t="n">
-        <v>2.29510371433126</v>
+        <v>2.295103714331261</v>
       </c>
       <c r="W6" t="n">
         <v>1.010888617000957</v>
@@ -1897,7 +1897,7 @@
         <v>0.4669581566100385</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0315592682938203</v>
+        <v>0.03155926829382029</v>
       </c>
       <c r="AA6" t="n">
         <v>1.13094745709566</v>
@@ -1918,19 +1918,19 @@
         <v>1.455225205483807</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.556639144383016</v>
+        <v>3.556639144383017</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.072593384032678</v>
+        <v>5.072593384032681</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.087409338505155</v>
+        <v>3.087409338505156</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.452681638028107</v>
+        <v>7.452681638028103</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.813238291736198</v>
+        <v>5.8132382917362</v>
       </c>
       <c r="AL6" t="n">
         <v>3.329603971778698</v>
@@ -1939,16 +1939,16 @@
         <v>8.866775570483952</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.614342978594533</v>
+        <v>5.614342978594531</v>
       </c>
       <c r="AO6" t="n">
         <v>2.996445920748524</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.813535158106676</v>
+        <v>8.813535158106678</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.817931504550451</v>
+        <v>4.81793150455045</v>
       </c>
       <c r="AR6" t="n">
         <v>2.679101671048697</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.235600264892882</v>
+        <v>1.235600264892883</v>
       </c>
       <c r="BG6" t="n">
         <v>0.5751079821348768</v>
@@ -2005,13 +2005,13 @@
         <v>4.144975097770844</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.306559418613784</v>
+        <v>2.306559418613783</v>
       </c>
       <c r="BK6" t="n">
-        <v>6.336909884145275</v>
+        <v>6.336909884145273</v>
       </c>
       <c r="BL6" t="n">
-        <v>6.220452009404983</v>
+        <v>6.220452009404985</v>
       </c>
       <c r="BM6" t="n">
         <v>3.567783202306246</v>
@@ -2032,7 +2032,7 @@
         <v>6.695433194881383</v>
       </c>
       <c r="BS6" t="n">
-        <v>3.888807582705748</v>
+        <v>3.888807582705747</v>
       </c>
       <c r="BT6" t="n">
         <v>9.979511505101545</v>
@@ -2088,7 +2088,7 @@
         <v>4.819521064753122</v>
       </c>
       <c r="H7" t="n">
-        <v>2.784588630098814</v>
+        <v>2.784588630098815</v>
       </c>
       <c r="I7" t="n">
         <v>7.001800693095076</v>
@@ -2115,7 +2115,7 @@
         <v>10.25916296886464</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.321406775756567</v>
+        <v>6.321406775756566</v>
       </c>
       <c r="R7" t="n">
         <v>14.52266668903554</v>
@@ -2160,16 +2160,16 @@
         <v>-2.039045329919831</v>
       </c>
       <c r="AF7" t="n">
-        <v>-1.446277673212418</v>
+        <v>-1.446277673212417</v>
       </c>
       <c r="AG7" t="n">
         <v>-2.611057859580625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.245859696251449</v>
+        <v>3.245859696251451</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.255673182618072</v>
+        <v>2.255673182618073</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.318678733716508</v>
@@ -2247,13 +2247,13 @@
         <v>-1.62722335378773</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.5461253458837518</v>
+        <v>0.5461253458837527</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.08093738772297066</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.168469223722486</v>
+        <v>1.168469223722489</v>
       </c>
       <c r="BL7" t="n">
         <v>8.149993546797488</v>
@@ -2277,7 +2277,7 @@
         <v>13.61013864447911</v>
       </c>
       <c r="BS7" t="n">
-        <v>8.886138470874117</v>
+        <v>8.886138470874119</v>
       </c>
       <c r="BT7" t="n">
         <v>18.61082178902619</v>
@@ -2292,7 +2292,7 @@
         <v>10.99494868679756</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.303049669074957</v>
+        <v>3.303049669074956</v>
       </c>
       <c r="BY7" t="n">
         <v>1.54952781840183</v>
@@ -2321,25 +2321,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2878520121894166</v>
+        <v>-0.2878520121894139</v>
       </c>
       <c r="E8" t="n">
         <v>0.1607238823136425</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.429309218546203</v>
+        <v>-1.429309218546205</v>
       </c>
       <c r="G8" t="n">
-        <v>6.150898493458502</v>
+        <v>6.150898493458501</v>
       </c>
       <c r="H8" t="n">
-        <v>4.320760264320765</v>
+        <v>4.320760264320763</v>
       </c>
       <c r="I8" t="n">
         <v>7.53860379746458</v>
       </c>
       <c r="J8" t="n">
-        <v>26.07275503234343</v>
+        <v>26.07275503234342</v>
       </c>
       <c r="K8" t="n">
         <v>17.07797524085934</v>
@@ -2360,7 +2360,7 @@
         <v>9.24476609507499</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.471872972259658</v>
+        <v>5.47187297225966</v>
       </c>
       <c r="R8" t="n">
         <v>13.61249924954535</v>
@@ -2369,28 +2369,28 @@
         <v>2.431263749939871</v>
       </c>
       <c r="T8" t="n">
-        <v>1.079167103384146</v>
+        <v>1.079167103384145</v>
       </c>
       <c r="U8" t="n">
         <v>4.472638514250258</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5122164497945069</v>
+        <v>0.5122164497945068</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1723524529120628</v>
+        <v>0.1723524529120627</v>
       </c>
       <c r="X8" t="n">
-        <v>1.237955591663627</v>
+        <v>1.237955591663626</v>
       </c>
       <c r="Y8" t="n">
         <v>0.02910375892378567</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01927266531583435</v>
+        <v>0.01927266531583438</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1367463298888567</v>
+        <v>0.1367463298888568</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -2402,34 +2402,34 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.027841621611174</v>
+        <v>3.027841621611173</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.482947815385356</v>
+        <v>2.482947815385358</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.311955510824991</v>
+        <v>3.311955510824985</v>
       </c>
       <c r="AH8" t="n">
         <v>11.31076458939748</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.694544769976396</v>
+        <v>8.694544769976392</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13.62761743836885</v>
+        <v>13.62761743836886</v>
       </c>
       <c r="AK8" t="n">
-        <v>28.70952649766418</v>
+        <v>28.70952649766417</v>
       </c>
       <c r="AL8" t="n">
-        <v>21.19774796529279</v>
+        <v>21.1977479652928</v>
       </c>
       <c r="AM8" t="n">
         <v>36.48454272631808</v>
       </c>
       <c r="AN8" t="n">
-        <v>37.88792556108104</v>
+        <v>37.88792556108105</v>
       </c>
       <c r="AO8" t="n">
         <v>27.83260174732954</v>
@@ -2468,10 +2468,10 @@
         <v>0.2531357407152973</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.06908259921947582</v>
+        <v>0.06908259921947583</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.5438905139314398</v>
+        <v>0.5438905139314401</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
@@ -2483,22 +2483,22 @@
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.082641138416786</v>
+        <v>1.08264113841678</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.7378056825821042</v>
+        <v>0.7378056825821043</v>
       </c>
       <c r="BH8" t="n">
         <v>1.380613683982684</v>
       </c>
       <c r="BI8" t="n">
-        <v>5.715396577137589</v>
+        <v>5.715396577137591</v>
       </c>
       <c r="BJ8" t="n">
         <v>3.78666160818413</v>
       </c>
       <c r="BK8" t="n">
-        <v>7.508861329093643</v>
+        <v>7.508861329093653</v>
       </c>
       <c r="BL8" t="n">
         <v>17.13694139530176</v>
@@ -2546,13 +2546,13 @@
         <v>4.494548537027966</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.3079122562485283</v>
+        <v>0.3079122562485284</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.09868326884901257</v>
+        <v>0.09868326884901252</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.82242209766539</v>
+        <v>0.8224220976653898</v>
       </c>
     </row>
     <row r="9">
@@ -2578,7 +2578,7 @@
         <v>6.49639664300526</v>
       </c>
       <c r="H9" t="n">
-        <v>3.569569734756309</v>
+        <v>3.56956973475631</v>
       </c>
       <c r="I9" t="n">
         <v>9.89707146132459</v>
@@ -2620,7 +2620,7 @@
         <v>8.257756429667401</v>
       </c>
       <c r="V9" t="n">
-        <v>2.586916084535498</v>
+        <v>2.586916084535499</v>
       </c>
       <c r="W9" t="n">
         <v>1.160285475212995</v>
@@ -2632,7 +2632,7 @@
         <v>0.5183933946013235</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04518994957955127</v>
+        <v>0.04518994957955126</v>
       </c>
       <c r="AA9" t="n">
         <v>1.226994833593222</v>
@@ -2650,28 +2650,28 @@
         <v>-2.395626194690564</v>
       </c>
       <c r="AF9" t="n">
-        <v>-1.896872952460101</v>
+        <v>-1.8968729524601</v>
       </c>
       <c r="AG9" t="n">
-        <v>-2.732055065868914</v>
+        <v>-2.73205506586891</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.316264834268587</v>
+        <v>1.316264834268591</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5079023824349314</v>
+        <v>0.5079023824349331</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.438103725644906</v>
+        <v>2.438103725644902</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.311585314219515</v>
+        <v>6.31158531421952</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.863839846314354</v>
+        <v>3.863839846314353</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.191913527896489</v>
+        <v>9.191913527896491</v>
       </c>
       <c r="AN9" t="n">
         <v>10.02282094709241</v>
@@ -2698,7 +2698,7 @@
         <v>2.169042882191937</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.607907529692346</v>
+        <v>6.607907529692347</v>
       </c>
       <c r="AW9" t="n">
         <v>2.425283746864766</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-1.123750788579871</v>
+        <v>-1.12375078857987</v>
       </c>
       <c r="BG9" t="n">
         <v>-0.7130810569760428</v>
@@ -2755,7 +2755,7 @@
         <v>7.229450275543671</v>
       </c>
       <c r="BO9" t="n">
-        <v>9.400542819159309</v>
+        <v>9.400542819159307</v>
       </c>
       <c r="BP9" t="n">
         <v>5.451575189400187</v>
@@ -2782,7 +2782,7 @@
         <v>9.470187750202914</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.543835548426097</v>
+        <v>3.543835548426096</v>
       </c>
       <c r="BY9" t="n">
         <v>1.718949004936979</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.102079011119448</v>
+        <v>3.102079011119449</v>
       </c>
       <c r="E10" t="n">
         <v>2.410828424437953</v>
@@ -2847,7 +2847,7 @@
         <v>38.72291077016488</v>
       </c>
       <c r="P10" t="n">
-        <v>7.080313076912171</v>
+        <v>7.08031307691217</v>
       </c>
       <c r="Q10" t="n">
         <v>4.028549902315126</v>
@@ -2859,19 +2859,19 @@
         <v>1.613507260458298</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5889334505060579</v>
+        <v>0.5889334505060568</v>
       </c>
       <c r="U10" t="n">
         <v>3.276994616668302</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2130307934857176</v>
+        <v>0.2130307934857174</v>
       </c>
       <c r="W10" t="n">
         <v>0.008442101279143133</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7366476301830502</v>
+        <v>0.73664763018305</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.01938297375241066</v>
@@ -2880,7 +2880,7 @@
         <v>0.01140060508893279</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0272460674247359</v>
+        <v>0.02724606742473601</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>5.477643450176926</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.214729834121753</v>
+        <v>4.214729834121754</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.562273458962443</v>
+        <v>6.56227345896244</v>
       </c>
       <c r="AH10" t="n">
         <v>17.31402623624265</v>
@@ -2907,10 +2907,10 @@
         <v>13.09316688065572</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21.30824923138172</v>
+        <v>21.30824923138173</v>
       </c>
       <c r="AK10" t="n">
-        <v>29.2175522644896</v>
+        <v>29.21755226448959</v>
       </c>
       <c r="AL10" t="n">
         <v>21.39339491801444</v>
@@ -2919,7 +2919,7 @@
         <v>37.26697399252876</v>
       </c>
       <c r="AN10" t="n">
-        <v>32.82353119033775</v>
+        <v>32.82353119033776</v>
       </c>
       <c r="AO10" t="n">
         <v>23.91406557524418</v>
@@ -2949,13 +2949,13 @@
         <v>1.201458673192553</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5445804911676806</v>
+        <v>0.5445804911676807</v>
       </c>
       <c r="AY10" t="n">
         <v>2.209457723166241</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.198532496897613</v>
+        <v>0.1985324968976131</v>
       </c>
       <c r="BA10" t="n">
         <v>0.05117267695250977</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.121138779570055</v>
+        <v>2.121138779570051</v>
       </c>
       <c r="BG10" t="n">
         <v>1.272555856276234</v>
@@ -2988,7 +2988,7 @@
         <v>6.605972070669925</v>
       </c>
       <c r="BK10" t="n">
-        <v>13.59529392445649</v>
+        <v>13.5952939244565</v>
       </c>
       <c r="BL10" t="n">
         <v>20.27839677120886</v>
@@ -3033,16 +3033,16 @@
         <v>0.7010208695833582</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.77564454981952</v>
+        <v>3.775644549819521</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.2301368161554089</v>
+        <v>0.230136816155409</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.06631567502159649</v>
+        <v>0.06631567502159647</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.6702061180574457</v>
+        <v>0.6702061180574456</v>
       </c>
     </row>
     <row r="11">
@@ -3095,13 +3095,13 @@
         <v>5.345346589956561</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.007280204111265</v>
+        <v>3.007280204111264</v>
       </c>
       <c r="R11" t="n">
         <v>8.152860613156443</v>
       </c>
       <c r="S11" t="n">
-        <v>2.363876682944497</v>
+        <v>2.363876682944496</v>
       </c>
       <c r="T11" t="n">
         <v>1.116013721646856</v>
@@ -3110,7 +3110,7 @@
         <v>4.022091673986987</v>
       </c>
       <c r="V11" t="n">
-        <v>0.955618926210155</v>
+        <v>0.9556189262101549</v>
       </c>
       <c r="W11" t="n">
         <v>0.3472063568492184</v>
@@ -3122,7 +3122,7 @@
         <v>0.1750060082211087</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01303201435859203</v>
+        <v>0.01303201435859202</v>
       </c>
       <c r="AA11" t="n">
         <v>0.4709417883927329</v>
@@ -3137,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.643653915659647</v>
+        <v>6.643653915659646</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.728791152459929</v>
+        <v>4.728791152459928</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.613611876021631</v>
+        <v>8.613611876021633</v>
       </c>
       <c r="AH11" t="n">
         <v>16.97187814727473</v>
@@ -3167,7 +3167,7 @@
         <v>14.2201343539474</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.594659503113942</v>
+        <v>9.59465950311394</v>
       </c>
       <c r="AP11" t="n">
         <v>19.16448125389608</v>
@@ -3194,7 +3194,7 @@
         <v>1.354500423696602</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.5446105010576426</v>
+        <v>0.5446105010576427</v>
       </c>
       <c r="AY11" t="n">
         <v>2.4744186664384</v>
@@ -3224,7 +3224,7 @@
         <v>1.533925979441364</v>
       </c>
       <c r="BH11" t="n">
-        <v>4.340950931364851</v>
+        <v>4.34095093136485</v>
       </c>
       <c r="BI11" t="n">
         <v>11.50848079216566</v>
@@ -3284,10 +3284,10 @@
         <v>0.39810114700362</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.06453692325600842</v>
+        <v>0.06453692325600843</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.9719201248665716</v>
+        <v>0.9719201248665719</v>
       </c>
     </row>
     <row r="12">
@@ -3322,7 +3322,7 @@
         <v>13.89379846664131</v>
       </c>
       <c r="K12" t="n">
-        <v>8.770716859551666</v>
+        <v>8.770716859551667</v>
       </c>
       <c r="L12" t="n">
         <v>19.43415355113724</v>
@@ -3340,16 +3340,16 @@
         <v>2.973019227817093</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.522096627500136</v>
+        <v>1.522096627500135</v>
       </c>
       <c r="R12" t="n">
-        <v>4.793367522573315</v>
+        <v>4.793367522573314</v>
       </c>
       <c r="S12" t="n">
         <v>2.351788240544855</v>
       </c>
       <c r="T12" t="n">
-        <v>1.164380854243523</v>
+        <v>1.164380854243524</v>
       </c>
       <c r="U12" t="n">
         <v>3.791323331977795</v>
@@ -3367,7 +3367,7 @@
         <v>0.2697188031462474</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.003880775469444991</v>
+        <v>0.003880775469444981</v>
       </c>
       <c r="AA12" t="n">
         <v>0.7053979285663342</v>
@@ -3385,7 +3385,7 @@
         <v>11.1167791212344</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.630294031156154</v>
+        <v>7.630294031156151</v>
       </c>
       <c r="AG12" t="n">
         <v>14.78130887998527</v>
@@ -3400,16 +3400,16 @@
         <v>24.92849474396641</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.859432194168715</v>
+        <v>9.859432194168717</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.042533097669287</v>
+        <v>6.042533097669286</v>
       </c>
       <c r="AM12" t="n">
         <v>14.28132673090568</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.9899322355290074</v>
+        <v>-0.9899322355290092</v>
       </c>
       <c r="AO12" t="n">
         <v>-2.061822623937587</v>
@@ -3439,7 +3439,7 @@
         <v>1.213961385061833</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.4159543340386827</v>
+        <v>0.4159543340386828</v>
       </c>
       <c r="AY12" t="n">
         <v>2.286194058234531</v>
@@ -3448,10 +3448,10 @@
         <v>0.3085151973154946</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.02730355184628448</v>
+        <v>0.02730355184628447</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.7925788055621132</v>
+        <v>0.7925788055621131</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>5.17123303942684</v>
+        <v>5.171233039426841</v>
       </c>
       <c r="BG12" t="n">
         <v>2.717653194042089</v>
@@ -3484,7 +3484,7 @@
         <v>14.30789175189288</v>
       </c>
       <c r="BM12" t="n">
-        <v>9.174978110365917</v>
+        <v>9.174978110365918</v>
       </c>
       <c r="BN12" t="n">
         <v>19.74689755099908</v>
@@ -3493,10 +3493,10 @@
         <v>5.09969253132545</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.698669558183887</v>
+        <v>2.698669558183888</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7.856036277131297</v>
+        <v>7.856036277131293</v>
       </c>
       <c r="BR12" t="n">
         <v>2.478117697745699</v>
@@ -3511,7 +3511,7 @@
         <v>2.521478966612128</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.218841146816796</v>
+        <v>1.218841146816795</v>
       </c>
       <c r="BW12" t="n">
         <v>4.367235458599314</v>
@@ -3529,10 +3529,10 @@
         <v>0.4460510041177612</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0448758814649089</v>
+        <v>0.04487588146490894</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.055055310070593</v>
+        <v>1.055055310070594</v>
       </c>
     </row>
     <row r="13">
@@ -3585,7 +3585,7 @@
         <v>1.801270756223185</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.563262484050135</v>
+        <v>0.5632624840501346</v>
       </c>
       <c r="R13" t="n">
         <v>3.68916977515349</v>
@@ -3594,22 +3594,22 @@
         <v>0.006049262646347309</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3426320792832749</v>
+        <v>-0.3426320792832753</v>
       </c>
       <c r="U13" t="n">
         <v>0.842595646287899</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.2277086455205763</v>
+        <v>-0.2277086455205766</v>
       </c>
       <c r="W13" t="n">
         <v>-0.2417426427798027</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01070294327491172</v>
+        <v>0.01070294327491217</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.07165369642581376</v>
+        <v>-0.07165369642581371</v>
       </c>
       <c r="Z13" t="n">
         <v>-0.01410189376239034</v>
@@ -3642,7 +3642,7 @@
         <v>20.66907554080971</v>
       </c>
       <c r="AJ13" t="n">
-        <v>35.83706577699656</v>
+        <v>35.83706577699657</v>
       </c>
       <c r="AK13" t="n">
         <v>25.29619250184321</v>
@@ -3651,7 +3651,7 @@
         <v>17.90698177031457</v>
       </c>
       <c r="AM13" t="n">
-        <v>33.1064130264647</v>
+        <v>33.10641302646471</v>
       </c>
       <c r="AN13" t="n">
         <v>15.68003391613385</v>
@@ -3663,7 +3663,7 @@
         <v>20.95561890634967</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4.59174441889884</v>
+        <v>4.591744418898839</v>
       </c>
       <c r="AR13" t="n">
         <v>2.372481902806726</v>
@@ -3684,10 +3684,10 @@
         <v>0.5129240553322589</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1349391656185497</v>
+        <v>0.1349391656185498</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.146871906951614</v>
+        <v>1.146871906951615</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.07751261900399553</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>6.548042400369207</v>
+        <v>6.548042400369205</v>
       </c>
       <c r="BG13" t="n">
         <v>3.612014789839967</v>
@@ -3741,13 +3741,13 @@
         <v>12.14786459878575</v>
       </c>
       <c r="BQ13" t="n">
-        <v>26.06595231595574</v>
+        <v>26.06595231595573</v>
       </c>
       <c r="BR13" t="n">
         <v>8.860867909036955</v>
       </c>
       <c r="BS13" t="n">
-        <v>5.274236211232333</v>
+        <v>5.274236211232332</v>
       </c>
       <c r="BT13" t="n">
         <v>13.16673675319464</v>
@@ -3762,7 +3762,7 @@
         <v>5.688554572770038</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.8051052944564172</v>
+        <v>0.8051052944564174</v>
       </c>
       <c r="BY13" t="n">
         <v>0.1599212318064596</v>
@@ -3771,13 +3771,13 @@
         <v>2.00726932450752</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.08591648408355462</v>
+        <v>0.08591648408355468</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.005027491516693586</v>
+        <v>-0.005027491516693572</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.3901758095546183</v>
+        <v>0.3901758095546185</v>
       </c>
     </row>
     <row r="14">
@@ -3839,13 +3839,13 @@
         <v>1.593841217536208</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6318076476208343</v>
+        <v>0.6318076476208341</v>
       </c>
       <c r="U14" t="n">
         <v>3.030165608928421</v>
       </c>
       <c r="V14" t="n">
-        <v>0.513547968499184</v>
+        <v>0.5135479684991838</v>
       </c>
       <c r="W14" t="n">
         <v>0.1346870328511676</v>
@@ -3857,10 +3857,10 @@
         <v>0.07591952223574566</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.003401090411551629</v>
+        <v>0.003401090411551632</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2590116304050257</v>
+        <v>0.2590116304050256</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>9.474787807395728</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.792169484976476</v>
+        <v>6.792169484976475</v>
       </c>
       <c r="AG14" t="n">
         <v>12.12229521050319</v>
@@ -3887,7 +3887,7 @@
         <v>14.28872606746462</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24.97546291181925</v>
+        <v>24.97546291181926</v>
       </c>
       <c r="AK14" t="n">
         <v>21.35547525051262</v>
@@ -3929,7 +3929,7 @@
         <v>1.073794401424784</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.4207143569483857</v>
+        <v>0.4207143569483858</v>
       </c>
       <c r="AY14" t="n">
         <v>2.036071020732164</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.179248631916312</v>
+        <v>4.179248631916311</v>
       </c>
       <c r="BG14" t="n">
         <v>2.305595297793601</v>
@@ -3995,7 +3995,7 @@
         <v>6.510149230563036</v>
       </c>
       <c r="BT14" t="n">
-        <v>15.04738447020279</v>
+        <v>15.04738447020278</v>
       </c>
       <c r="BU14" t="n">
         <v>4.46155980692063</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>5.978770963841904</v>
+        <v>5.978770963841903</v>
       </c>
       <c r="E15" t="n">
         <v>3.300896732656632</v>
@@ -4048,22 +4048,22 @@
         <v>13.54092346283253</v>
       </c>
       <c r="H15" t="n">
-        <v>7.887066579419577</v>
+        <v>7.887066579419578</v>
       </c>
       <c r="I15" t="n">
         <v>20.05676700972823</v>
       </c>
       <c r="J15" t="n">
-        <v>8.898687342778437</v>
+        <v>8.898687342778441</v>
       </c>
       <c r="K15" t="n">
-        <v>5.006421075831391</v>
+        <v>5.00642107583139</v>
       </c>
       <c r="L15" t="n">
         <v>13.37155671801532</v>
       </c>
       <c r="M15" t="n">
-        <v>3.629110330874775</v>
+        <v>3.629110330874774</v>
       </c>
       <c r="N15" t="n">
         <v>1.459576430653932</v>
@@ -4084,7 +4084,7 @@
         <v>5.494806327296189</v>
       </c>
       <c r="T15" t="n">
-        <v>3.118218600163458</v>
+        <v>3.118218600163459</v>
       </c>
       <c r="U15" t="n">
         <v>7.99486675619683</v>
@@ -4102,7 +4102,7 @@
         <v>0.6142855916524974</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.038342159113936</v>
+        <v>0.03834215911393597</v>
       </c>
       <c r="AA15" t="n">
         <v>1.4560698193802</v>
@@ -4120,31 +4120,31 @@
         <v>1.125537314172293</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3565034705531192</v>
+        <v>0.3565034705531183</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.220291433248934</v>
+        <v>2.220291433248941</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.041771760882249</v>
+        <v>4.041771760882254</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.067284600165655</v>
+        <v>2.067284600165657</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.63852818220837</v>
+        <v>6.638528182208361</v>
       </c>
       <c r="AK15" t="n">
-        <v>-1.349217141895718</v>
+        <v>-1.349217141895712</v>
       </c>
       <c r="AL15" t="n">
         <v>-2.285832040005927</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1777188228967397</v>
+        <v>0.1777188228967432</v>
       </c>
       <c r="AN15" t="n">
-        <v>-5.449612203282163</v>
+        <v>-5.449612203282166</v>
       </c>
       <c r="AO15" t="n">
         <v>-5.552659015058902</v>
@@ -4171,19 +4171,19 @@
         <v>5.043530228734022</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.310494241963996</v>
+        <v>2.310494241963997</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.9399417479877026</v>
+        <v>0.9399417479877025</v>
       </c>
       <c r="AY15" t="n">
-        <v>4.022412651887969</v>
+        <v>4.022412651887968</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.6019879818446014</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.08263636270652111</v>
+        <v>0.0826363627065211</v>
       </c>
       <c r="BB15" t="n">
         <v>1.433204477457351</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.670188381302488</v>
+        <v>0.6701883813024916</v>
       </c>
       <c r="BG15" t="n">
         <v>0.1692706114579658</v>
@@ -4207,13 +4207,13 @@
         <v>1.368695407241803</v>
       </c>
       <c r="BI15" t="n">
-        <v>3.763227789796391</v>
+        <v>3.76322778979639</v>
       </c>
       <c r="BJ15" t="n">
         <v>1.863352539626101</v>
       </c>
       <c r="BK15" t="n">
-        <v>6.209930129141118</v>
+        <v>6.209930129141112</v>
       </c>
       <c r="BL15" t="n">
         <v>3.297705773106397</v>
@@ -4222,28 +4222,28 @@
         <v>1.665066370417757</v>
       </c>
       <c r="BN15" t="n">
-        <v>5.449634564731918</v>
+        <v>5.44963456473192</v>
       </c>
       <c r="BO15" t="n">
         <v>-1.135711790718419</v>
       </c>
       <c r="BP15" t="n">
-        <v>-1.665663131662367</v>
+        <v>-1.665663131662365</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.2153469092280567</v>
+        <v>-0.2153469092280602</v>
       </c>
       <c r="BR15" t="n">
         <v>2.045797942175197</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.5551127297503822</v>
+        <v>0.5551127297503831</v>
       </c>
       <c r="BT15" t="n">
         <v>4.025904155877251</v>
       </c>
       <c r="BU15" t="n">
-        <v>4.262476408510995</v>
+        <v>4.262476408510994</v>
       </c>
       <c r="BV15" t="n">
         <v>2.496417021231557</v>
@@ -4252,10 +4252,10 @@
         <v>6.27364771510172</v>
       </c>
       <c r="BX15" t="n">
-        <v>3.308105616204527</v>
+        <v>3.308105616204526</v>
       </c>
       <c r="BY15" t="n">
-        <v>1.639173147918412</v>
+        <v>1.639173147918413</v>
       </c>
       <c r="BZ15" t="n">
         <v>5.139912147692121</v>
@@ -4264,7 +4264,7 @@
         <v>0.8698205538101056</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.1344709476045169</v>
+        <v>0.134470947604517</v>
       </c>
       <c r="CC15" t="n">
         <v>1.843934485728352</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4.26540573574557</v>
+        <v>4.265405735745569</v>
       </c>
       <c r="E16" t="n">
         <v>2.434972484386924</v>
@@ -4293,7 +4293,7 @@
         <v>11.8640478845804</v>
       </c>
       <c r="H16" t="n">
-        <v>7.102085474762083</v>
+        <v>7.102085474762085</v>
       </c>
       <c r="I16" t="n">
         <v>17.16149624149871</v>
@@ -4302,7 +4302,7 @@
         <v>13.25474657981087</v>
       </c>
       <c r="K16" t="n">
-        <v>8.067799651751249</v>
+        <v>8.067799651751248</v>
       </c>
       <c r="L16" t="n">
         <v>19.04586057794704</v>
@@ -4320,7 +4320,7 @@
         <v>7.781934541522332</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.763356305843376</v>
+        <v>4.763356305843375</v>
       </c>
       <c r="R16" t="n">
         <v>11.03382005983265</v>
@@ -4347,7 +4347,7 @@
         <v>0.468137558736074</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03386271671735205</v>
+        <v>0.03386271671735204</v>
       </c>
       <c r="AA16" t="n">
         <v>1.125566302709036</v>
@@ -4368,34 +4368,34 @@
         <v>0.8070987498008027</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.341288639537225</v>
+        <v>2.341288639537228</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.97136662286511</v>
+        <v>5.971366622865113</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.815055400348795</v>
+        <v>3.815055400348796</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.519103190279974</v>
+        <v>8.519103190279971</v>
       </c>
       <c r="AK16" t="n">
-        <v>6.215787407459692</v>
+        <v>6.215787407459696</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.62155710268162</v>
+        <v>3.621557102681619</v>
       </c>
       <c r="AM16" t="n">
-        <v>9.309803259933236</v>
+        <v>9.309803259933238</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.351976417696368</v>
+        <v>5.351976417696367</v>
       </c>
       <c r="AO16" t="n">
-        <v>2.764686211936736</v>
+        <v>2.764686211936737</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.411258616987327</v>
+        <v>8.411258616987329</v>
       </c>
       <c r="AQ16" t="n">
         <v>4.717624261212869</v>
@@ -4425,10 +4425,10 @@
         <v>3.685596263168563</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.5157615285268569</v>
+        <v>0.5157615285268567</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.07945453858514392</v>
+        <v>0.07945453858514391</v>
       </c>
       <c r="BB16" t="n">
         <v>1.213087575473612</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.7072588999650882</v>
+        <v>0.7072588999650899</v>
       </c>
       <c r="BG16" t="n">
         <v>0.273732435968161</v>
@@ -4458,22 +4458,22 @@
         <v>2.349554147930155</v>
       </c>
       <c r="BK16" t="n">
-        <v>6.56291336412696</v>
+        <v>6.562913364126958</v>
       </c>
       <c r="BL16" t="n">
         <v>6.834237917119561</v>
       </c>
       <c r="BM16" t="n">
-        <v>4.017373893993541</v>
+        <v>4.01737389399354</v>
       </c>
       <c r="BN16" t="n">
         <v>10.08941338217723</v>
       </c>
       <c r="BO16" t="n">
-        <v>7.008421474736249</v>
+        <v>7.008421474736248</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.877666145902722</v>
+        <v>3.877666145902721</v>
       </c>
       <c r="BQ16" t="n">
         <v>10.55089006419337</v>
@@ -4497,7 +4497,7 @@
         <v>7.798408651696366</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.067319736853387</v>
+        <v>3.067319736853386</v>
       </c>
       <c r="BY16" t="n">
         <v>1.469751961383264</v>
@@ -4509,7 +4509,7 @@
         <v>0.7300459449998605</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1253449978038579</v>
+        <v>0.125344997803858</v>
       </c>
       <c r="CC16" t="n">
         <v>1.589510052150886</v>
@@ -4547,7 +4547,7 @@
         <v>12.8931214323823</v>
       </c>
       <c r="K17" t="n">
-        <v>8.074876304945724</v>
+        <v>8.074876304945725</v>
       </c>
       <c r="L17" t="n">
         <v>18.48603975686852</v>
@@ -4565,7 +4565,7 @@
         <v>3.18282135822277</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.667830414104258</v>
+        <v>1.667830414104259</v>
       </c>
       <c r="R17" t="n">
         <v>5.052074599812831</v>
@@ -4574,7 +4574,7 @@
         <v>2.382098642634646</v>
       </c>
       <c r="T17" t="n">
-        <v>1.186352596171087</v>
+        <v>1.186352596171088</v>
       </c>
       <c r="U17" t="n">
         <v>3.855565994900555</v>
@@ -4586,13 +4586,13 @@
         <v>0.4879647818421242</v>
       </c>
       <c r="X17" t="n">
-        <v>2.298033114284525</v>
+        <v>2.298033114284526</v>
       </c>
       <c r="Y17" t="n">
         <v>0.2673599988941765</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0007261213776185264</v>
+        <v>-0.000726121377618523</v>
       </c>
       <c r="AA17" t="n">
         <v>0.7161602373395809</v>
@@ -4625,28 +4625,28 @@
         <v>22.79565163946268</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.054333962721724</v>
+        <v>9.054333962721723</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.458626835863443</v>
+        <v>5.458626835863444</v>
       </c>
       <c r="AM17" t="n">
         <v>13.39527135200711</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.4651991137326768</v>
+        <v>-0.4651991137326821</v>
       </c>
       <c r="AO17" t="n">
-        <v>-1.598303206314014</v>
+        <v>-1.598303206314013</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.441449555545429</v>
+        <v>1.441449555545425</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.454787149573401</v>
+        <v>1.4547871495734</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.4710966331149051</v>
+        <v>0.4710966331149056</v>
       </c>
       <c r="AS17" t="n">
         <v>2.96976237037127</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>6.227915769282427</v>
+        <v>6.227915769282428</v>
       </c>
       <c r="BG17" t="n">
         <v>3.320404286375521</v>
@@ -4706,7 +4706,7 @@
         <v>20.71246733012772</v>
       </c>
       <c r="BL17" t="n">
-        <v>13.08031993646372</v>
+        <v>13.08031993646373</v>
       </c>
       <c r="BM17" t="n">
         <v>8.275796726991329</v>
@@ -4721,13 +4721,13 @@
         <v>2.825778500245574</v>
       </c>
       <c r="BQ17" t="n">
-        <v>8.059078496040872</v>
+        <v>8.059078496040868</v>
       </c>
       <c r="BR17" t="n">
         <v>2.73869773663753</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.9413401289868766</v>
+        <v>0.9413401289868757</v>
       </c>
       <c r="BT17" t="n">
         <v>5.322231795796609</v>
@@ -4736,7 +4736,7 @@
         <v>2.625452884160103</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.261847362463636</v>
+        <v>1.261847362463635</v>
       </c>
       <c r="BW17" t="n">
         <v>4.480082779623352</v>
@@ -4783,7 +4783,7 @@
         <v>-9.155645625451173</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.787947597039137</v>
+        <v>-6.787947597039135</v>
       </c>
       <c r="I18" t="n">
         <v>-11.03321573205115</v>
@@ -4792,7 +4792,7 @@
         <v>12.2806426031087</v>
       </c>
       <c r="K18" t="n">
-        <v>7.034942749138992</v>
+        <v>7.03494274913899</v>
       </c>
       <c r="L18" t="n">
         <v>18.73640308291183</v>
@@ -4831,7 +4831,7 @@
         <v>1.700625502476885</v>
       </c>
       <c r="X18" t="n">
-        <v>5.959665781275812</v>
+        <v>5.959665781275811</v>
       </c>
       <c r="Y18" t="n">
         <v>0.7144533459390792</v>
@@ -4855,28 +4855,28 @@
         <v>-10.12636374355815</v>
       </c>
       <c r="AF18" t="n">
-        <v>-7.423815322449443</v>
+        <v>-7.42381532244944</v>
       </c>
       <c r="AG18" t="n">
-        <v>-12.74137429662537</v>
+        <v>-12.74137429662538</v>
       </c>
       <c r="AH18" t="n">
-        <v>-13.30852685558713</v>
+        <v>-13.30852685558712</v>
       </c>
       <c r="AI18" t="n">
-        <v>-10.27106920158948</v>
+        <v>-10.27106920158949</v>
       </c>
       <c r="AJ18" t="n">
         <v>-16.10413093254527</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.862842296063503</v>
+        <v>1.862842296063505</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.858957589520843</v>
+        <v>0.8589575895208448</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.334334678025479</v>
+        <v>3.334334678025478</v>
       </c>
       <c r="AN18" t="n">
         <v>16.88946272211411</v>
@@ -4909,7 +4909,7 @@
         <v>3.266318416777997</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.506672087957748</v>
+        <v>1.506672087957747</v>
       </c>
       <c r="AY18" t="n">
         <v>5.521012030407117</v>
@@ -4921,7 +4921,7 @@
         <v>0.1486889805894329</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.724160321707334</v>
+        <v>1.724160321707335</v>
       </c>
       <c r="BC18" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>-2.554250722716539</v>
       </c>
       <c r="BH18" t="n">
-        <v>-6.70533899964426</v>
+        <v>-6.705338999644262</v>
       </c>
       <c r="BI18" t="n">
         <v>-11.04093715434025</v>
@@ -4951,7 +4951,7 @@
         <v>-14.23808189719086</v>
       </c>
       <c r="BL18" t="n">
-        <v>-4.087764247418148</v>
+        <v>-4.087764247418145</v>
       </c>
       <c r="BM18" t="n">
         <v>-3.587032818418492</v>
@@ -4987,22 +4987,22 @@
         <v>13.014208264324</v>
       </c>
       <c r="BX18" t="n">
-        <v>4.841917943359783</v>
+        <v>4.841917943359782</v>
       </c>
       <c r="BY18" t="n">
         <v>2.452010806530518</v>
       </c>
       <c r="BZ18" t="n">
-        <v>7.619923190581143</v>
+        <v>7.619923190581142</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.089006463654483</v>
+        <v>1.089006463654482</v>
       </c>
       <c r="CB18" t="n">
         <v>0.2388978284173546</v>
       </c>
       <c r="CC18" t="n">
-        <v>2.272366120086024</v>
+        <v>2.272366120086023</v>
       </c>
     </row>
     <row r="19">
@@ -5025,13 +5025,13 @@
         <v>26.32379840771881</v>
       </c>
       <c r="G19" t="n">
-        <v>29.15929784726338</v>
+        <v>29.15929784726339</v>
       </c>
       <c r="H19" t="n">
         <v>18.9279917524993</v>
       </c>
       <c r="I19" t="n">
-        <v>39.64969702878228</v>
+        <v>39.64969702878227</v>
       </c>
       <c r="J19" t="n">
         <v>17.83440201785123</v>
@@ -5052,13 +5052,13 @@
         <v>4.961606624412845</v>
       </c>
       <c r="P19" t="n">
-        <v>1.383594281840858</v>
+        <v>1.383594281840859</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3756681907794155</v>
+        <v>0.3756681907794146</v>
       </c>
       <c r="R19" t="n">
-        <v>2.91584573766243</v>
+        <v>2.915845737662428</v>
       </c>
       <c r="S19" t="n">
         <v>0.7814069076384862</v>
@@ -5067,22 +5067,22 @@
         <v>0.1739969642639168</v>
       </c>
       <c r="U19" t="n">
-        <v>1.743228538937903</v>
+        <v>1.743228538937904</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3675702141389485</v>
+        <v>0.3675702141389483</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03970454437261284</v>
+        <v>0.03970454437261273</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8972484748865468</v>
+        <v>0.8972484748865472</v>
       </c>
       <c r="Y19" t="n">
         <v>0.07390463542759207</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.01077417557757228</v>
+        <v>-0.01077417557757229</v>
       </c>
       <c r="AA19" t="n">
         <v>0.270775303817673</v>
@@ -5109,7 +5109,7 @@
         <v>25.83269510505156</v>
       </c>
       <c r="AI19" t="n">
-        <v>18.55748170970476</v>
+        <v>18.55748170970475</v>
       </c>
       <c r="AJ19" t="n">
         <v>33.42327999279902</v>
@@ -5124,13 +5124,13 @@
         <v>23.75281474470356</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.009628575604401</v>
+        <v>5.009628575604403</v>
       </c>
       <c r="AO19" t="n">
         <v>2.568746139784477</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.93980374495235</v>
+        <v>7.939803744952346</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.967881977050809</v>
@@ -5154,7 +5154,7 @@
         <v>0.7040484079861941</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.187322177018829</v>
+        <v>0.1873221770188292</v>
       </c>
       <c r="AY19" t="n">
         <v>1.468850389901228</v>
@@ -5163,10 +5163,10 @@
         <v>0.1597926444634146</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.00455887145486817</v>
+        <v>0.004558871454868163</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.4553588604832862</v>
+        <v>0.4553588604832861</v>
       </c>
       <c r="BC19" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>27.37788664045809</v>
       </c>
       <c r="BL19" t="n">
-        <v>20.37209336409857</v>
+        <v>20.37209336409856</v>
       </c>
       <c r="BM19" t="n">
         <v>13.29970209245041</v>
@@ -5211,7 +5211,7 @@
         <v>6.636312556736087</v>
       </c>
       <c r="BQ19" t="n">
-        <v>15.3504758972617</v>
+        <v>15.35047589726169</v>
       </c>
       <c r="BR19" t="n">
         <v>4.406667685499642</v>
@@ -5220,13 +5220,13 @@
         <v>2.084296555802454</v>
       </c>
       <c r="BT19" t="n">
-        <v>7.509916576759677</v>
+        <v>7.509916576759676</v>
       </c>
       <c r="BU19" t="n">
         <v>2.161502415134303</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.8601959136310122</v>
+        <v>0.8601959136310116</v>
       </c>
       <c r="BW19" t="n">
         <v>4.192005466431402</v>
@@ -5244,10 +5244,10 @@
         <v>0.2228812305732029</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.004814578731096891</v>
+        <v>0.004814578731096919</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.6407855893789838</v>
+        <v>0.6407855893789841</v>
       </c>
     </row>
     <row r="20">
@@ -5276,13 +5276,13 @@
         <v>13.31435316183596</v>
       </c>
       <c r="I20" t="n">
-        <v>29.81618552315576</v>
+        <v>29.81618552315577</v>
       </c>
       <c r="J20" t="n">
         <v>11.42315817390684</v>
       </c>
       <c r="K20" t="n">
-        <v>6.988077654860073</v>
+        <v>6.988077654860074</v>
       </c>
       <c r="L20" t="n">
         <v>16.51790513596528</v>
@@ -5300,7 +5300,7 @@
         <v>3.872632766008048</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.168177739162558</v>
+        <v>2.168177739162557</v>
       </c>
       <c r="R20" t="n">
         <v>5.861481953648516</v>
@@ -5312,7 +5312,7 @@
         <v>1.670558670197109</v>
       </c>
       <c r="U20" t="n">
-        <v>4.847492059959121</v>
+        <v>4.84749205995912</v>
       </c>
       <c r="V20" t="n">
         <v>1.705580345039144</v>
@@ -5327,7 +5327,7 @@
         <v>0.3664464848795396</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008904802569421871</v>
+        <v>0.00890480256942186</v>
       </c>
       <c r="AA20" t="n">
         <v>0.9280903953272881</v>
@@ -5345,7 +5345,7 @@
         <v>10.1895686229221</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.863168610005615</v>
+        <v>6.863168610005612</v>
       </c>
       <c r="AG20" t="n">
         <v>13.70332655519529</v>
@@ -5360,16 +5360,16 @@
         <v>19.61468056729824</v>
       </c>
       <c r="AK20" t="n">
-        <v>5.62164247821655</v>
+        <v>5.621642478216552</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.845038484513229</v>
+        <v>2.845038484513228</v>
       </c>
       <c r="AM20" t="n">
-        <v>9.102555034557447</v>
+        <v>9.102555034557449</v>
       </c>
       <c r="AN20" t="n">
-        <v>-3.727346080197547</v>
+        <v>-3.727346080197551</v>
       </c>
       <c r="AO20" t="n">
         <v>-4.145347296986834</v>
@@ -5381,22 +5381,22 @@
         <v>0.9976252491595332</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.1633934236659491</v>
+        <v>0.1633934236659496</v>
       </c>
       <c r="AS20" t="n">
         <v>2.277983965121503</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.949351335553083</v>
+        <v>1.949351335553082</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8626956304134007</v>
       </c>
       <c r="AV20" t="n">
-        <v>3.33692467127765</v>
+        <v>3.336924671277651</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.443168339865654</v>
+        <v>1.443168339865655</v>
       </c>
       <c r="AX20" t="n">
         <v>0.5206903469492794</v>
@@ -5408,10 +5408,10 @@
         <v>0.3749836180248834</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.03702295803891957</v>
+        <v>0.03702295803891958</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.9434960669196175</v>
+        <v>0.9434960669196173</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.897619641982802</v>
+        <v>4.897619641982804</v>
       </c>
       <c r="BG20" t="n">
         <v>2.548734968023284</v>
@@ -5438,7 +5438,7 @@
         <v>7.816196155636259</v>
       </c>
       <c r="BK20" t="n">
-        <v>17.83176463492591</v>
+        <v>17.8317646349259</v>
       </c>
       <c r="BL20" t="n">
         <v>10.66200503807546</v>
@@ -5456,7 +5456,7 @@
         <v>0.793402529938632</v>
       </c>
       <c r="BQ20" t="n">
-        <v>4.210337576520885</v>
+        <v>4.21033757652088</v>
       </c>
       <c r="BR20" t="n">
         <v>1.644132723314643</v>
@@ -5471,7 +5471,7 @@
         <v>2.753454201125028</v>
       </c>
       <c r="BV20" t="n">
-        <v>1.419666871233108</v>
+        <v>1.419666871233107</v>
       </c>
       <c r="BW20" t="n">
         <v>4.511274115195289</v>
@@ -5480,16 +5480,16 @@
         <v>2.108243636519673</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.9826283629165817</v>
+        <v>0.9826283629165818</v>
       </c>
       <c r="BZ20" t="n">
         <v>3.484434955965645</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.5520161662488465</v>
+        <v>0.5520161662488464</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.06633877372607794</v>
+        <v>0.06633877372607795</v>
       </c>
       <c r="CC20" t="n">
         <v>1.254560862910199</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.990729734156204</v>
+        <v>7.990729734156203</v>
       </c>
       <c r="E21" t="n">
         <v>4.64003516505562</v>
@@ -5518,7 +5518,7 @@
         <v>15.04504996631129</v>
       </c>
       <c r="H21" t="n">
-        <v>9.047642948859298</v>
+        <v>9.0476429488593</v>
       </c>
       <c r="I21" t="n">
         <v>21.77280394602773</v>
@@ -5536,16 +5536,16 @@
         <v>4.836008763635498</v>
       </c>
       <c r="N21" t="n">
-        <v>2.381347691352682</v>
+        <v>2.381347691352683</v>
       </c>
       <c r="O21" t="n">
         <v>7.861550526013268</v>
       </c>
       <c r="P21" t="n">
-        <v>6.569545594151888</v>
+        <v>6.569545594151889</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.002547794212297</v>
+        <v>4.002547794212296</v>
       </c>
       <c r="R21" t="n">
         <v>9.321735129886147</v>
@@ -5560,19 +5560,19 @@
         <v>6.986880025407573</v>
       </c>
       <c r="V21" t="n">
-        <v>2.442412987396173</v>
+        <v>2.442412987396174</v>
       </c>
       <c r="W21" t="n">
         <v>1.068205685418617</v>
       </c>
       <c r="X21" t="n">
-        <v>4.057883105799642</v>
+        <v>4.057883105799643</v>
       </c>
       <c r="Y21" t="n">
         <v>0.5157888067301521</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02986295937866148</v>
+        <v>0.02986295937866146</v>
       </c>
       <c r="AA21" t="n">
         <v>1.241449084199181</v>
@@ -5590,37 +5590,37 @@
         <v>3.480690357552428</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.095818575228165</v>
+        <v>2.095818575228163</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.121299515307597</v>
+        <v>5.121299515307602</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.109426776463834</v>
+        <v>7.109426776463837</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.412834993753245</v>
+        <v>4.412834993753247</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.35271003049874</v>
+        <v>10.35271003049873</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.284748900471202</v>
+        <v>2.284748900471206</v>
       </c>
       <c r="AL21" t="n">
         <v>0.4737328767957489</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.69194898507104</v>
+        <v>4.691948985071043</v>
       </c>
       <c r="AN21" t="n">
-        <v>-2.318648517266377</v>
+        <v>-2.31864851726638</v>
       </c>
       <c r="AO21" t="n">
         <v>-3.121494778791975</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.9531029085871836</v>
+        <v>-0.9531029085871872</v>
       </c>
       <c r="AQ21" t="n">
         <v>2.450616476441125</v>
@@ -5647,10 +5647,10 @@
         <v>0.8208356366781107</v>
       </c>
       <c r="AY21" t="n">
-        <v>3.598902911951525</v>
+        <v>3.598902911951524</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.5236802775602358</v>
+        <v>0.5236802775602357</v>
       </c>
       <c r="BA21" t="n">
         <v>0.07043755550927643</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.736313826138216</v>
+        <v>1.736313826138219</v>
       </c>
       <c r="BG21" t="n">
         <v>0.7902521567268443</v>
@@ -5677,22 +5677,22 @@
         <v>2.920737375338914</v>
       </c>
       <c r="BI21" t="n">
-        <v>6.09624981494417</v>
+        <v>6.096249814944169</v>
       </c>
       <c r="BJ21" t="n">
         <v>3.473113845704654</v>
       </c>
       <c r="BK21" t="n">
-        <v>9.203634564333775</v>
+        <v>9.203634564333772</v>
       </c>
       <c r="BL21" t="n">
         <v>6.022913625351953</v>
       </c>
       <c r="BM21" t="n">
-        <v>3.502633015616358</v>
+        <v>3.502633015616357</v>
       </c>
       <c r="BN21" t="n">
-        <v>9.011818533256061</v>
+        <v>9.01181853325606</v>
       </c>
       <c r="BO21" t="n">
         <v>1.740786384877868</v>
@@ -5701,7 +5701,7 @@
         <v>0.3349356031291553</v>
       </c>
       <c r="BQ21" t="n">
-        <v>3.582633455564537</v>
+        <v>3.582633455564535</v>
       </c>
       <c r="BR21" t="n">
         <v>3.075217945775126</v>
@@ -5734,7 +5734,7 @@
         <v>0.7554258047172295</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.1151564166847424</v>
+        <v>0.1151564166847425</v>
       </c>
       <c r="CC21" t="n">
         <v>1.632984971629447</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.665685907136348</v>
+        <v>7.66568590713635</v>
       </c>
       <c r="E22" t="n">
         <v>5.30798125203395</v>
@@ -5790,22 +5790,22 @@
         <v>5.02076112395219</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.658093725672655</v>
+        <v>2.658093725672654</v>
       </c>
       <c r="R22" t="n">
         <v>8.052100527501938</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8109059720216205</v>
+        <v>0.810905972021621</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1096856685917518</v>
+        <v>0.1096856685917511</v>
       </c>
       <c r="U22" t="n">
         <v>2.113472050547726</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.08320554838125105</v>
+        <v>-0.08320554838125149</v>
       </c>
       <c r="W22" t="n">
         <v>-0.1496628529854241</v>
@@ -5817,10 +5817,10 @@
         <v>-0.06904910855464241</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.00122509643849945</v>
+        <v>0.001225096438499454</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.07687304065276157</v>
+        <v>-0.07687304065276146</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -5841,7 +5841,7 @@
         <v>11.02794191194569</v>
       </c>
       <c r="AH22" t="n">
-        <v>22.4185146442554</v>
+        <v>22.41851464425539</v>
       </c>
       <c r="AI22" t="n">
         <v>16.7641429294914</v>
@@ -5859,7 +5859,7 @@
         <v>37.60637756929015</v>
       </c>
       <c r="AN22" t="n">
-        <v>28.02150338049263</v>
+        <v>28.02150338049264</v>
       </c>
       <c r="AO22" t="n">
         <v>20.22728911197061</v>
@@ -5886,13 +5886,13 @@
         <v>4.755848772775428</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.895544815637848</v>
+        <v>0.8955448156378477</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.3731213783477713</v>
+        <v>0.3731213783477715</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.728930443552342</v>
+        <v>1.728930443552343</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.1360363973632776</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>3.687977785651118</v>
+        <v>3.687977785651115</v>
       </c>
       <c r="BG22" t="n">
         <v>2.10868157613708</v>
@@ -5922,10 +5922,10 @@
         <v>5.399840130602033</v>
       </c>
       <c r="BI22" t="n">
-        <v>14.40546993476362</v>
+        <v>14.40546993476363</v>
       </c>
       <c r="BJ22" t="n">
-        <v>9.382287803839349</v>
+        <v>9.38228780383935</v>
       </c>
       <c r="BK22" t="n">
         <v>19.45572303983765</v>
@@ -5970,13 +5970,13 @@
         <v>1.400997191436986</v>
       </c>
       <c r="BY22" t="n">
-        <v>0.4461885817092703</v>
+        <v>0.4461885817092704</v>
       </c>
       <c r="BZ22" t="n">
         <v>3.042204223348224</v>
       </c>
       <c r="CA22" t="n">
-        <v>0.1467416514210957</v>
+        <v>0.1467416514210958</v>
       </c>
       <c r="CB22" t="n">
         <v>0.03538032208844345</v>
@@ -5999,7 +5999,7 @@
         <v>13.47656754162889</v>
       </c>
       <c r="E23" t="n">
-        <v>7.815670273931846</v>
+        <v>7.815670273931847</v>
       </c>
       <c r="F23" t="n">
         <v>19.89550234736294</v>
@@ -6011,16 +6011,16 @@
         <v>9.714054733550013</v>
       </c>
       <c r="I23" t="n">
-        <v>23.57287123251995</v>
+        <v>23.57287123251996</v>
       </c>
       <c r="J23" t="n">
         <v>7.232385364132165</v>
       </c>
       <c r="K23" t="n">
-        <v>3.944679661431346</v>
+        <v>3.944679661431345</v>
       </c>
       <c r="L23" t="n">
-        <v>11.39649365132291</v>
+        <v>11.3964936513229</v>
       </c>
       <c r="M23" t="n">
         <v>-1.211821640491076</v>
@@ -6044,10 +6044,10 @@
         <v>4.730093041471751</v>
       </c>
       <c r="T23" t="n">
-        <v>2.666435495658606</v>
+        <v>2.666435495658607</v>
       </c>
       <c r="U23" t="n">
-        <v>6.911647518729702</v>
+        <v>6.911647518729701</v>
       </c>
       <c r="V23" t="n">
         <v>2.597095546565638</v>
@@ -6062,7 +6062,7 @@
         <v>0.5616709515351772</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02240802940467326</v>
+        <v>0.02240802940467325</v>
       </c>
       <c r="AA23" t="n">
         <v>1.365403597269261</v>
@@ -6077,46 +6077,46 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.90720508122967</v>
+        <v>6.907205081229669</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.356728084180031</v>
+        <v>4.35672808418003</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.724336148346655</v>
+        <v>9.724336148346657</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.899327071813907</v>
+        <v>6.899327071813913</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.919145494392238</v>
+        <v>3.919145494392239</v>
       </c>
       <c r="AJ23" t="n">
         <v>10.5866845423397</v>
       </c>
       <c r="AK23" t="n">
-        <v>-2.250113280102532</v>
+        <v>-2.250113280102529</v>
       </c>
       <c r="AL23" t="n">
-        <v>-3.112021045444505</v>
+        <v>-3.112021045444504</v>
       </c>
       <c r="AM23" t="n">
         <v>-0.5904468239650811</v>
       </c>
       <c r="AN23" t="n">
-        <v>-9.595723610881874</v>
+        <v>-9.595723610881882</v>
       </c>
       <c r="AO23" t="n">
         <v>-8.660036206303005</v>
       </c>
       <c r="AP23" t="n">
-        <v>-9.714049622482676</v>
+        <v>-9.714049622482673</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.334069556675753</v>
+        <v>0.3340695566757521</v>
       </c>
       <c r="AR23" t="n">
-        <v>-0.2073122903172222</v>
+        <v>-0.2073122903172218</v>
       </c>
       <c r="AS23" t="n">
         <v>1.253987598650557</v>
@@ -6125,16 +6125,16 @@
         <v>2.427058798105168</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.142115549444104</v>
+        <v>1.142115549444105</v>
       </c>
       <c r="AV23" t="n">
         <v>3.954738296387457</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.940206550074294</v>
+        <v>1.940206550074295</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.7445324711694681</v>
+        <v>0.744532471169468</v>
       </c>
       <c r="AY23" t="n">
         <v>3.467695843425111</v>
@@ -6143,7 +6143,7 @@
         <v>0.5197597430186379</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.05894117142879935</v>
+        <v>0.05894117142879936</v>
       </c>
       <c r="BB23" t="n">
         <v>1.27186965640749</v>
@@ -6158,16 +6158,16 @@
         <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>3.557880799703035</v>
+        <v>3.557880799703038</v>
       </c>
       <c r="BG23" t="n">
         <v>1.758835196735601</v>
       </c>
       <c r="BH23" t="n">
-        <v>5.759743853168191</v>
+        <v>5.75974385316819</v>
       </c>
       <c r="BI23" t="n">
-        <v>7.743824849657937</v>
+        <v>7.743824849657935</v>
       </c>
       <c r="BJ23" t="n">
         <v>4.532181449504597</v>
@@ -6176,13 +6176,13 @@
         <v>11.50535054456806</v>
       </c>
       <c r="BL23" t="n">
-        <v>4.29091047201248</v>
+        <v>4.290910472012483</v>
       </c>
       <c r="BM23" t="n">
         <v>2.313506099708234</v>
       </c>
       <c r="BN23" t="n">
-        <v>6.80810172324313</v>
+        <v>6.808101723243132</v>
       </c>
       <c r="BO23" t="n">
         <v>-3.523895414497614</v>
@@ -6191,22 +6191,22 @@
         <v>-3.112463233098145</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-3.233341488882122</v>
+        <v>-3.233341488882125</v>
       </c>
       <c r="BR23" t="n">
         <v>-0.2192722547163424</v>
       </c>
       <c r="BS23" t="n">
-        <v>-1.108523305462623</v>
+        <v>-1.108523305462624</v>
       </c>
       <c r="BT23" t="n">
-        <v>1.348201221176902</v>
+        <v>1.348201221176904</v>
       </c>
       <c r="BU23" t="n">
         <v>3.139424231989846</v>
       </c>
       <c r="BV23" t="n">
-        <v>1.789063658330602</v>
+        <v>1.789063658330601</v>
       </c>
       <c r="BW23" t="n">
         <v>4.714715937619211</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.678567799391552</v>
+        <v>3.678567799391551</v>
       </c>
       <c r="E24" t="n">
         <v>2.111448341651081</v>
@@ -6253,7 +6253,7 @@
         <v>12.54657054094588</v>
       </c>
       <c r="H24" t="n">
-        <v>7.528467371230917</v>
+        <v>7.528467371230919</v>
       </c>
       <c r="I24" t="n">
         <v>18.09857638084431</v>
@@ -6262,7 +6262,7 @@
         <v>13.50491583837563</v>
       </c>
       <c r="K24" t="n">
-        <v>8.241759790402735</v>
+        <v>8.241759790402734</v>
       </c>
       <c r="L24" t="n">
         <v>19.28288902651422</v>
@@ -6280,7 +6280,7 @@
         <v>7.729484008920913</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.726922859192346</v>
+        <v>4.726922859192345</v>
       </c>
       <c r="R24" t="n">
         <v>10.96914329052277</v>
@@ -6289,7 +6289,7 @@
         <v>4.719448682304049</v>
       </c>
       <c r="T24" t="n">
-        <v>2.601589556616266</v>
+        <v>2.601589556616267</v>
       </c>
       <c r="U24" t="n">
         <v>7.094233863546824</v>
@@ -6307,7 +6307,7 @@
         <v>0.4687272597990917</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03501444092911794</v>
+        <v>0.03501444092911792</v>
       </c>
       <c r="AA24" t="n">
         <v>1.122875725515725</v>
@@ -6325,46 +6325,46 @@
         <v>1.00613733058708</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4830355219593008</v>
+        <v>0.4830355219593003</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.733613387114331</v>
+        <v>1.733613387114334</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.420753242281327</v>
+        <v>6.420753242281329</v>
       </c>
       <c r="AI24" t="n">
-        <v>4.178878431270615</v>
+        <v>4.178878431270617</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.052313966405906</v>
+        <v>9.052313966405904</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.417061965321441</v>
+        <v>6.417061965321444</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.767533668133081</v>
+        <v>3.76753366813308</v>
       </c>
       <c r="AM24" t="n">
-        <v>9.531317104657878</v>
+        <v>9.531317104657882</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.220793137247286</v>
+        <v>5.220793137247285</v>
       </c>
       <c r="AO24" t="n">
         <v>2.648806357530843</v>
       </c>
       <c r="AP24" t="n">
-        <v>8.210120346427651</v>
+        <v>8.210120346427654</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.667470639544078</v>
+        <v>4.667470639544079</v>
       </c>
       <c r="AR24" t="n">
         <v>2.532281248099853</v>
       </c>
       <c r="AS24" t="n">
-        <v>7.124087377459428</v>
+        <v>7.124087377459427</v>
       </c>
       <c r="AT24" t="n">
         <v>3.453536220944636</v>
@@ -6382,16 +6382,16 @@
         <v>0.8875587365874231</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.700434168938355</v>
+        <v>3.700434168938354</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.5197079563851824</v>
+        <v>0.5197079563851823</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.08028100558668044</v>
+        <v>0.08028100558668043</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.221933931064567</v>
+        <v>1.221933931064566</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.4430882175011914</v>
+        <v>0.4430882175011934</v>
       </c>
       <c r="BG24" t="n">
         <v>0.123044662884803</v>
@@ -6418,10 +6418,10 @@
         <v>2.37105151258834</v>
       </c>
       <c r="BK24" t="n">
-        <v>6.675915104117802</v>
+        <v>6.6759151041178</v>
       </c>
       <c r="BL24" t="n">
-        <v>7.141130870976849</v>
+        <v>7.141130870976848</v>
       </c>
       <c r="BM24" t="n">
         <v>4.242169239837187</v>
@@ -6445,10 +6445,10 @@
         <v>3.745052385180262</v>
       </c>
       <c r="BT24" t="n">
-        <v>9.682724332312215</v>
+        <v>9.682724332312214</v>
       </c>
       <c r="BU24" t="n">
-        <v>5.129525951102293</v>
+        <v>5.129525951102292</v>
       </c>
       <c r="BV24" t="n">
         <v>2.888131366593568</v>
@@ -6469,7 +6469,7 @@
         <v>0.7328558073204574</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.1246288773567264</v>
+        <v>0.1246288773567265</v>
       </c>
       <c r="CC24" t="n">
         <v>1.593324705903986</v>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.448645992642247</v>
+        <v>-5.448645992642249</v>
       </c>
       <c r="E25" t="n">
         <v>-3.682857313540913</v>
@@ -6507,7 +6507,7 @@
         <v>14.33582721002065</v>
       </c>
       <c r="K25" t="n">
-        <v>8.625641232687968</v>
+        <v>8.625641232687967</v>
       </c>
       <c r="L25" t="n">
         <v>20.86273067422726</v>
@@ -6525,7 +6525,7 @@
         <v>11.84858791484087</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.467835212477288</v>
+        <v>7.467835212477287</v>
       </c>
       <c r="R25" t="n">
         <v>16.40018847394642</v>
@@ -6537,7 +6537,7 @@
         <v>3.560085120444878</v>
       </c>
       <c r="U25" t="n">
-        <v>9.421278995787977</v>
+        <v>9.421278995787976</v>
       </c>
       <c r="V25" t="n">
         <v>2.883152426402467</v>
@@ -6552,7 +6552,7 @@
         <v>0.5680595294035552</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05536545822998461</v>
+        <v>0.05536545822998459</v>
       </c>
       <c r="AA25" t="n">
         <v>1.33111394167072</v>
@@ -6570,22 +6570,22 @@
         <v>-5.797389719968209</v>
       </c>
       <c r="AF25" t="n">
-        <v>-4.276781426879503</v>
+        <v>-4.276781426879501</v>
       </c>
       <c r="AG25" t="n">
-        <v>-7.197723518852158</v>
+        <v>-7.197723518852157</v>
       </c>
       <c r="AH25" t="n">
-        <v>-3.788223573744153</v>
+        <v>-3.788223573744149</v>
       </c>
       <c r="AI25" t="n">
-        <v>-3.163073666400752</v>
+        <v>-3.163073666400749</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-4.176106515116098</v>
+        <v>-4.176106515116102</v>
       </c>
       <c r="AK25" t="n">
-        <v>6.206108663117591</v>
+        <v>6.206108663117594</v>
       </c>
       <c r="AL25" t="n">
         <v>3.960146024495628</v>
@@ -6603,7 +6603,7 @@
         <v>20.03821266705041</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.588084138272576</v>
+        <v>8.588084138272578</v>
       </c>
       <c r="AR25" t="n">
         <v>5.145869777448497</v>
@@ -6624,7 +6624,7 @@
         <v>2.731197604419471</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.230476962227242</v>
+        <v>1.230476962227241</v>
       </c>
       <c r="AY25" t="n">
         <v>4.661488728166151</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="BF25" t="n">
-        <v>-2.690589794660935</v>
+        <v>-2.690589794660934</v>
       </c>
       <c r="BG25" t="n">
         <v>-1.549206776836889</v>
@@ -6663,13 +6663,13 @@
         <v>-3.181579953750507</v>
       </c>
       <c r="BK25" t="n">
-        <v>-5.044943126644517</v>
+        <v>-5.044943126644513</v>
       </c>
       <c r="BL25" t="n">
-        <v>2.085791934591798</v>
+        <v>2.0857919345918</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.6973363228197629</v>
+        <v>0.697336322819762</v>
       </c>
       <c r="BN25" t="n">
         <v>3.994113181879525</v>
@@ -6678,7 +6678,7 @@
         <v>11.79364859374333</v>
       </c>
       <c r="BP25" t="n">
-        <v>7.057261468413076</v>
+        <v>7.057261468413075</v>
       </c>
       <c r="BQ25" t="n">
         <v>17.04372421604805</v>
@@ -6702,7 +6702,7 @@
         <v>11.17017867896547</v>
       </c>
       <c r="BX25" t="n">
-        <v>4.017329121404661</v>
+        <v>4.01732912140466</v>
       </c>
       <c r="BY25" t="n">
         <v>1.973781292811066</v>
@@ -6711,7 +6711,7 @@
         <v>6.454537110007958</v>
       </c>
       <c r="CA25" t="n">
-        <v>0.8996461367890839</v>
+        <v>0.8996461367890838</v>
       </c>
       <c r="CB25" t="n">
         <v>0.1864995832230325</v>
@@ -6752,7 +6752,7 @@
         <v>9.618142825559639</v>
       </c>
       <c r="K26" t="n">
-        <v>5.571339309962584</v>
+        <v>5.571339309962583</v>
       </c>
       <c r="L26" t="n">
         <v>14.62860599321703</v>
@@ -6761,7 +6761,7 @@
         <v>5.723327484230211</v>
       </c>
       <c r="N26" t="n">
-        <v>2.908355200150021</v>
+        <v>2.908355200150022</v>
       </c>
       <c r="O26" t="n">
         <v>9.166486190204896</v>
@@ -6779,13 +6779,13 @@
         <v>4.747503663455244</v>
       </c>
       <c r="T26" t="n">
-        <v>2.650491332583109</v>
+        <v>2.65049133258311</v>
       </c>
       <c r="U26" t="n">
         <v>7.051122688330333</v>
       </c>
       <c r="V26" t="n">
-        <v>2.448311616279814</v>
+        <v>2.448311616279815</v>
       </c>
       <c r="W26" t="n">
         <v>1.079816480155322</v>
@@ -6794,7 +6794,7 @@
         <v>4.109607691022711</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5134300024780812</v>
+        <v>0.5134300024780813</v>
       </c>
       <c r="Z26" t="n">
         <v>0.02525606253159796</v>
@@ -6821,13 +6821,13 @@
         <v>7.552000524999179</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.311880298798968</v>
+        <v>5.311880298798973</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.957542870065965</v>
+        <v>2.957542870065966</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.219866925995003</v>
+        <v>8.219866925994999</v>
       </c>
       <c r="AK26" t="n">
         <v>1.479650669024211</v>
@@ -6839,19 +6839,19 @@
         <v>3.805893606172472</v>
       </c>
       <c r="AN26" t="n">
-        <v>-1.793915395470046</v>
+        <v>-1.793915395470052</v>
       </c>
       <c r="AO26" t="n">
         <v>-2.6579753611684</v>
       </c>
       <c r="AP26" t="n">
-        <v>-0.1485498263484857</v>
+        <v>-0.1485498263484892</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.651230963116288</v>
+        <v>2.651230963116287</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.309304901840159</v>
+        <v>1.30930490184016</v>
       </c>
       <c r="AS26" t="n">
         <v>4.404773754472146</v>
@@ -6869,16 +6869,16 @@
         <v>1.99116391909118</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.8016755054794504</v>
+        <v>0.8016755054794503</v>
       </c>
       <c r="AY26" t="n">
         <v>3.539551288872357</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.5078945661269334</v>
+        <v>0.5078945661269333</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.06713168750313031</v>
+        <v>0.06713168750313032</v>
       </c>
       <c r="BB26" t="n">
         <v>1.220362726963164</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>2.792996555993803</v>
+        <v>2.792996555993806</v>
       </c>
       <c r="BG26" t="n">
         <v>1.393003249060276</v>
@@ -6902,16 +6902,16 @@
         <v>4.508360857083389</v>
       </c>
       <c r="BI26" t="n">
-        <v>5.853290068976523</v>
+        <v>5.85329006897652</v>
       </c>
       <c r="BJ26" t="n">
         <v>3.387124387071911</v>
       </c>
       <c r="BK26" t="n">
-        <v>8.751627604370405</v>
+        <v>8.751627604370402</v>
       </c>
       <c r="BL26" t="n">
-        <v>4.7953418099228</v>
+        <v>4.795341809922802</v>
       </c>
       <c r="BM26" t="n">
         <v>2.60345163224177</v>
@@ -6920,13 +6920,13 @@
         <v>7.510322585133714</v>
       </c>
       <c r="BO26" t="n">
-        <v>1.744724105521733</v>
+        <v>1.744724105521732</v>
       </c>
       <c r="BP26" t="n">
         <v>0.4620445451908424</v>
       </c>
       <c r="BQ26" t="n">
-        <v>3.78567567447411</v>
+        <v>3.785675674474108</v>
       </c>
       <c r="BR26" t="n">
         <v>3.335797984666957</v>
@@ -6956,7 +6956,7 @@
         <v>4.657089206170256</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.744186355434842</v>
+        <v>0.7441863554348418</v>
       </c>
       <c r="CB26" t="n">
         <v>0.1180208984732685</v>
@@ -7021,10 +7021,10 @@
         <v>-1.483168331030646</v>
       </c>
       <c r="S27" t="n">
-        <v>-1.568842912137216</v>
+        <v>-1.568842912137215</v>
       </c>
       <c r="T27" t="n">
-        <v>-1.279155901184324</v>
+        <v>-1.279155901184323</v>
       </c>
       <c r="U27" t="n">
         <v>-1.420206823030495</v>
@@ -7033,16 +7033,16 @@
         <v>-0.8142827003708726</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.5463417565722321</v>
+        <v>-0.5463417565722323</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.8884638092401049</v>
+        <v>-0.888463809240104</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.1733447702823481</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.03905980791032053</v>
+        <v>-0.03905980791032052</v>
       </c>
       <c r="AA27" t="n">
         <v>-0.2598946974285505</v>
@@ -7063,7 +7063,7 @@
         <v>16.64339969643423</v>
       </c>
       <c r="AG27" t="n">
-        <v>30.24333440878027</v>
+        <v>30.24333440878026</v>
       </c>
       <c r="AH27" t="n">
         <v>36.62310692481125</v>
@@ -7078,28 +7078,28 @@
         <v>24.70204757260007</v>
       </c>
       <c r="AL27" t="n">
-        <v>17.13046315214618</v>
+        <v>17.13046315214617</v>
       </c>
       <c r="AM27" t="n">
         <v>32.89916480108892</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.600711418239937</v>
+        <v>6.600711418239934</v>
       </c>
       <c r="AO27" t="n">
         <v>3.86017800345065</v>
       </c>
       <c r="AP27" t="n">
-        <v>9.932079667965615</v>
+        <v>9.93207966796561</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8717454068455046</v>
+        <v>0.8717454068455037</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.0453460626101263</v>
+        <v>-0.04534606261012541</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.486835263935623</v>
+        <v>2.486835263935624</v>
       </c>
       <c r="AT27" t="n">
         <v>-0.00228482202653213</v>
@@ -7108,25 +7108,25 @@
         <v>-0.2856429384454513</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.7029076169503199</v>
+        <v>0.702907616950319</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.1504027272451487</v>
+        <v>-0.1504027272451485</v>
       </c>
       <c r="AX27" t="n">
-        <v>-0.227139191219929</v>
+        <v>-0.2271391912199288</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.1264657246446506</v>
+        <v>0.126465724644651</v>
       </c>
       <c r="AZ27" t="n">
-        <v>-0.06326529149797783</v>
+        <v>-0.06326529149797777</v>
       </c>
       <c r="BA27" t="n">
-        <v>-0.04022806621119685</v>
+        <v>-0.04022806621119682</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.0255031944634927</v>
+        <v>-0.02550319446349292</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>18.72730787783119</v>
       </c>
       <c r="BK27" t="n">
-        <v>39.11272288623373</v>
+        <v>39.11272288623372</v>
       </c>
       <c r="BL27" t="n">
-        <v>28.04328558292492</v>
+        <v>28.04328558292491</v>
       </c>
       <c r="BM27" t="n">
         <v>18.52245649551268</v>
@@ -7165,7 +7165,7 @@
         <v>37.60634450579038</v>
       </c>
       <c r="BO27" t="n">
-        <v>14.2115950289656</v>
+        <v>14.21159502896561</v>
       </c>
       <c r="BP27" t="n">
         <v>9.063600982821661</v>
@@ -7177,7 +7177,7 @@
         <v>3.93985745691613</v>
       </c>
       <c r="BS27" t="n">
-        <v>1.659453745755348</v>
+        <v>1.659453745755347</v>
       </c>
       <c r="BT27" t="n">
         <v>7.217756538215283</v>
@@ -7186,13 +7186,13 @@
         <v>0.6264867283613427</v>
       </c>
       <c r="BV27" t="n">
-        <v>-0.2273057902791469</v>
+        <v>-0.2273057902791478</v>
       </c>
       <c r="BW27" t="n">
         <v>2.401420036268961</v>
       </c>
       <c r="BX27" t="n">
-        <v>-0.1539708058772966</v>
+        <v>-0.1539708058772962</v>
       </c>
       <c r="BY27" t="n">
         <v>-0.3272023666602228</v>
@@ -7207,7 +7207,7 @@
         <v>-0.06403371559447359</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.05522662031393044</v>
+        <v>0.05522662031393066</v>
       </c>
     </row>
     <row r="28">
@@ -7233,7 +7233,7 @@
         <v>11.55221761905922</v>
       </c>
       <c r="H28" t="n">
-        <v>7.169868163042258</v>
+        <v>7.16986816304226</v>
       </c>
       <c r="I28" t="n">
         <v>16.1403857519604</v>
@@ -7260,7 +7260,7 @@
         <v>8.147160483303239</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.914517152463065</v>
+        <v>4.914517152463064</v>
       </c>
       <c r="R28" t="n">
         <v>11.74246732801383</v>
@@ -7308,13 +7308,13 @@
         <v>0.6095675733654824</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.246935340979725</v>
+        <v>1.246935340979728</v>
       </c>
       <c r="AH28" t="n">
         <v>8.799734723680405</v>
       </c>
       <c r="AI28" t="n">
-        <v>6.290472262375575</v>
+        <v>6.290472262375576</v>
       </c>
       <c r="AJ28" t="n">
         <v>11.46609975060344</v>
@@ -7323,13 +7323,13 @@
         <v>14.1833410725386</v>
       </c>
       <c r="AL28" t="n">
-        <v>9.820899376272088</v>
+        <v>9.820899376272086</v>
       </c>
       <c r="AM28" t="n">
         <v>18.88491538641902</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.89119847777673</v>
+        <v>15.89119847777674</v>
       </c>
       <c r="AO28" t="n">
         <v>10.85027173012059</v>
@@ -7341,7 +7341,7 @@
         <v>7.291333081392109</v>
       </c>
       <c r="AR28" t="n">
-        <v>4.209781226757347</v>
+        <v>4.209781226757346</v>
       </c>
       <c r="AS28" t="n">
         <v>10.75091567211363</v>
@@ -7359,7 +7359,7 @@
         <v>1.928245536656126</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.8351757251871437</v>
+        <v>0.8351757251871438</v>
       </c>
       <c r="AY28" t="n">
         <v>3.378455685988741</v>
@@ -7392,13 +7392,13 @@
         <v>0.3823898695219459</v>
       </c>
       <c r="BI28" t="n">
-        <v>4.89116202469677</v>
+        <v>4.891162024696771</v>
       </c>
       <c r="BJ28" t="n">
         <v>2.87875048555058</v>
       </c>
       <c r="BK28" t="n">
-        <v>7.141900079094487</v>
+        <v>7.141900079094489</v>
       </c>
       <c r="BL28" t="n">
         <v>10.9845559688473</v>
@@ -7449,7 +7449,7 @@
         <v>0.5958910608308092</v>
       </c>
       <c r="CB28" t="n">
-        <v>0.1147868071089359</v>
+        <v>0.114786807108936</v>
       </c>
       <c r="CC28" t="n">
         <v>1.342714926079621</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>18.62701237399981</v>
+        <v>18.6270123739998</v>
       </c>
       <c r="E29" t="n">
         <v>11.03634724426369</v>
@@ -7505,7 +7505,7 @@
         <v>3.507406824227141</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.017016892542868</v>
+        <v>2.017016892542869</v>
       </c>
       <c r="R29" t="n">
         <v>5.152834685467333</v>
@@ -7514,7 +7514,7 @@
         <v>3.935069353557522</v>
       </c>
       <c r="T29" t="n">
-        <v>2.192680649226192</v>
+        <v>2.192680649226193</v>
       </c>
       <c r="U29" t="n">
         <v>5.764185618339815</v>
@@ -7532,7 +7532,7 @@
         <v>0.5114151156699277</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01108079654247405</v>
+        <v>0.01108079654247404</v>
       </c>
       <c r="AA29" t="n">
         <v>1.263975066385075</v>
@@ -7550,13 +7550,13 @@
         <v>10.78494945486326</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.060699786440935</v>
+        <v>7.060699786440934</v>
       </c>
       <c r="AG29" t="n">
         <v>14.7976798537528</v>
       </c>
       <c r="AH29" t="n">
-        <v>11.55442886041043</v>
+        <v>11.55442886041044</v>
       </c>
       <c r="AI29" t="n">
         <v>7.226298512306101</v>
@@ -7565,7 +7565,7 @@
         <v>16.66768400697477</v>
       </c>
       <c r="AK29" t="n">
-        <v>-2.345911186862356</v>
+        <v>-2.345911186862352</v>
       </c>
       <c r="AL29" t="n">
         <v>-3.354303789077239</v>
@@ -7574,19 +7574,19 @@
         <v>-0.4725570919283335</v>
       </c>
       <c r="AN29" t="n">
-        <v>-14.26656814027791</v>
+        <v>-14.26656814027792</v>
       </c>
       <c r="AO29" t="n">
         <v>-12.23093281517069</v>
       </c>
       <c r="AP29" t="n">
-        <v>-15.42695751223437</v>
+        <v>-15.42695751223438</v>
       </c>
       <c r="AQ29" t="n">
         <v>-1.576083571019706</v>
       </c>
       <c r="AR29" t="n">
-        <v>-1.465166414008597</v>
+        <v>-1.465166414008595</v>
       </c>
       <c r="AS29" t="n">
         <v>-1.276932240726982</v>
@@ -7598,16 +7598,16 @@
         <v>0.7118808972837123</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.864103539490891</v>
+        <v>2.864103539490892</v>
       </c>
       <c r="AW29" t="n">
         <v>1.62141792565259</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.5682833255498939</v>
+        <v>0.5682833255498937</v>
       </c>
       <c r="AY29" t="n">
-        <v>2.972330658041421</v>
+        <v>2.97233065804142</v>
       </c>
       <c r="AZ29" t="n">
         <v>0.4533172156259768</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>5.388890488247995</v>
+        <v>5.388890488247998</v>
       </c>
       <c r="BG29" t="n">
         <v>2.745648689679806</v>
@@ -7643,25 +7643,25 @@
         <v>7.286999818015834</v>
       </c>
       <c r="BK29" t="n">
-        <v>17.25277791995838</v>
+        <v>17.25277791995837</v>
       </c>
       <c r="BL29" t="n">
-        <v>6.511686986347716</v>
+        <v>6.511686986347719</v>
       </c>
       <c r="BM29" t="n">
-        <v>3.861127212373299</v>
+        <v>3.8611272123733</v>
       </c>
       <c r="BN29" t="n">
-        <v>9.668064829876689</v>
+        <v>9.668064829876691</v>
       </c>
       <c r="BO29" t="n">
         <v>-5.916016758920675</v>
       </c>
       <c r="BP29" t="n">
-        <v>-4.686372276595613</v>
+        <v>-4.686372276595611</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-6.454378287445763</v>
+        <v>-6.454378287445767</v>
       </c>
       <c r="BR29" t="n">
         <v>-2.744922490499713</v>
@@ -7676,7 +7676,7 @@
         <v>1.912398137920723</v>
       </c>
       <c r="BV29" t="n">
-        <v>1.038704079782807</v>
+        <v>1.038704079782806</v>
       </c>
       <c r="BW29" t="n">
         <v>3.042936839112663</v>
@@ -7691,10 +7691,10 @@
         <v>3.629422476960977</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.6861710504178977</v>
+        <v>0.6861710504178976</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.07689696442099996</v>
+        <v>0.07689696442099997</v>
       </c>
       <c r="CC29" t="n">
         <v>1.501355988981464</v>
@@ -7759,7 +7759,7 @@
         <v>3.169544730026427</v>
       </c>
       <c r="T30" t="n">
-        <v>1.654614507121611</v>
+        <v>1.654614507121612</v>
       </c>
       <c r="U30" t="n">
         <v>4.986967229559752</v>
@@ -7795,7 +7795,7 @@
         <v>8.666977292668646</v>
       </c>
       <c r="AF30" t="n">
-        <v>5.898512012419756</v>
+        <v>5.898512012419755</v>
       </c>
       <c r="AG30" t="n">
         <v>11.53099093184782</v>
@@ -7804,31 +7804,31 @@
         <v>12.79535018821079</v>
       </c>
       <c r="AI30" t="n">
-        <v>8.74011275000661</v>
+        <v>8.740112750006608</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.24786295095355</v>
+        <v>17.24786295095354</v>
       </c>
       <c r="AK30" t="n">
-        <v>9.351406427343296</v>
+        <v>9.351406427343294</v>
       </c>
       <c r="AL30" t="n">
-        <v>5.846886144947638</v>
+        <v>5.846886144947639</v>
       </c>
       <c r="AM30" t="n">
         <v>13.498895464695</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.074462135214281</v>
+        <v>4.074462135214278</v>
       </c>
       <c r="AO30" t="n">
         <v>1.856713548147772</v>
       </c>
       <c r="AP30" t="n">
-        <v>6.953219174737457</v>
+        <v>6.953219174737455</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.314786655600069</v>
+        <v>3.314786655600068</v>
       </c>
       <c r="AR30" t="n">
         <v>1.680010615823331</v>
@@ -7849,7 +7849,7 @@
         <v>1.49412570888254</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.5778333812592619</v>
+        <v>0.5778333812592618</v>
       </c>
       <c r="AY30" t="n">
         <v>2.737045526308846</v>
@@ -7861,7 +7861,7 @@
         <v>0.04521347411325054</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.8919891374752918</v>
+        <v>0.8919891374752917</v>
       </c>
       <c r="BC30" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>4.13273539827357</v>
+        <v>4.132735398273571</v>
       </c>
       <c r="BG30" t="n">
         <v>2.182903020347959</v>
@@ -7906,13 +7906,13 @@
         <v>4.367910308227619</v>
       </c>
       <c r="BQ30" t="n">
-        <v>11.22935473987712</v>
+        <v>11.22935473987711</v>
       </c>
       <c r="BR30" t="n">
         <v>5.199202962697943</v>
       </c>
       <c r="BS30" t="n">
-        <v>2.748731361725368</v>
+        <v>2.748731361725367</v>
       </c>
       <c r="BT30" t="n">
         <v>8.296721903286288</v>
@@ -7939,7 +7939,7 @@
         <v>0.5238264442108805</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.07724347529232498</v>
+        <v>0.07724347529232499</v>
       </c>
       <c r="CC30" t="n">
         <v>1.207271289678538</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.162795984631853</v>
+        <v>7.162795984631854</v>
       </c>
       <c r="E31" t="n">
         <v>4.570849243651035</v>
@@ -8010,7 +8010,7 @@
         <v>4.225809506510377</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8127336248079733</v>
+        <v>0.8127336248079731</v>
       </c>
       <c r="W31" t="n">
         <v>0.2985973844840873</v>
@@ -8022,7 +8022,7 @@
         <v>0.124406254911942</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0112731506384532</v>
+        <v>0.01127315063845321</v>
       </c>
       <c r="AA31" t="n">
         <v>0.3685118928691465</v>
@@ -8040,28 +8040,28 @@
         <v>7.024985978829978</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.060387466240078</v>
+        <v>5.06038746624008</v>
       </c>
       <c r="AG31" t="n">
-        <v>8.871977262365736</v>
+        <v>8.871977262365732</v>
       </c>
       <c r="AH31" t="n">
         <v>13.58688489659493</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.890103956785298</v>
+        <v>9.890103956785296</v>
       </c>
       <c r="AJ31" t="n">
         <v>17.29483111880639</v>
       </c>
       <c r="AK31" t="n">
-        <v>20.8474494836872</v>
+        <v>20.84744948368719</v>
       </c>
       <c r="AL31" t="n">
         <v>14.90209951352105</v>
       </c>
       <c r="AM31" t="n">
-        <v>27.2488341765937</v>
+        <v>27.24883417659369</v>
       </c>
       <c r="AN31" t="n">
         <v>22.54667569115556</v>
@@ -8097,13 +8097,13 @@
         <v>0.5825934041689648</v>
       </c>
       <c r="AY31" t="n">
-        <v>2.486922488806478</v>
+        <v>2.486922488806479</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.2689732387820552</v>
+        <v>0.2689732387820553</v>
       </c>
       <c r="BA31" t="n">
-        <v>0.05104863306774084</v>
+        <v>0.05104863306774085</v>
       </c>
       <c r="BB31" t="n">
         <v>0.6292116616381818</v>
@@ -8118,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>3.140750990763042</v>
+        <v>3.14075099076304</v>
       </c>
       <c r="BG31" t="n">
         <v>1.770845124099471</v>
       </c>
       <c r="BH31" t="n">
-        <v>4.677191417024524</v>
+        <v>4.677191417024525</v>
       </c>
       <c r="BI31" t="n">
         <v>9.374986265516593</v>
@@ -8166,7 +8166,7 @@
         <v>5.766566339150734</v>
       </c>
       <c r="BV31" t="n">
-        <v>2.974958248328345</v>
+        <v>2.974958248328346</v>
       </c>
       <c r="BW31" t="n">
         <v>9.232575086891126</v>
@@ -8175,7 +8175,7 @@
         <v>2.103187689390103</v>
       </c>
       <c r="BY31" t="n">
-        <v>0.8929830333999995</v>
+        <v>0.8929830333999996</v>
       </c>
       <c r="BZ31" t="n">
         <v>3.906095731552002</v>
@@ -8184,10 +8184,10 @@
         <v>0.3586719756832664</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.07830610661078152</v>
+        <v>0.0783061066107815</v>
       </c>
       <c r="CC31" t="n">
-        <v>0.9093719366225115</v>
+        <v>0.9093719366225114</v>
       </c>
     </row>
     <row r="32">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5032823044511305</v>
+        <v>0.5032823044511314</v>
       </c>
       <c r="E32" t="n">
         <v>0.7481658493031214</v>
@@ -8240,7 +8240,7 @@
         <v>7.770124484697449</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.528897227373425</v>
+        <v>4.528897227373424</v>
       </c>
       <c r="R32" t="n">
         <v>11.57703047304945</v>
@@ -8255,7 +8255,7 @@
         <v>4.268920681726868</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6551017511966887</v>
+        <v>0.6551017511966885</v>
       </c>
       <c r="W32" t="n">
         <v>0.2209614252771939</v>
@@ -8264,7 +8264,7 @@
         <v>1.385315364658971</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07970351223295238</v>
+        <v>0.07970351223295241</v>
       </c>
       <c r="Z32" t="n">
         <v>0.02103152903597318</v>
@@ -8288,7 +8288,7 @@
         <v>2.151351501605206</v>
       </c>
       <c r="AG32" t="n">
-        <v>3.053590124480885</v>
+        <v>3.053590124480887</v>
       </c>
       <c r="AH32" t="n">
         <v>14.69575784007728</v>
@@ -8300,7 +8300,7 @@
         <v>18.12727815921729</v>
       </c>
       <c r="AK32" t="n">
-        <v>25.78486077998442</v>
+        <v>25.78486077998443</v>
       </c>
       <c r="AL32" t="n">
         <v>18.77980656666423</v>
@@ -8315,10 +8315,10 @@
         <v>21.36702148457136</v>
       </c>
       <c r="AP32" t="n">
-        <v>37.8932043050451</v>
+        <v>37.89320430504511</v>
       </c>
       <c r="AQ32" t="n">
-        <v>10.27205018031642</v>
+        <v>10.27205018031643</v>
       </c>
       <c r="AR32" t="n">
         <v>6.0971041328979</v>
@@ -8339,10 +8339,10 @@
         <v>1.482164695464371</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.6684766352769375</v>
+        <v>0.6684766352769377</v>
       </c>
       <c r="AY32" t="n">
-        <v>2.647805368872476</v>
+        <v>2.647805368872477</v>
       </c>
       <c r="AZ32" t="n">
         <v>0.2807866290403043</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.7908426522704297</v>
+        <v>0.7908426522704275</v>
       </c>
       <c r="BG32" t="n">
         <v>0.5008865379239977</v>
@@ -8372,19 +8372,19 @@
         <v>1.044373198323009</v>
       </c>
       <c r="BI32" t="n">
-        <v>7.84889110378665</v>
+        <v>7.848891103786653</v>
       </c>
       <c r="BJ32" t="n">
         <v>5.017708129249558</v>
       </c>
       <c r="BK32" t="n">
-        <v>10.71459122925467</v>
+        <v>10.71459122925468</v>
       </c>
       <c r="BL32" t="n">
-        <v>17.8600818728206</v>
+        <v>17.86008187282059</v>
       </c>
       <c r="BM32" t="n">
-        <v>11.4587369697183</v>
+        <v>11.45873696971829</v>
       </c>
       <c r="BN32" t="n">
         <v>24.43265093371434</v>
@@ -8426,7 +8426,7 @@
         <v>4.236662982447111</v>
       </c>
       <c r="CA32" t="n">
-        <v>0.3473414275688819</v>
+        <v>0.347341427568882</v>
       </c>
       <c r="CB32" t="n">
         <v>0.08491408549423946</v>
@@ -8494,13 +8494,13 @@
         <v>1.58626361701376</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6263147121389434</v>
+        <v>0.6263147121389432</v>
       </c>
       <c r="U33" t="n">
         <v>3.014104943197731</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5120733112782737</v>
+        <v>0.5120733112782735</v>
       </c>
       <c r="W33" t="n">
         <v>0.1317843341669914</v>
@@ -8512,7 +8512,7 @@
         <v>0.07650922329876339</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.004552814623317509</v>
+        <v>0.004552814623317507</v>
       </c>
       <c r="AA33" t="n">
         <v>0.2563210532117139</v>
@@ -8530,7 +8530,7 @@
         <v>8.998806959039783</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.468106257134974</v>
+        <v>6.468106257134973</v>
       </c>
       <c r="AG33" t="n">
         <v>11.51461995808029</v>
@@ -8584,7 +8584,7 @@
         <v>1.086669168291783</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.4255043897480507</v>
+        <v>0.4255043897480508</v>
       </c>
       <c r="AY33" t="n">
         <v>2.050908926501956</v>
@@ -8593,7 +8593,7 @@
         <v>0.2183164228226966</v>
       </c>
       <c r="BA33" t="n">
-        <v>0.03396517780231131</v>
+        <v>0.0339651778023113</v>
       </c>
       <c r="BB33" t="n">
         <v>0.5386476853159579</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>3.915077949452415</v>
+        <v>3.915077949452414</v>
       </c>
       <c r="BG33" t="n">
         <v>2.154907524710243</v>
       </c>
       <c r="BH33" t="n">
-        <v>5.892992899461961</v>
+        <v>5.892992899461962</v>
       </c>
       <c r="BI33" t="n">
-        <v>13.84150281731343</v>
+        <v>13.84150281731344</v>
       </c>
       <c r="BJ33" t="n">
         <v>8.874588830877109</v>
@@ -8626,7 +8626,7 @@
         <v>18.98973806486096</v>
       </c>
       <c r="BL33" t="n">
-        <v>18.96264114153094</v>
+        <v>18.96264114153093</v>
       </c>
       <c r="BM33" t="n">
         <v>12.26682185816253</v>
@@ -8674,10 +8674,10 @@
         <v>0.2837063979107439</v>
       </c>
       <c r="CB33" t="n">
-        <v>0.04522239233623393</v>
+        <v>0.04522239233623394</v>
       </c>
       <c r="CC33" t="n">
-        <v>0.760970610767667</v>
+        <v>0.7609706107676673</v>
       </c>
     </row>
     <row r="34">
@@ -8712,7 +8712,7 @@
         <v>14.6981367807295</v>
       </c>
       <c r="K34" t="n">
-        <v>9.491614649843214</v>
+        <v>9.491614649843216</v>
       </c>
       <c r="L34" t="n">
         <v>20.37533889961678</v>
@@ -8739,13 +8739,13 @@
         <v>0.7867290872223371</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2064199337850869</v>
+        <v>0.2064199337850874</v>
       </c>
       <c r="U34" t="n">
         <v>1.651935366529343</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5207781160875022</v>
+        <v>0.5207781160875021</v>
       </c>
       <c r="W34" t="n">
         <v>0.1086324075269774</v>
@@ -8784,7 +8784,7 @@
         <v>26.07198201981785</v>
       </c>
       <c r="AI34" t="n">
-        <v>18.42761524126557</v>
+        <v>18.42761524126556</v>
       </c>
       <c r="AJ34" t="n">
         <v>34.19046528076592</v>
@@ -8799,19 +8799,19 @@
         <v>18.69193278039208</v>
       </c>
       <c r="AN34" t="n">
-        <v>-2.398629798460178</v>
+        <v>-2.398629798460183</v>
       </c>
       <c r="AO34" t="n">
         <v>-3.085675142132448</v>
       </c>
       <c r="AP34" t="n">
-        <v>-1.022281239502814</v>
+        <v>-1.022281239502817</v>
       </c>
       <c r="AQ34" t="n">
-        <v>-0.1988185643833527</v>
+        <v>-0.1988185643833535</v>
       </c>
       <c r="AR34" t="n">
-        <v>-0.6748148450593057</v>
+        <v>-0.6748148450593048</v>
       </c>
       <c r="AS34" t="n">
         <v>0.8429725810206286</v>
@@ -8826,7 +8826,7 @@
         <v>1.628936995408779</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.6144667383683105</v>
+        <v>0.6144667383683107</v>
       </c>
       <c r="AX34" t="n">
         <v>0.1158090443098516</v>
@@ -8838,10 +8838,10 @@
         <v>0.1598185377801423</v>
       </c>
       <c r="BA34" t="n">
-        <v>-0.006111045624072393</v>
+        <v>-0.00611104562407238</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.4803267231547478</v>
+        <v>0.4803267231547477</v>
       </c>
       <c r="BC34" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>8.332538855271425</v>
+        <v>8.332538855271427</v>
       </c>
       <c r="BG34" t="n">
         <v>4.476136005338529</v>
@@ -8868,7 +8868,7 @@
         <v>13.83353186562097</v>
       </c>
       <c r="BK34" t="n">
-        <v>29.79260436068323</v>
+        <v>29.79260436068322</v>
       </c>
       <c r="BL34" t="n">
         <v>18.94698316461638</v>
@@ -8886,13 +8886,13 @@
         <v>3.157136484993364</v>
       </c>
       <c r="BQ34" t="n">
-        <v>8.483740398087644</v>
+        <v>8.48374039808764</v>
       </c>
       <c r="BR34" t="n">
         <v>1.047032475285215</v>
       </c>
       <c r="BS34" t="n">
-        <v>-0.3424912895189891</v>
+        <v>-0.34249128951899</v>
       </c>
       <c r="BT34" t="n">
         <v>3.342655021192019</v>
@@ -8901,13 +8901,13 @@
         <v>1.16645155557808</v>
       </c>
       <c r="BV34" t="n">
-        <v>0.3106620594995291</v>
+        <v>0.3106620594995282</v>
       </c>
       <c r="BW34" t="n">
         <v>2.664265024520829</v>
       </c>
       <c r="BX34" t="n">
-        <v>0.9174483726172589</v>
+        <v>0.9174483726172591</v>
       </c>
       <c r="BY34" t="n">
         <v>0.3091778449536313</v>
@@ -8922,7 +8922,7 @@
         <v>-0.00394176149375558</v>
       </c>
       <c r="CC34" t="n">
-        <v>0.6766312013513449</v>
+        <v>0.6766312013513451</v>
       </c>
     </row>
     <row r="35">
@@ -8975,7 +8975,7 @@
         <v>5.774833121163772</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.429333575851937</v>
+        <v>3.429333575851936</v>
       </c>
       <c r="R35" t="n">
         <v>8.382974237430703</v>
@@ -8984,13 +8984,13 @@
         <v>3.932002594912268</v>
       </c>
       <c r="T35" t="n">
-        <v>2.133327645665742</v>
+        <v>2.133327645665743</v>
       </c>
       <c r="U35" t="n">
-        <v>5.962832628887627</v>
+        <v>5.962832628887628</v>
       </c>
       <c r="V35" t="n">
-        <v>1.997392715243381</v>
+        <v>1.997392715243382</v>
       </c>
       <c r="W35" t="n">
         <v>0.8498809640522134</v>
@@ -9002,7 +9002,7 @@
         <v>0.4178817228708245</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02253548385515284</v>
+        <v>0.02253548385515283</v>
       </c>
       <c r="AA35" t="n">
         <v>1.024137771824851</v>
@@ -9020,37 +9020,37 @@
         <v>5.359862552576617</v>
       </c>
       <c r="AF35" t="n">
-        <v>3.511070452061707</v>
+        <v>3.511070452061706</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.414632344943364</v>
+        <v>7.414632344943367</v>
       </c>
       <c r="AH35" t="n">
-        <v>10.62646841146163</v>
+        <v>10.62646841146164</v>
       </c>
       <c r="AI35" t="n">
-        <v>7.122208418262657</v>
+        <v>7.122208418262658</v>
       </c>
       <c r="AJ35" t="n">
         <v>14.60010265491504</v>
       </c>
       <c r="AK35" t="n">
-        <v>6.119989500699869</v>
+        <v>6.119989500699873</v>
       </c>
       <c r="AL35" t="n">
         <v>3.379274359048885</v>
       </c>
       <c r="AM35" t="n">
-        <v>9.427692991969984</v>
+        <v>9.427692991969986</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.6811318883003281</v>
+        <v>0.6811318883003263</v>
       </c>
       <c r="AO35" t="n">
-        <v>-0.8062103969309433</v>
+        <v>-0.8062103969309415</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.698350727235624</v>
+        <v>2.698350727235622</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.807471133517411</v>
@@ -9080,7 +9080,7 @@
         <v>3.190231077784873</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.4493190011341958</v>
+        <v>0.4493190011341957</v>
       </c>
       <c r="BA35" t="n">
         <v>0.05906521531356827</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>2.538268588510048</v>
+        <v>2.53826858851005</v>
       </c>
       <c r="BG35" t="n">
         <v>1.260545928912365</v>
@@ -9107,19 +9107,19 @@
         <v>4.075873472999906</v>
       </c>
       <c r="BI35" t="n">
-        <v>8.490011776583863</v>
+        <v>8.490011776583861</v>
       </c>
       <c r="BJ35" t="n">
         <v>5.104372516441392</v>
       </c>
       <c r="BK35" t="n">
-        <v>12.31034073951728</v>
+        <v>12.31034073951727</v>
       </c>
       <c r="BL35" t="n">
         <v>9.055014431454797</v>
       </c>
       <c r="BM35" t="n">
-        <v>5.564995006658606</v>
+        <v>5.564995006658605</v>
       </c>
       <c r="BN35" t="n">
         <v>12.94937648881079</v>
@@ -9131,16 +9131,16 @@
         <v>2.303757102405255</v>
       </c>
       <c r="BQ35" t="n">
-        <v>7.329853265629737</v>
+        <v>7.329853265629735</v>
       </c>
       <c r="BR35" t="n">
         <v>4.039492939652098</v>
       </c>
       <c r="BS35" t="n">
-        <v>1.93766115244177</v>
+        <v>1.937661152441769</v>
       </c>
       <c r="BT35" t="n">
-        <v>6.708234224822537</v>
+        <v>6.708234224822536</v>
       </c>
       <c r="BU35" t="n">
         <v>3.928493336420163</v>
@@ -9161,10 +9161,10 @@
         <v>4.239679791331217</v>
       </c>
       <c r="CA35" t="n">
-        <v>0.6438409179449505</v>
+        <v>0.6438409179449504</v>
       </c>
       <c r="CB35" t="n">
-        <v>0.09512576531783642</v>
+        <v>0.09512576531783647</v>
       </c>
       <c r="CC35" t="n">
         <v>1.425850111283642</v>
@@ -9220,7 +9220,7 @@
         <v>10.20671243626322</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.284973329105537</v>
+        <v>6.284973329105536</v>
       </c>
       <c r="R36" t="n">
         <v>14.45798991972566</v>
@@ -9229,7 +9229,7 @@
         <v>4.746692325748587</v>
       </c>
       <c r="T36" t="n">
-        <v>2.564208294983381</v>
+        <v>2.56420829498338</v>
       </c>
       <c r="U36" t="n">
         <v>7.357123537017396</v>
@@ -9247,7 +9247,7 @@
         <v>0.3728350627479176</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04186223139473321</v>
+        <v>0.0418622313947332</v>
       </c>
       <c r="AA36" t="n">
         <v>0.8938007397287466</v>
@@ -9265,22 +9265,22 @@
         <v>-2.515026178275777</v>
       </c>
       <c r="AF36" t="n">
-        <v>-1.77034090105392</v>
+        <v>-1.770340901053919</v>
       </c>
       <c r="AG36" t="n">
-        <v>-3.218733112003521</v>
+        <v>-3.218733112003519</v>
       </c>
       <c r="AH36" t="n">
         <v>3.695246315667665</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.619496213539892</v>
+        <v>2.619496213539893</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.851889509842442</v>
       </c>
       <c r="AK36" t="n">
-        <v>14.07786442143667</v>
+        <v>14.07786442143668</v>
       </c>
       <c r="AL36" t="n">
         <v>9.917205554453361</v>
@@ -9295,7 +9295,7 @@
         <v>14.53704819339416</v>
       </c>
       <c r="AP36" t="n">
-        <v>27.13998166813635</v>
+        <v>27.13998166813636</v>
       </c>
       <c r="AQ36" t="n">
         <v>9.251639830756357</v>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="BF36" t="n">
-        <v>-1.350850952381168</v>
+        <v>-1.350850952381169</v>
       </c>
       <c r="BG36" t="n">
         <v>-0.7593070055492055</v>
@@ -9352,13 +9352,13 @@
         <v>-2.024129224223849</v>
       </c>
       <c r="BI36" t="n">
-        <v>0.6068652823756633</v>
+        <v>0.6068652823756651</v>
       </c>
       <c r="BJ36" t="n">
         <v>0.1024347523811562</v>
       </c>
       <c r="BK36" t="n">
-        <v>1.281470963713328</v>
+        <v>1.281470963713332</v>
       </c>
       <c r="BL36" t="n">
         <v>8.456886500654775</v>
@@ -9376,7 +9376,7 @@
         <v>10.96312723144985</v>
       </c>
       <c r="BQ36" t="n">
-        <v>24.48740328145105</v>
+        <v>24.48740328145106</v>
       </c>
       <c r="BR36" t="n">
         <v>13.54499363475615</v>
@@ -9397,7 +9397,7 @@
         <v>10.96673685654155</v>
       </c>
       <c r="BX36" t="n">
-        <v>3.306071907669104</v>
+        <v>3.306071907669103</v>
       </c>
       <c r="BY36" t="n">
         <v>1.543892574081457</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.31485043923516</v>
+        <v>14.31485043923515</v>
       </c>
       <c r="E37" t="n">
         <v>8.507760420859146</v>
@@ -9438,7 +9438,7 @@
         <v>19.04765589515547</v>
       </c>
       <c r="H37" t="n">
-        <v>11.7273948959274</v>
+        <v>11.72739489592741</v>
       </c>
       <c r="I37" t="n">
         <v>27.16306844751066</v>
@@ -9474,13 +9474,13 @@
         <v>3.937324774496119</v>
       </c>
       <c r="T37" t="n">
-        <v>2.165750615186912</v>
+        <v>2.165750615186913</v>
       </c>
       <c r="U37" t="n">
         <v>5.871539456479066</v>
       </c>
       <c r="V37" t="n">
-        <v>2.150600617191935</v>
+        <v>2.150600617191936</v>
       </c>
       <c r="W37" t="n">
         <v>0.9188088272065782</v>
@@ -9492,7 +9492,7 @@
         <v>0.4643535687388672</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01623227809293051</v>
+        <v>0.01623227809293049</v>
       </c>
       <c r="AA37" t="n">
         <v>1.145401707701619</v>
@@ -9510,40 +9510,40 @@
         <v>8.310396427897912</v>
       </c>
       <c r="AF37" t="n">
-        <v>5.447916733172073</v>
+        <v>5.44791673317207</v>
       </c>
       <c r="AG37" t="n">
         <v>11.40999372555953</v>
       </c>
       <c r="AH37" t="n">
-        <v>10.86575532622792</v>
+        <v>10.86575532622793</v>
       </c>
       <c r="AI37" t="n">
-        <v>6.992341949823468</v>
+        <v>6.992341949823469</v>
       </c>
       <c r="AJ37" t="n">
         <v>15.36728794288194</v>
       </c>
       <c r="AK37" t="n">
-        <v>1.786401877987883</v>
+        <v>1.786401877987887</v>
       </c>
       <c r="AL37" t="n">
         <v>-0.06050299773990808</v>
       </c>
       <c r="AM37" t="n">
-        <v>4.366811027658503</v>
+        <v>4.366811027658505</v>
       </c>
       <c r="AN37" t="n">
-        <v>-6.72712648576425</v>
+        <v>-6.727126485764257</v>
       </c>
       <c r="AO37" t="n">
-        <v>-6.460631678847868</v>
+        <v>-6.460631678847866</v>
       </c>
       <c r="AP37" t="n">
         <v>-6.263734257219539</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.640770592083248</v>
+        <v>0.6407705920832472</v>
       </c>
       <c r="AR37" t="n">
         <v>-0.04642950381711053</v>
@@ -9558,22 +9558,22 @@
         <v>1.006316413753093</v>
       </c>
       <c r="AV37" t="n">
-        <v>3.645601130763803</v>
+        <v>3.645601130763804</v>
       </c>
       <c r="AW37" t="n">
         <v>1.698124828403474</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.6350064254592063</v>
+        <v>0.6350064254592062</v>
       </c>
       <c r="AY37" t="n">
-        <v>3.073861915028251</v>
+        <v>3.07386191502825</v>
       </c>
       <c r="AZ37" t="n">
         <v>0.4493448944509235</v>
       </c>
       <c r="BA37" t="n">
-        <v>0.04839529823462772</v>
+        <v>0.04839529823462773</v>
       </c>
       <c r="BB37" t="n">
         <v>1.112106039459031</v>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="BF37" t="n">
-        <v>4.09566487961097</v>
+        <v>4.095664879610974</v>
       </c>
       <c r="BG37" t="n">
         <v>2.078441195837764</v>
@@ -9603,10 +9603,10 @@
         <v>6.18493748489952</v>
       </c>
       <c r="BK37" t="n">
-        <v>14.72505845974241</v>
+        <v>14.7250584597424</v>
       </c>
       <c r="BL37" t="n">
-        <v>7.629904231972613</v>
+        <v>7.629904231972614</v>
       </c>
       <c r="BM37" t="n">
         <v>4.600663436594129</v>
@@ -9621,7 +9621,7 @@
         <v>-1.175418969337468</v>
       </c>
       <c r="BQ37" t="n">
-        <v>0.4631177664556851</v>
+        <v>0.4631177664556816</v>
       </c>
       <c r="BR37" t="n">
         <v>0.6798577294376713</v>
@@ -9636,7 +9636,7 @@
         <v>2.93344247686394</v>
       </c>
       <c r="BV37" t="n">
-        <v>1.598989487826</v>
+        <v>1.598989487825999</v>
       </c>
       <c r="BW37" t="n">
         <v>4.598889111279245</v>
@@ -9716,7 +9716,7 @@
         <v>2.235791922446502</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02652664327509413</v>
+        <v>0.02652664327509369</v>
       </c>
       <c r="T38" t="n">
         <v>-0.2992232387983229</v>
@@ -9725,19 +9725,19 @@
         <v>0.7834238053407176</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.07155142913020196</v>
+        <v>-0.07155142913020218</v>
       </c>
       <c r="W38" t="n">
         <v>-0.1670093822570854</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2744430330221599</v>
+        <v>0.2744430330221603</v>
       </c>
       <c r="Y38" t="n">
         <v>-0.0263612526838064</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.02270854794814444</v>
+        <v>-0.02270854794814442</v>
       </c>
       <c r="AA38" t="n">
         <v>0.06422630021658915</v>
@@ -9761,13 +9761,13 @@
         <v>24.09200837858415</v>
       </c>
       <c r="AH38" t="n">
-        <v>27.5521902623845</v>
+        <v>27.55219026238449</v>
       </c>
       <c r="AI38" t="n">
         <v>19.81156301052689</v>
       </c>
       <c r="AJ38" t="n">
-        <v>35.53782951271159</v>
+        <v>35.5378295127116</v>
       </c>
       <c r="AK38" t="n">
         <v>20.56005576340772</v>
@@ -9779,19 +9779,19 @@
         <v>27.60250337270394</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.534142102967436</v>
+        <v>8.534142102967433</v>
       </c>
       <c r="AO38" t="n">
         <v>5.347549939269085</v>
       </c>
       <c r="AP38" t="n">
-        <v>12.39581046301386</v>
+        <v>12.39581046301385</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.525351120802259</v>
+        <v>2.525351120802258</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.100565415564084</v>
+        <v>1.100565415564085</v>
       </c>
       <c r="AS38" t="n">
         <v>4.613625053286265</v>
@@ -9803,25 +9803,25 @@
         <v>0.2725692017572729</v>
       </c>
       <c r="AV38" t="n">
-        <v>2.103140245608039</v>
+        <v>2.103140245608038</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.3975928519803766</v>
+        <v>0.3975928519803769</v>
       </c>
       <c r="AX38" t="n">
         <v>0.05384596731024205</v>
       </c>
       <c r="AY38" t="n">
-        <v>1.000826932655408</v>
+        <v>1.000826932655409</v>
       </c>
       <c r="AZ38" t="n">
         <v>0.06964565660407207</v>
       </c>
       <c r="BA38" t="n">
-        <v>-0.0101193367469861</v>
+        <v>-0.01011933674698608</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.2513634655800541</v>
+        <v>0.251363465580054</v>
       </c>
       <c r="BC38" t="n">
         <v>0</v>
@@ -9848,7 +9848,7 @@
         <v>14.29823610926684</v>
       </c>
       <c r="BK38" t="n">
-        <v>30.03258585567823</v>
+        <v>30.03258585567822</v>
       </c>
       <c r="BL38" t="n">
         <v>22.17662235477226</v>
@@ -9872,7 +9872,7 @@
         <v>5.631522718268444</v>
       </c>
       <c r="BS38" t="n">
-        <v>2.943285164261214</v>
+        <v>2.943285164261213</v>
       </c>
       <c r="BT38" t="n">
         <v>9.197333312819872</v>
@@ -9881,13 +9881,13 @@
         <v>2.085488056943365</v>
       </c>
       <c r="BV38" t="n">
-        <v>0.7238795126849604</v>
+        <v>0.7238795126849595</v>
       </c>
       <c r="BW38" t="n">
         <v>4.217237791371483</v>
       </c>
       <c r="BX38" t="n">
-        <v>0.6736402546719722</v>
+        <v>0.6736402546719726</v>
       </c>
       <c r="BY38" t="n">
         <v>0.1453919027388564</v>
@@ -9899,7 +9899,7 @@
         <v>0.1000568945185361</v>
       </c>
       <c r="CB38" t="n">
-        <v>-0.01235159084728303</v>
+        <v>-0.01235159084728304</v>
       </c>
       <c r="CC38" t="n">
         <v>0.4183921140207796</v>
@@ -9964,7 +9964,7 @@
         <v>1.564342153153074</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6961189432929994</v>
+        <v>0.6961189432930001</v>
       </c>
       <c r="U39" t="n">
         <v>2.659922097318598</v>
@@ -9982,7 +9982,7 @@
         <v>0.2188732662179802</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.008598181604520101</v>
+        <v>-0.008598181604520107</v>
       </c>
       <c r="AA39" t="n">
         <v>0.6066599748754602</v>
@@ -10003,7 +10003,7 @@
         <v>10.65832896125856</v>
       </c>
       <c r="AG39" t="n">
-        <v>20.4623278378143</v>
+        <v>20.46232783781431</v>
       </c>
       <c r="AH39" t="n">
         <v>23.00432700423627</v>
@@ -10015,28 +10015,28 @@
         <v>30.47628343247555</v>
       </c>
       <c r="AK39" t="n">
-        <v>9.562359729547143</v>
+        <v>9.562359729547145</v>
       </c>
       <c r="AL39" t="n">
-        <v>5.654273788585091</v>
+        <v>5.65427378858509</v>
       </c>
       <c r="AM39" t="n">
         <v>14.17770261821778</v>
       </c>
       <c r="AN39" t="n">
-        <v>-5.529593484475965</v>
+        <v>-5.529593484475969</v>
       </c>
       <c r="AO39" t="n">
-        <v>-5.516839378399375</v>
+        <v>-5.516839378399373</v>
       </c>
       <c r="AP39" t="n">
-        <v>-4.874873145885303</v>
+        <v>-4.874873145885299</v>
       </c>
       <c r="AQ39" t="n">
         <v>-0.6058268431284297</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.9335779135253137</v>
+        <v>-0.9335779135253128</v>
       </c>
       <c r="AS39" t="n">
         <v>0.2231062645765789</v>
@@ -10054,7 +10054,7 @@
         <v>0.8822979937731297</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.2349151556194435</v>
+        <v>0.2349151556194434</v>
       </c>
       <c r="AY39" t="n">
         <v>1.775990967081049</v>
@@ -10066,7 +10066,7 @@
         <v>0.006087761573172298</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.657783051285116</v>
+        <v>0.6577830512851158</v>
       </c>
       <c r="BC39" t="n">
         <v>0</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="BF39" t="n">
-        <v>7.266413410435696</v>
+        <v>7.266413410435698</v>
       </c>
       <c r="BG39" t="n">
         <v>3.855154460069651</v>
@@ -10093,7 +10093,7 @@
         <v>12.22377055954242</v>
       </c>
       <c r="BK39" t="n">
-        <v>26.79889992549057</v>
+        <v>26.79889992549056</v>
       </c>
       <c r="BL39" t="n">
         <v>16.22177531237083</v>
@@ -10111,7 +10111,7 @@
         <v>1.156537750201843</v>
       </c>
       <c r="BQ39" t="n">
-        <v>4.68576003329505</v>
+        <v>4.685760033295047</v>
       </c>
       <c r="BR39" t="n">
         <v>0.01761247168528612</v>
@@ -10126,7 +10126,7 @@
         <v>1.320446351929998</v>
       </c>
       <c r="BV39" t="n">
-        <v>0.4792331221807107</v>
+        <v>0.4792331221807102</v>
       </c>
       <c r="BW39" t="n">
         <v>2.723668190348776</v>
@@ -10144,10 +10144,10 @@
         <v>0.3570361147422541</v>
       </c>
       <c r="CB39" t="n">
-        <v>0.01537276942601891</v>
+        <v>0.01537276942601894</v>
       </c>
       <c r="CC39" t="n">
-        <v>0.8875807154502495</v>
+        <v>0.8875807154502497</v>
       </c>
     </row>
     <row r="40">
@@ -10161,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.136484057877595</v>
+        <v>-1.136484057877596</v>
       </c>
       <c r="E40" t="n">
         <v>-1.154270490136373</v>
@@ -10173,7 +10173,7 @@
         <v>2.944702170430061</v>
       </c>
       <c r="H40" t="n">
-        <v>1.129847675910082</v>
+        <v>1.129847675910083</v>
       </c>
       <c r="I40" t="n">
         <v>5.369794106988287</v>
@@ -10182,7 +10182,7 @@
         <v>11.44973123146367</v>
       </c>
       <c r="K40" t="n">
-        <v>6.651061306853759</v>
+        <v>6.651061306853758</v>
       </c>
       <c r="L40" t="n">
         <v>17.15656143519878</v>
@@ -10209,7 +10209,7 @@
         <v>6.322395838238806</v>
       </c>
       <c r="T40" t="n">
-        <v>3.587015154484157</v>
+        <v>3.587015154484158</v>
       </c>
       <c r="U40" t="n">
         <v>9.313925157648725</v>
@@ -10224,7 +10224,7 @@
         <v>5.008774443537727</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6151210763346155</v>
+        <v>0.6151210763346157</v>
       </c>
       <c r="Z40" t="n">
         <v>0.05021397667952814</v>
@@ -10242,25 +10242,25 @@
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>-3.322836693002861</v>
+        <v>-3.322836693002859</v>
       </c>
       <c r="AF40" t="n">
-        <v>-2.663998373610639</v>
+        <v>-2.663998373610638</v>
       </c>
       <c r="AG40" t="n">
-        <v>-3.810037390658889</v>
+        <v>-3.810037390658887</v>
       </c>
       <c r="AH40" t="n">
-        <v>-3.099550039561647</v>
+        <v>-3.099550039561642</v>
       </c>
       <c r="AI40" t="n">
-        <v>-2.92911710391812</v>
+        <v>-2.929117103918118</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-2.875710451023265</v>
+        <v>-2.875710451023272</v>
       </c>
       <c r="AK40" t="n">
-        <v>2.073795598267353</v>
+        <v>2.073795598267356</v>
       </c>
       <c r="AL40" t="n">
         <v>0.666345233158296</v>
@@ -10269,7 +10269,7 @@
         <v>4.013141831548261</v>
       </c>
       <c r="AN40" t="n">
-        <v>7.285407102423868</v>
+        <v>7.285407102423866</v>
       </c>
       <c r="AO40" t="n">
         <v>4.25205814775517</v>
@@ -10281,7 +10281,7 @@
         <v>6.371229975169623</v>
       </c>
       <c r="AR40" t="n">
-        <v>3.727132867257011</v>
+        <v>3.727132867257012</v>
       </c>
       <c r="AS40" t="n">
         <v>9.322789255615787</v>
@@ -10323,13 +10323,13 @@
         <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>-1.397364186023909</v>
+        <v>-1.397364186023908</v>
       </c>
       <c r="BG40" t="n">
-        <v>-0.8819992829948478</v>
+        <v>-0.8819992829948473</v>
       </c>
       <c r="BH40" t="n">
-        <v>-1.892300812152675</v>
+        <v>-1.892300812152674</v>
       </c>
       <c r="BI40" t="n">
         <v>-2.472343669698041</v>
@@ -10341,7 +10341,7 @@
         <v>-2.517223666428542</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.9675746889669039</v>
+        <v>0.9675746889669057</v>
       </c>
       <c r="BM40" t="n">
         <v>-0.04219990140106678</v>
@@ -10350,7 +10350,7 @@
         <v>2.541144345927769</v>
       </c>
       <c r="BO40" t="n">
-        <v>6.52699793404592</v>
+        <v>6.526997934045919</v>
       </c>
       <c r="BP40" t="n">
         <v>3.546308161154931</v>
@@ -10368,7 +10368,7 @@
         <v>11.76123016451325</v>
       </c>
       <c r="BU40" t="n">
-        <v>6.61452075907131</v>
+        <v>6.614520759071309</v>
       </c>
       <c r="BV40" t="n">
         <v>3.850068223469385</v>
@@ -10386,7 +10386,7 @@
         <v>6.15304253763855</v>
       </c>
       <c r="CA40" t="n">
-        <v>0.922216134185856</v>
+        <v>0.9222161341858559</v>
       </c>
       <c r="CB40" t="n">
         <v>0.1770271225510485</v>
@@ -10445,7 +10445,7 @@
         <v>12.37116545442604</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.728296399050068</v>
+        <v>7.728296399050069</v>
       </c>
       <c r="R41" t="n">
         <v>17.30286605005724</v>
@@ -10466,13 +10466,13 @@
         <v>1.0427486396935</v>
       </c>
       <c r="X41" t="n">
-        <v>3.92314455370768</v>
+        <v>3.923144553707679</v>
       </c>
       <c r="Y41" t="n">
         <v>0.421321795424114</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04973429162163478</v>
+        <v>0.04973429162163479</v>
       </c>
       <c r="AA41" t="n">
         <v>1.003301002192867</v>
@@ -10490,13 +10490,13 @@
         <v>-4.964828006841529</v>
       </c>
       <c r="AF41" t="n">
-        <v>-3.502122919790318</v>
+        <v>-3.502122919790314</v>
       </c>
       <c r="AG41" t="n">
-        <v>-6.469051060140974</v>
+        <v>-6.469051060140976</v>
       </c>
       <c r="AH41" t="n">
-        <v>-2.308015331177508</v>
+        <v>-2.308015331177506</v>
       </c>
       <c r="AI41" t="n">
         <v>-1.77912589713943</v>
@@ -10514,13 +10514,13 @@
         <v>17.76308054344695</v>
       </c>
       <c r="AN41" t="n">
-        <v>25.75762065836514</v>
+        <v>25.75762065836515</v>
       </c>
       <c r="AO41" t="n">
         <v>18.45558436547952</v>
       </c>
       <c r="AP41" t="n">
-        <v>33.45630436956708</v>
+        <v>33.45630436956709</v>
       </c>
       <c r="AQ41" t="n">
         <v>11.31225382345819</v>
@@ -10547,7 +10547,7 @@
         <v>1.168513885227632</v>
       </c>
       <c r="AY41" t="n">
-        <v>4.309834433676953</v>
+        <v>4.309834433676954</v>
       </c>
       <c r="AZ41" t="n">
         <v>0.554527274277783</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="BF41" t="n">
-        <v>-2.389348593534437</v>
+        <v>-2.389348593534439</v>
       </c>
       <c r="BG41" t="n">
         <v>-1.294057179243336</v>
@@ -10583,10 +10583,10 @@
         <v>-2.716875710104639</v>
       </c>
       <c r="BK41" t="n">
-        <v>-4.804961631649514</v>
+        <v>-4.80496163164951</v>
       </c>
       <c r="BL41" t="n">
-        <v>5.315431124747674</v>
+        <v>5.315431124747676</v>
       </c>
       <c r="BM41" t="n">
         <v>2.824848500551898</v>
@@ -10601,13 +10601,13 @@
         <v>12.63236798149358</v>
       </c>
       <c r="BQ41" t="n">
-        <v>27.86072174419687</v>
+        <v>27.86072174419688</v>
       </c>
       <c r="BR41" t="n">
         <v>16.2660788997084</v>
       </c>
       <c r="BS41" t="n">
-        <v>10.8372849011381</v>
+        <v>10.83728490113809</v>
       </c>
       <c r="BT41" t="n">
         <v>21.8820990693052</v>
@@ -10622,7 +10622,7 @@
         <v>12.72315144581613</v>
       </c>
       <c r="BX41" t="n">
-        <v>3.773521003459374</v>
+        <v>3.773521003459373</v>
       </c>
       <c r="BY41" t="n">
         <v>1.809995350596291</v>
@@ -10634,7 +10634,7 @@
         <v>0.7570616656582418</v>
       </c>
       <c r="CB41" t="n">
-        <v>0.1780897538695051</v>
+        <v>0.178089753869505</v>
       </c>
       <c r="CC41" t="n">
         <v>1.654776192801709</v>
@@ -10696,28 +10696,28 @@
         <v>5.631368329374254</v>
       </c>
       <c r="S42" t="n">
-        <v>1.584008196075164</v>
+        <v>1.584008196075163</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6532447461782229</v>
+        <v>0.6532447461782227</v>
       </c>
       <c r="U42" t="n">
         <v>2.90675110505848</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6638065560059172</v>
+        <v>0.6638065560059171</v>
       </c>
       <c r="W42" t="n">
         <v>0.1978094986371799</v>
       </c>
       <c r="X42" t="n">
-        <v>1.372694143755589</v>
+        <v>1.37269414375559</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1235707702298239</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.0005986669271389466</v>
+        <v>-0.0005986669271389501</v>
       </c>
       <c r="AA42" t="n">
         <v>0.3748944118951705</v>
@@ -10768,7 +10768,7 @@
         <v>13.85384990526373</v>
       </c>
       <c r="AQ42" t="n">
-        <v>3.928188726415059</v>
+        <v>3.928188726415058</v>
       </c>
       <c r="AR42" t="n">
         <v>2.001776188823555</v>
@@ -10789,7 +10789,7 @@
         <v>1.009962265540899</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.3587812898387382</v>
+        <v>0.3587812898387384</v>
       </c>
       <c r="AY42" t="n">
         <v>1.949377669515126</v>
@@ -10801,7 +10801,7 @@
         <v>0.02412172772490729</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.5724619035783741</v>
+        <v>0.572461903578374</v>
       </c>
       <c r="BC42" t="n">
         <v>0</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="BF42" t="n">
-        <v>5.20830355808944</v>
+        <v>5.208303558089439</v>
       </c>
       <c r="BG42" t="n">
         <v>2.822115018552284</v>
@@ -10870,7 +10870,7 @@
         <v>1.516362508191974</v>
       </c>
       <c r="BY42" t="n">
-        <v>0.589809950536069</v>
+        <v>0.5898099505360689</v>
       </c>
       <c r="BZ42" t="n">
         <v>2.892965341605574</v>
@@ -10879,10 +10879,10 @@
         <v>0.306276395307516</v>
       </c>
       <c r="CB42" t="n">
-        <v>0.03574993166424993</v>
+        <v>0.03574993166424995</v>
       </c>
       <c r="CC42" t="n">
-        <v>0.8006308764931279</v>
+        <v>0.800630876493128</v>
       </c>
     </row>
     <row r="43">
@@ -10941,10 +10941,10 @@
         <v>7.702920422214778</v>
       </c>
       <c r="S43" t="n">
-        <v>3.177122330548875</v>
+        <v>3.177122330548876</v>
       </c>
       <c r="T43" t="n">
-        <v>1.660107442603502</v>
+        <v>1.660107442603503</v>
       </c>
       <c r="U43" t="n">
         <v>5.003027895290441</v>
@@ -10962,7 +10962,7 @@
         <v>0.317615834759426</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01060111148458068</v>
+        <v>0.01060111148458069</v>
       </c>
       <c r="AA43" t="n">
         <v>0.8175887682237667</v>
@@ -10995,28 +10995,28 @@
         <v>16.71465217482761</v>
       </c>
       <c r="AK43" t="n">
-        <v>9.150131869481548</v>
+        <v>9.150131869481545</v>
       </c>
       <c r="AL43" t="n">
-        <v>5.700909579496177</v>
+        <v>5.700909579496178</v>
       </c>
       <c r="AM43" t="n">
         <v>13.27738161997036</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.205645415663362</v>
+        <v>4.205645415663358</v>
       </c>
       <c r="AO43" t="n">
         <v>1.972593402553665</v>
       </c>
       <c r="AP43" t="n">
-        <v>7.154357445297132</v>
+        <v>7.15435744529713</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3.364940277268859</v>
+        <v>3.364940277268858</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.728950756806279</v>
+        <v>1.72895075680628</v>
       </c>
       <c r="AS43" t="n">
         <v>5.500682209748809</v>
@@ -11034,7 +11034,7 @@
         <v>1.48125094201554</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.5730433484595968</v>
+        <v>0.5730433484595967</v>
       </c>
       <c r="AY43" t="n">
         <v>2.722207620539054</v>
@@ -11043,7 +11043,7 @@
         <v>0.3591720132748533</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.04438700711171401</v>
+        <v>0.04438700711171402</v>
       </c>
       <c r="BB43" t="n">
         <v>0.8831427818843371</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>4.396906080737466</v>
+        <v>4.396906080737468</v>
       </c>
       <c r="BG43" t="n">
         <v>2.333590793431317</v>
@@ -11067,13 +11067,13 @@
         <v>6.818633052405374</v>
       </c>
       <c r="BI43" t="n">
-        <v>10.64081399225591</v>
+        <v>10.6408139922559</v>
       </c>
       <c r="BJ43" t="n">
         <v>6.649641728545388</v>
       </c>
       <c r="BK43" t="n">
-        <v>14.96503995473741</v>
+        <v>14.9650399547374</v>
       </c>
       <c r="BL43" t="n">
         <v>10.85954342212849</v>
@@ -11088,7 +11088,7 @@
         <v>7.495751596392374</v>
       </c>
       <c r="BP43" t="n">
-        <v>4.39968754374304</v>
+        <v>4.399687543743041</v>
       </c>
       <c r="BQ43" t="n">
         <v>11.28011529460451</v>
@@ -11097,7 +11097,7 @@
         <v>5.2643479724209</v>
       </c>
       <c r="BS43" t="n">
-        <v>2.79664976090053</v>
+        <v>2.796649760900529</v>
       </c>
       <c r="BT43" t="n">
         <v>8.395650960882731</v>
@@ -11121,7 +11121,7 @@
         <v>3.764125019440777</v>
       </c>
       <c r="CA43" t="n">
-        <v>0.5210165818902837</v>
+        <v>0.5210165818902835</v>
       </c>
       <c r="CB43" t="n">
         <v>0.07795959573945649</v>
@@ -11201,7 +11201,7 @@
         <v>0.8157158222745675</v>
       </c>
       <c r="X44" t="n">
-        <v>3.209821087702924</v>
+        <v>3.209821087702923</v>
       </c>
       <c r="Y44" t="n">
         <v>0.3251838147538395</v>
@@ -11225,19 +11225,19 @@
         <v>-4.513598356885181</v>
       </c>
       <c r="AF44" t="n">
-        <v>-3.05906072648128</v>
+        <v>-3.059060726481278</v>
       </c>
       <c r="AG44" t="n">
         <v>-5.998743987773891</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.557186162068943</v>
+        <v>2.557186162068941</v>
       </c>
       <c r="AI44" t="n">
         <v>2.02171662013544</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3.018282669623675</v>
+        <v>3.018282669623677</v>
       </c>
       <c r="AK44" t="n">
         <v>18.00890292842517</v>
@@ -11246,10 +11246,10 @@
         <v>13.06502978033923</v>
       </c>
       <c r="AM44" t="n">
-        <v>23.16336608451982</v>
+        <v>23.16336608451983</v>
       </c>
       <c r="AN44" t="n">
-        <v>28.3638512225846</v>
+        <v>28.36385122258461</v>
       </c>
       <c r="AO44" t="n">
         <v>20.42322918412287</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>-2.379905878554296</v>
+        <v>-2.379905878554298</v>
       </c>
       <c r="BG44" t="n">
         <v>-1.275826726307889</v>
@@ -11312,16 +11312,16 @@
         <v>-3.672418090744769</v>
       </c>
       <c r="BI44" t="n">
-        <v>-1.222929561813839</v>
+        <v>-1.222929561813837</v>
       </c>
       <c r="BJ44" t="n">
         <v>-1.021124945393343</v>
       </c>
       <c r="BK44" t="n">
-        <v>-1.359250236493487</v>
+        <v>-1.35925023649348</v>
       </c>
       <c r="BL44" t="n">
-        <v>9.268210792422384</v>
+        <v>9.268210792422382</v>
       </c>
       <c r="BM44" t="n">
         <v>5.561596529125087</v>
@@ -11336,7 +11336,7 @@
         <v>14.50585777422342</v>
       </c>
       <c r="BQ44" t="n">
-        <v>31.45565989007989</v>
+        <v>31.4556598900799</v>
       </c>
       <c r="BR44" t="n">
         <v>17.0349188644165</v>
@@ -11351,13 +11351,13 @@
         <v>8.296632885479918</v>
       </c>
       <c r="BV44" t="n">
-        <v>4.611993806369988</v>
+        <v>4.611993806369989</v>
       </c>
       <c r="BW44" t="n">
         <v>12.55090095896414</v>
       </c>
       <c r="BX44" t="n">
-        <v>3.425447993076962</v>
+        <v>3.425447993076961</v>
       </c>
       <c r="BY44" t="n">
         <v>1.580962880430553</v>
@@ -11404,7 +11404,7 @@
         <v>43.16580125157401</v>
       </c>
       <c r="J45" t="n">
-        <v>16.16810003920496</v>
+        <v>16.16810003920495</v>
       </c>
       <c r="K45" t="n">
         <v>10.57841329992887</v>
@@ -11422,10 +11422,10 @@
         <v>-1.230305744217514</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.4137050081120259</v>
+        <v>-0.413705008112025</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.8126207526079026</v>
+        <v>-0.8126207526079008</v>
       </c>
       <c r="R45" t="n">
         <v>0.5237069924999993</v>
@@ -11440,19 +11440,19 @@
         <v>0.660009301470776</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07870715837653131</v>
+        <v>0.07870715837653108</v>
       </c>
       <c r="W45" t="n">
         <v>-0.1038869164710733</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4864585375463397</v>
+        <v>0.4864585375463402</v>
       </c>
       <c r="Y45" t="n">
         <v>0.02128999531027176</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.02670830528683502</v>
+        <v>-0.02670830528683501</v>
       </c>
       <c r="AA45" t="n">
         <v>0.180109081706734</v>
@@ -11473,7 +11473,7 @@
         <v>14.46102239845015</v>
       </c>
       <c r="AG45" t="n">
-        <v>26.87201925435453</v>
+        <v>26.87201925435452</v>
       </c>
       <c r="AH45" t="n">
         <v>28.69025041598322</v>
@@ -11482,10 +11482,10 @@
         <v>20.40934260393134</v>
       </c>
       <c r="AJ45" t="n">
-        <v>37.37143635293035</v>
+        <v>37.37143635293036</v>
       </c>
       <c r="AK45" t="n">
-        <v>16.62901725641924</v>
+        <v>16.62901725641923</v>
       </c>
       <c r="AL45" t="n">
         <v>11.02742705673698</v>
@@ -11494,19 +11494,19 @@
         <v>22.98464909784174</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.8635171680046927</v>
+        <v>0.8635171680046874</v>
       </c>
       <c r="AO45" t="n">
-        <v>-0.5386310514596282</v>
+        <v>-0.5386310514596264</v>
       </c>
       <c r="AP45" t="n">
-        <v>3.031448937439345</v>
+        <v>3.03144893743934</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.2583433360305136</v>
+        <v>0.2583433360305127</v>
       </c>
       <c r="AR45" t="n">
-        <v>-0.3671116356103501</v>
+        <v>-0.3671116356103492</v>
       </c>
       <c r="AS45" t="n">
         <v>1.534750986270395</v>
@@ -11533,10 +11533,10 @@
         <v>0.07756440563745104</v>
       </c>
       <c r="BA45" t="n">
-        <v>-0.01913631982285358</v>
+        <v>-0.01913631982285357</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.2940240394334249</v>
+        <v>0.2940240394334248</v>
       </c>
       <c r="BC45" t="n">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="BF45" t="n">
-        <v>9.662834982571049</v>
+        <v>9.66283498257105</v>
       </c>
       <c r="BG45" t="n">
         <v>5.247805323690766</v>
@@ -11563,7 +11563,7 @@
         <v>15.42179580704134</v>
       </c>
       <c r="BK45" t="n">
-        <v>32.67330705588504</v>
+        <v>32.67330705588503</v>
       </c>
       <c r="BL45" t="n">
         <v>21.36529806300465</v>
@@ -11596,16 +11596,16 @@
         <v>1.038450238613154</v>
       </c>
       <c r="BV45" t="n">
-        <v>0.1528425507300573</v>
+        <v>0.1528425507300564</v>
       </c>
       <c r="BW45" t="n">
         <v>2.633073688948892</v>
       </c>
       <c r="BX45" t="n">
-        <v>0.5542641692641139</v>
+        <v>0.5542641692641144</v>
       </c>
       <c r="BY45" t="n">
-        <v>0.1083215963897599</v>
+        <v>0.1083215963897598</v>
       </c>
       <c r="BZ45" t="n">
         <v>1.389743840505854</v>
@@ -11617,7 +11617,7 @@
         <v>-0.02254017196639856</v>
       </c>
       <c r="CC45" t="n">
-        <v>0.4618670334993403</v>
+        <v>0.4618670334993404</v>
       </c>
     </row>
     <row r="46">
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.012351152260935</v>
+        <v>2.012351152260937</v>
       </c>
       <c r="E46" t="n">
         <v>1.350172273319195</v>
@@ -11643,7 +11643,7 @@
         <v>7.145251415345158</v>
       </c>
       <c r="H46" t="n">
-        <v>4.679359472509426</v>
+        <v>4.679359472509424</v>
       </c>
       <c r="I46" t="n">
         <v>9.49679442634849</v>
@@ -11670,7 +11670,7 @@
         <v>8.827089620692663</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.284278678988938</v>
+        <v>5.284278678988939</v>
       </c>
       <c r="R46" t="n">
         <v>12.83917521205429</v>
@@ -11691,16 +11691,16 @@
         <v>0.4537996400644783</v>
       </c>
       <c r="X46" t="n">
-        <v>2.124501123275262</v>
+        <v>2.124501123275261</v>
       </c>
       <c r="Y46" t="n">
         <v>0.1746620907771915</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.02260038350065242</v>
+        <v>0.02260038350065243</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.4699404237533323</v>
+        <v>0.4699404237533322</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -11715,16 +11715,16 @@
         <v>3.147241605196387</v>
       </c>
       <c r="AF46" t="n">
-        <v>2.356415763979174</v>
+        <v>2.356415763979176</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.798633556959595</v>
+        <v>3.798633556959591</v>
       </c>
       <c r="AH46" t="n">
         <v>8.931783107998402</v>
       </c>
       <c r="AI46" t="n">
-        <v>6.582950938871435</v>
+        <v>6.582950938871434</v>
       </c>
       <c r="AJ46" t="n">
         <v>11.21383165417132</v>
@@ -11751,7 +11751,7 @@
         <v>10.16596363158409</v>
       </c>
       <c r="AR46" t="n">
-        <v>6.13198191032958</v>
+        <v>6.131981910329581</v>
       </c>
       <c r="AS46" t="n">
         <v>14.73730441079642</v>
@@ -11775,10 +11775,10 @@
         <v>2.982287674190168</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.3354157661747162</v>
+        <v>0.3354157661747163</v>
       </c>
       <c r="BA46" t="n">
-        <v>0.07143795633931649</v>
+        <v>0.0714379563393165</v>
       </c>
       <c r="BB46" t="n">
         <v>0.7551610603242244</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.309741302218082</v>
+        <v>1.309741302218079</v>
       </c>
       <c r="BG46" t="n">
         <v>0.7840316311552669</v>
@@ -11802,13 +11802,13 @@
         <v>1.873766452842611</v>
       </c>
       <c r="BI46" t="n">
-        <v>5.151429459687399</v>
+        <v>5.1514294596874</v>
       </c>
       <c r="BJ46" t="n">
         <v>3.278962635221891</v>
       </c>
       <c r="BK46" t="n">
-        <v>7.04287635411696</v>
+        <v>7.042876354116965</v>
       </c>
       <c r="BL46" t="n">
         <v>13.29351629743131</v>
@@ -11859,10 +11859,10 @@
         <v>0.4448770027381765</v>
       </c>
       <c r="CB46" t="n">
-        <v>0.1085253390968031</v>
+        <v>0.108525339096803</v>
       </c>
       <c r="CC46" t="n">
-        <v>1.073031877489756</v>
+        <v>1.073031877489755</v>
       </c>
     </row>
     <row r="47">
@@ -11918,19 +11918,19 @@
         <v>1.433371335634307</v>
       </c>
       <c r="R47" t="n">
-        <v>5.595285013029629</v>
+        <v>5.59528501302963</v>
       </c>
       <c r="S47" t="n">
-        <v>0.03861508567473537</v>
+        <v>0.03861508567473582</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.3475903713949904</v>
+        <v>-0.3475903713949913</v>
       </c>
       <c r="U47" t="n">
         <v>1.014192147349909</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.3735432613645786</v>
+        <v>-0.3735432613645788</v>
       </c>
       <c r="W47" t="n">
         <v>-0.2961570125132863</v>
@@ -11942,10 +11942,10 @@
         <v>-0.121074047608945</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.0135573090589974</v>
+        <v>-0.01355730905899739</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.1702298399570122</v>
+        <v>-0.1702298399570121</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>17.92431137462051</v>
       </c>
       <c r="AH47" t="n">
-        <v>25.72545657460327</v>
+        <v>25.72545657460326</v>
       </c>
       <c r="AI47" t="n">
         <v>18.9798268546398</v>
@@ -11978,7 +11978,7 @@
         <v>28.62340733524645</v>
       </c>
       <c r="AL47" t="n">
-        <v>20.61687629984605</v>
+        <v>20.61687629984606</v>
       </c>
       <c r="AM47" t="n">
         <v>37.05972576715297</v>
@@ -11990,7 +11990,7 @@
         <v>17.00403206632061</v>
       </c>
       <c r="AP47" t="n">
-        <v>30.92339524360321</v>
+        <v>30.9233952436032</v>
       </c>
       <c r="AQ47" t="n">
         <v>7.009213068676956</v>
@@ -12011,19 +12011,19 @@
         <v>3.666596134291363</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.5381318906151455</v>
+        <v>0.5381318906151453</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.1825021343292019</v>
+        <v>0.182502134329202</v>
       </c>
       <c r="AY47" t="n">
         <v>1.189051540859277</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.05775458639563968</v>
+        <v>0.05775458639563974</v>
       </c>
       <c r="BA47" t="n">
-        <v>0.008741096406285419</v>
+        <v>0.008741096406285426</v>
       </c>
       <c r="BB47" t="n">
         <v>0.1748886734642668</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BF47" t="n">
-        <v>6.311499521587768</v>
+        <v>6.311499521587766</v>
       </c>
       <c r="BG47" t="n">
         <v>3.547558388331358</v>
@@ -12083,7 +12083,7 @@
         <v>17.82864359674451</v>
       </c>
       <c r="BU47" t="n">
-        <v>4.153570214216792</v>
+        <v>4.153570214216793</v>
       </c>
       <c r="BV47" t="n">
         <v>1.855201882683057</v>
@@ -12092,7 +12092,7 @@
         <v>7.357354165960657</v>
       </c>
       <c r="BX47" t="n">
-        <v>0.9154146640818357</v>
+        <v>0.9154146640818361</v>
       </c>
       <c r="BY47" t="n">
         <v>0.2138972711166758</v>
@@ -12101,13 +12101,13 @@
         <v>2.279691218351227</v>
       </c>
       <c r="CA47" t="n">
-        <v>0.05210703740439482</v>
+        <v>0.05210703740439493</v>
       </c>
       <c r="CB47" t="n">
-        <v>0.007309450943816478</v>
+        <v>0.007309450943816465</v>
       </c>
       <c r="CC47" t="n">
-        <v>0.3352569288167579</v>
+        <v>0.3352569288167578</v>
       </c>
     </row>
     <row r="48">
@@ -12142,7 +12142,7 @@
         <v>13.3934599495118</v>
       </c>
       <c r="K48" t="n">
-        <v>8.422796582248694</v>
+        <v>8.422796582248695</v>
       </c>
       <c r="L48" t="n">
         <v>18.96009665400288</v>
@@ -12187,7 +12187,7 @@
         <v>0.268539401020212</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.001577327045913231</v>
+        <v>0.001577327045913228</v>
       </c>
       <c r="AA48" t="n">
         <v>0.7107790829529576</v>
@@ -12205,19 +12205,19 @@
         <v>12.06874081794629</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.278420486839158</v>
+        <v>8.278420486839156</v>
       </c>
       <c r="AG48" t="n">
         <v>15.99665938483106</v>
       </c>
       <c r="AH48" t="n">
-        <v>17.89983859622352</v>
+        <v>17.89983859622353</v>
       </c>
       <c r="AI48" t="n">
         <v>12.41108879884229</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23.86207319171455</v>
+        <v>23.86207319171454</v>
       </c>
       <c r="AK48" t="n">
         <v>9.45688307844522</v>
@@ -12229,7 +12229,7 @@
         <v>13.83829904145639</v>
       </c>
       <c r="AN48" t="n">
-        <v>-0.7275656746308421</v>
+        <v>-0.7275656746308456</v>
       </c>
       <c r="AO48" t="n">
         <v>-1.830062915125801</v>
@@ -12271,7 +12271,7 @@
         <v>0.02565061784321142</v>
       </c>
       <c r="BB48" t="n">
-        <v>0.7748860943802039</v>
+        <v>0.7748860943802038</v>
       </c>
       <c r="BC48" t="n">
         <v>0</v>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="BF48" t="n">
-        <v>5.699574404354633</v>
+        <v>5.699574404354635</v>
       </c>
       <c r="BG48" t="n">
         <v>3.019028740208805</v>
@@ -12298,7 +12298,7 @@
         <v>9.447454826372997</v>
       </c>
       <c r="BK48" t="n">
-        <v>20.93847081010941</v>
+        <v>20.9384708101094</v>
       </c>
       <c r="BL48" t="n">
         <v>13.6941058441783</v>
@@ -12316,7 +12316,7 @@
         <v>2.762224029214731</v>
       </c>
       <c r="BQ48" t="n">
-        <v>7.957557386586085</v>
+        <v>7.95755738658608</v>
       </c>
       <c r="BR48" t="n">
         <v>2.608407717191614</v>
@@ -12331,7 +12331,7 @@
         <v>2.573465925386115</v>
       </c>
       <c r="BV48" t="n">
-        <v>1.240344254640216</v>
+        <v>1.240344254640215</v>
       </c>
       <c r="BW48" t="n">
         <v>4.423659119111333</v>
@@ -12349,7 +12349,7 @@
         <v>0.4404312794765673</v>
       </c>
       <c r="CB48" t="n">
-        <v>0.04630812235917194</v>
+        <v>0.04630812235917195</v>
       </c>
       <c r="CC48" t="n">
         <v>1.047426002564394</v>
@@ -12369,7 +12369,7 @@
         <v>-8.047442699310565</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.345519888675745</v>
+        <v>-5.345519888675743</v>
       </c>
       <c r="F49" t="n">
         <v>-10.38367032368391</v>
@@ -12378,7 +12378,7 @@
         <v>-0.3753811020486353</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.123522374689188</v>
+        <v>-1.123522374689186</v>
       </c>
       <c r="I49" t="n">
         <v>0.9166097448509589</v>
@@ -12387,7 +12387,7 @@
         <v>12.86586395154519</v>
       </c>
       <c r="K49" t="n">
-        <v>7.538842582602317</v>
+        <v>7.538842582602316</v>
       </c>
       <c r="L49" t="n">
         <v>18.89459605332402</v>
@@ -12429,10 +12429,10 @@
         <v>5.432495527183701</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.6671460153889182</v>
+        <v>0.6671460153889183</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.064996382177025</v>
+        <v>0.06499638217702498</v>
       </c>
       <c r="AA49" t="n">
         <v>1.543044099658427</v>
@@ -12456,22 +12456,22 @@
         <v>-10.70640685333371</v>
       </c>
       <c r="AH49" t="n">
-        <v>-6.406491969909522</v>
+        <v>-6.406491969909519</v>
       </c>
       <c r="AI49" t="n">
-        <v>-5.144801029066524</v>
+        <v>-5.144801029066521</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-7.357077587280534</v>
+        <v>-7.357077587280537</v>
       </c>
       <c r="AK49" t="n">
-        <v>2.773417178612419</v>
+        <v>2.773417178612425</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.346557673145414</v>
+        <v>1.346557673145412</v>
       </c>
       <c r="AM49" t="n">
-        <v>4.559793633685439</v>
+        <v>4.559793633685441</v>
       </c>
       <c r="AN49" t="n">
         <v>11.56270179047266</v>
@@ -12480,10 +12480,10 @@
         <v>7.475315193405168</v>
       </c>
       <c r="AP49" t="n">
-        <v>15.98448249010825</v>
+        <v>15.98448249010826</v>
       </c>
       <c r="AQ49" t="n">
-        <v>8.130922237858709</v>
+        <v>8.13092223785871</v>
       </c>
       <c r="AR49" t="n">
         <v>4.838166567999541</v>
@@ -12501,7 +12501,7 @@
         <v>8.006758039937566</v>
       </c>
       <c r="AW49" t="n">
-        <v>3.011903626691289</v>
+        <v>3.01190362669129</v>
       </c>
       <c r="AX49" t="n">
         <v>1.354373106336499</v>
@@ -12510,7 +12510,7 @@
         <v>5.099836373872386</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.7269542875965446</v>
+        <v>0.7269542875965445</v>
       </c>
       <c r="BA49" t="n">
         <v>0.1324319923255399</v>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>-4.020885921960559</v>
+        <v>-4.020885921960557</v>
       </c>
       <c r="BG49" t="n">
         <v>-2.320876095189125</v>
@@ -12555,7 +12555,7 @@
         <v>0.8073032003859701</v>
       </c>
       <c r="BO49" t="n">
-        <v>8.916165987986082</v>
+        <v>8.91616598798608</v>
       </c>
       <c r="BP49" t="n">
         <v>5.024885498106133</v>
@@ -12567,7 +12567,7 @@
         <v>10.58702364340228</v>
       </c>
       <c r="BS49" t="n">
-        <v>6.788356637249456</v>
+        <v>6.788356637249457</v>
       </c>
       <c r="BT49" t="n">
         <v>14.53786215681004</v>
@@ -12617,13 +12617,13 @@
         <v>7.86071213538746</v>
       </c>
       <c r="F50" t="n">
-        <v>19.30750076148331</v>
+        <v>19.3075007614833</v>
       </c>
       <c r="G50" t="n">
         <v>20.41270120788643</v>
       </c>
       <c r="H50" t="n">
-        <v>12.58015868886507</v>
+        <v>12.58015868886508</v>
       </c>
       <c r="I50" t="n">
         <v>29.03722872620185</v>
@@ -12632,7 +12632,7 @@
         <v>9.953194915431384</v>
       </c>
       <c r="K50" t="n">
-        <v>5.901279004774423</v>
+        <v>5.901279004774424</v>
       </c>
       <c r="L50" t="n">
         <v>14.54977051506204</v>
@@ -12659,7 +12659,7 @@
         <v>3.922169573451223</v>
       </c>
       <c r="T50" t="n">
-        <v>2.15476474422313</v>
+        <v>2.154764744223131</v>
       </c>
       <c r="U50" t="n">
         <v>5.839418125017687</v>
@@ -12677,7 +12677,7 @@
         <v>0.4655329708649026</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01853572651646226</v>
+        <v>0.01853572651646225</v>
       </c>
       <c r="AA50" t="n">
         <v>1.140020553314995</v>
@@ -12695,7 +12695,7 @@
         <v>7.358434731186018</v>
       </c>
       <c r="AF50" t="n">
-        <v>4.799790277489069</v>
+        <v>4.799790277489065</v>
       </c>
       <c r="AG50" t="n">
         <v>10.19464322071374</v>
@@ -12704,25 +12704,25 @@
         <v>11.76452856506036</v>
       </c>
       <c r="AI50" t="n">
-        <v>7.719988011667109</v>
+        <v>7.719988011667111</v>
       </c>
       <c r="AJ50" t="n">
         <v>16.4337094951338</v>
       </c>
       <c r="AK50" t="n">
-        <v>2.18895099371138</v>
+        <v>2.188950993711384</v>
       </c>
       <c r="AL50" t="n">
         <v>0.2314501331630137</v>
       </c>
       <c r="AM50" t="n">
-        <v>4.809838717107787</v>
+        <v>4.809838717107791</v>
       </c>
       <c r="AN50" t="n">
-        <v>-6.989493046662416</v>
+        <v>-6.989493046662419</v>
       </c>
       <c r="AO50" t="n">
-        <v>-6.692391387659654</v>
+        <v>-6.692391387659653</v>
       </c>
       <c r="AP50" t="n">
         <v>-6.666010798338888</v>
@@ -12758,7 +12758,7 @@
         <v>0.4572377501675747</v>
       </c>
       <c r="BA50" t="n">
-        <v>0.05004823223770078</v>
+        <v>0.05004823223770077</v>
       </c>
       <c r="BB50" t="n">
         <v>1.12979875064094</v>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="BF50" t="n">
-        <v>3.567323514683177</v>
+        <v>3.56732351468318</v>
       </c>
       <c r="BG50" t="n">
         <v>1.777065649671048</v>
@@ -12788,19 +12788,19 @@
         <v>6.227932214215891</v>
       </c>
       <c r="BK50" t="n">
-        <v>14.95106193972409</v>
+        <v>14.95106193972408</v>
       </c>
       <c r="BL50" t="n">
-        <v>8.243690139687191</v>
+        <v>8.243690139687189</v>
       </c>
       <c r="BM50" t="n">
-        <v>5.050254128281424</v>
+        <v>5.050254128281423</v>
       </c>
       <c r="BN50" t="n">
         <v>11.87178163988962</v>
       </c>
       <c r="BO50" t="n">
-        <v>-0.6513349595451903</v>
+        <v>-0.651334959545192</v>
       </c>
       <c r="BP50" t="n">
         <v>-1.23897344036831</v>
@@ -12812,7 +12812,7 @@
         <v>0.5495677099917557</v>
       </c>
       <c r="BS50" t="n">
-        <v>-0.5849634912299972</v>
+        <v>-0.5849634912299964</v>
       </c>
       <c r="BT50" t="n">
         <v>2.343114554061993</v>
@@ -12821,7 +12821,7 @@
         <v>2.881455518089953</v>
       </c>
       <c r="BV50" t="n">
-        <v>1.57748638000258</v>
+        <v>1.577486380002579</v>
       </c>
       <c r="BW50" t="n">
         <v>4.542465450767226</v>
@@ -12839,7 +12839,7 @@
         <v>0.6692207776623195</v>
       </c>
       <c r="CB50" t="n">
-        <v>0.08493718419872091</v>
+        <v>0.08493718419872096</v>
       </c>
       <c r="CC50" t="n">
         <v>1.469325030762203</v>
@@ -12859,7 +12859,7 @@
         <v>-13.44933249293373</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.934762863199044</v>
+        <v>-8.93476286319904</v>
       </c>
       <c r="F51" t="n">
         <v>-17.80398050845572</v>
@@ -12868,7 +12868,7 @@
         <v>-9.294726816198972</v>
       </c>
       <c r="H51" t="n">
-        <v>-7.095760173541191</v>
+        <v>-7.095760173541189</v>
       </c>
       <c r="I51" t="n">
         <v>-10.87509238965947</v>
@@ -12877,7 +12877,7 @@
         <v>11.06084860319799</v>
       </c>
       <c r="K51" t="n">
-        <v>6.122104237704828</v>
+        <v>6.122104237704825</v>
       </c>
       <c r="L51" t="n">
         <v>17.00529691057577</v>
@@ -12904,7 +12904,7 @@
         <v>8.690056279998</v>
       </c>
       <c r="T51" t="n">
-        <v>5.0242238568569</v>
+        <v>5.024223856856901</v>
       </c>
       <c r="U51" t="n">
         <v>12.61683568921775</v>
@@ -12922,7 +12922,7 @@
         <v>0.8141295329874598</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.08134764213920108</v>
+        <v>0.08134764213920107</v>
       </c>
       <c r="AA51" t="n">
         <v>1.867165097303567</v>
@@ -12940,7 +12940,7 @@
         <v>-13.43347848365018</v>
       </c>
       <c r="AF51" t="n">
-        <v>-9.811256882807491</v>
+        <v>-9.811256882807488</v>
       </c>
       <c r="AG51" t="n">
         <v>-16.85773288352983</v>
@@ -12955,10 +12955,10 @@
         <v>-18.75189122858378</v>
       </c>
       <c r="AK51" t="n">
-        <v>-1.368574630579921</v>
+        <v>-1.368574630579916</v>
       </c>
       <c r="AL51" t="n">
-        <v>-1.608654196377911</v>
+        <v>-1.608654196377909</v>
       </c>
       <c r="AM51" t="n">
         <v>-0.7368677946995348</v>
@@ -12970,7 +12970,7 @@
         <v>8.962687129223601</v>
       </c>
       <c r="AP51" t="n">
-        <v>18.44821328515649</v>
+        <v>18.4482132851565</v>
       </c>
       <c r="AQ51" t="n">
         <v>9.784527951815463</v>
@@ -12994,7 +12994,7 @@
         <v>3.559899205916815</v>
       </c>
       <c r="AX51" t="n">
-        <v>1.63535826486667</v>
+        <v>1.635358264866669</v>
       </c>
       <c r="AY51" t="n">
         <v>5.974197581883145</v>
@@ -13021,7 +13021,7 @@
         <v>-6.125509007949557</v>
       </c>
       <c r="BG51" t="n">
-        <v>-3.476607814152133</v>
+        <v>-3.476607814152134</v>
       </c>
       <c r="BH51" t="n">
         <v>-9.051192708613611</v>
@@ -13030,13 +13030,13 @@
         <v>-13.25247930650421</v>
       </c>
       <c r="BJ51" t="n">
-        <v>-9.198915663735221</v>
+        <v>-9.198915663735223</v>
       </c>
       <c r="BK51" t="n">
-        <v>-17.00578285240184</v>
+        <v>-17.00578285240183</v>
       </c>
       <c r="BL51" t="n">
-        <v>-6.199186191949126</v>
+        <v>-6.199186191949122</v>
       </c>
       <c r="BM51" t="n">
         <v>-4.975008771929798</v>
@@ -13072,7 +13072,7 @@
         <v>13.01718776963993</v>
       </c>
       <c r="BX51" t="n">
-        <v>5.208124385307075</v>
+        <v>5.208124385307073</v>
       </c>
       <c r="BY51" t="n">
         <v>2.647231810774017</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-5.485445425526053</v>
+        <v>-5.485445425526051</v>
       </c>
       <c r="E52" t="n">
         <v>-3.16460126795602</v>
@@ -13110,10 +13110,10 @@
         <v>-8.060226038248627</v>
       </c>
       <c r="G52" t="n">
-        <v>4.507690799231943</v>
+        <v>4.507690799231945</v>
       </c>
       <c r="H52" t="n">
-        <v>2.85237131837899</v>
+        <v>2.852371318378989</v>
       </c>
       <c r="I52" t="n">
         <v>5.980690203556762</v>
@@ -13140,7 +13140,7 @@
         <v>10.62438891064555</v>
       </c>
       <c r="Q52" t="n">
-        <v>6.472567622376256</v>
+        <v>6.472567622376255</v>
       </c>
       <c r="R52" t="n">
         <v>15.23131395721672</v>
@@ -13149,7 +13149,7 @@
         <v>3.971334680756447</v>
       </c>
       <c r="T52" t="n">
-        <v>2.047579251436189</v>
+        <v>2.047579251436188</v>
       </c>
       <c r="U52" t="n">
         <v>6.45649064436739</v>
@@ -13161,7 +13161,7 @@
         <v>0.5973911009081643</v>
       </c>
       <c r="X52" t="n">
-        <v>2.535291060615469</v>
+        <v>2.535291060615468</v>
       </c>
       <c r="Y52" t="n">
         <v>0.2272767308945118</v>
@@ -13170,7 +13170,7 @@
         <v>0.03853451320991515</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.5606066458642713</v>
+        <v>0.5606066458642712</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
@@ -13185,19 +13185,19 @@
         <v>-2.634426161860992</v>
       </c>
       <c r="AF52" t="n">
-        <v>-1.643808849647738</v>
+        <v>-1.643808849647736</v>
       </c>
       <c r="AG52" t="n">
-        <v>-3.705411158138124</v>
+        <v>-3.705411158138125</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.074227797066744</v>
+        <v>6.074227797066741</v>
       </c>
       <c r="AI52" t="n">
-        <v>4.731090044644852</v>
+        <v>4.731090044644851</v>
       </c>
       <c r="AJ52" t="n">
-        <v>7.265675294039979</v>
+        <v>7.265675294039982</v>
       </c>
       <c r="AK52" t="n">
         <v>21.84414352865383</v>
@@ -13209,7 +13209,7 @@
         <v>27.89911009141877</v>
       </c>
       <c r="AN52" t="n">
-        <v>31.3636316281513</v>
+        <v>31.36363162815131</v>
       </c>
       <c r="AO52" t="n">
         <v>22.7385135659839</v>
@@ -13239,7 +13239,7 @@
         <v>2.043035041556896</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.9542518266067735</v>
+        <v>0.9542518266067737</v>
       </c>
       <c r="AY52" t="n">
         <v>3.537004482653026</v>
@@ -13248,10 +13248,10 @@
         <v>0.4176440050006798</v>
       </c>
       <c r="BA52" t="n">
-        <v>0.09513314761703824</v>
+        <v>0.09513314761703823</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.9164958813740856</v>
+        <v>0.9164958813740857</v>
       </c>
       <c r="BC52" t="n">
         <v>0</v>
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>-1.577951116182465</v>
+        <v>-1.577951116182467</v>
       </c>
       <c r="BG52" t="n">
         <v>-0.8055329541223684</v>
@@ -13272,19 +13272,19 @@
         <v>-2.517281993083776</v>
       </c>
       <c r="BI52" t="n">
-        <v>1.170832399825853</v>
+        <v>1.170832399825856</v>
       </c>
       <c r="BJ52" t="n">
         <v>0.6101337253433963</v>
       </c>
       <c r="BK52" t="n">
-        <v>1.747455938690015</v>
+        <v>1.74745593869002</v>
       </c>
       <c r="BL52" t="n">
-        <v>12.30031159852523</v>
+        <v>12.30031159852522</v>
       </c>
       <c r="BM52" t="n">
-        <v>7.623958520167333</v>
+        <v>7.623958520167334</v>
       </c>
       <c r="BN52" t="n">
         <v>17.25975588449547</v>
@@ -13296,13 +13296,13 @@
         <v>16.47467927349952</v>
       </c>
       <c r="BQ52" t="n">
-        <v>35.20287970014509</v>
+        <v>35.2028797001451</v>
       </c>
       <c r="BR52" t="n">
         <v>17.99919385829347</v>
       </c>
       <c r="BS52" t="n">
-        <v>12.02815972712884</v>
+        <v>12.02815972712883</v>
       </c>
       <c r="BT52" t="n">
         <v>24.16871290786471</v>
@@ -13326,7 +13326,7 @@
         <v>5.416585402283147</v>
       </c>
       <c r="CA52" t="n">
-        <v>0.5423214790754742</v>
+        <v>0.5423214790754743</v>
       </c>
       <c r="CB52" t="n">
         <v>0.1358800897942985</v>
@@ -13358,7 +13358,7 @@
         <v>27.42356014368812</v>
       </c>
       <c r="H53" t="n">
-        <v>17.58106337481263</v>
+        <v>17.58106337481262</v>
       </c>
       <c r="I53" t="n">
         <v>37.8595671002838</v>
@@ -13367,7 +13367,7 @@
         <v>12.22749648799503</v>
       </c>
       <c r="K53" t="n">
-        <v>7.708975445151621</v>
+        <v>7.708975445151623</v>
       </c>
       <c r="L53" t="n">
         <v>17.45909048444482</v>
@@ -13385,7 +13385,7 @@
         <v>1.175719937864209</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.3338076841128186</v>
+        <v>0.3338076841128195</v>
       </c>
       <c r="R53" t="n">
         <v>2.401228777410885</v>
@@ -13394,13 +13394,13 @@
         <v>1.587074954720417</v>
       </c>
       <c r="T53" t="n">
-        <v>0.7125977497386723</v>
+        <v>0.7125977497386727</v>
       </c>
       <c r="U53" t="n">
         <v>2.708104094510668</v>
       </c>
       <c r="V53" t="n">
-        <v>0.9687477026821144</v>
+        <v>0.9687477026821145</v>
       </c>
       <c r="W53" t="n">
         <v>0.3327625262617332</v>
@@ -13412,7 +13412,7 @@
         <v>0.217104163028927</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.01205335423981775</v>
+        <v>-0.01205335423981773</v>
       </c>
       <c r="AA53" t="n">
         <v>0.6147317064553952</v>
@@ -13430,7 +13430,7 @@
         <v>16.89844688829178</v>
       </c>
       <c r="AF53" t="n">
-        <v>11.63051864478307</v>
+        <v>11.63051864478306</v>
       </c>
       <c r="AG53" t="n">
         <v>22.28535359508299</v>
@@ -13439,13 +13439,13 @@
         <v>21.65616714598762</v>
       </c>
       <c r="AI53" t="n">
-        <v>14.99059575491252</v>
+        <v>14.99059575491251</v>
       </c>
       <c r="AJ53" t="n">
         <v>28.87665110409775</v>
       </c>
       <c r="AK53" t="n">
-        <v>8.958536055961901</v>
+        <v>8.958536055961899</v>
       </c>
       <c r="AL53" t="n">
         <v>5.216344092230709</v>
@@ -13454,7 +13454,7 @@
         <v>13.51316108404385</v>
       </c>
       <c r="AN53" t="n">
-        <v>-5.136043643128717</v>
+        <v>-5.136043643128724</v>
       </c>
       <c r="AO53" t="n">
         <v>-5.169199815181692</v>
@@ -13463,10 +13463,10 @@
         <v>-4.271458334206276</v>
       </c>
       <c r="AQ53" t="n">
-        <v>-0.4553659781220576</v>
+        <v>-0.4553659781220585</v>
       </c>
       <c r="AR53" t="n">
-        <v>-0.7867574905764698</v>
+        <v>-0.7867574905764689</v>
       </c>
       <c r="AS53" t="n">
         <v>0.4388425309937318</v>
@@ -13493,10 +13493,10 @@
         <v>0.2262869584895311</v>
       </c>
       <c r="BA53" t="n">
-        <v>0.003608360568562716</v>
+        <v>0.00360836056856273</v>
       </c>
       <c r="BB53" t="n">
-        <v>0.6312439845122519</v>
+        <v>0.6312439845122518</v>
       </c>
       <c r="BC53" t="n">
         <v>0</v>
@@ -13517,13 +13517,13 @@
         <v>12.4254829807692</v>
       </c>
       <c r="BI53" t="n">
-        <v>19.0879276039143</v>
+        <v>19.08792760391429</v>
       </c>
       <c r="BJ53" t="n">
         <v>12.15927846556786</v>
       </c>
       <c r="BK53" t="n">
-        <v>26.45989470551804</v>
+        <v>26.45989470551803</v>
       </c>
       <c r="BL53" t="n">
         <v>15.30109645079896</v>
@@ -13541,13 +13541,13 @@
         <v>1.251869456748108</v>
       </c>
       <c r="BQ53" t="n">
-        <v>4.83804169747723</v>
+        <v>4.838041697477227</v>
       </c>
       <c r="BR53" t="n">
         <v>0.2130475008541595</v>
       </c>
       <c r="BS53" t="n">
-        <v>-0.9139695029267774</v>
+        <v>-0.9139695029267783</v>
       </c>
       <c r="BT53" t="n">
         <v>2.248812630710487</v>
@@ -13556,7 +13556,7 @@
         <v>1.398426790090979</v>
       </c>
       <c r="BV53" t="n">
-        <v>0.5114877839158414</v>
+        <v>0.51148778391584</v>
       </c>
       <c r="BW53" t="n">
         <v>2.808303681116804</v>
@@ -13574,7 +13574,7 @@
         <v>0.3486065277804634</v>
       </c>
       <c r="CB53" t="n">
-        <v>0.01752113076741345</v>
+        <v>0.01752113076741346</v>
       </c>
       <c r="CC53" t="n">
         <v>0.8761367541909499</v>
@@ -13591,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>7.152446836549939</v>
+        <v>7.152446836549938</v>
       </c>
       <c r="E54" t="n">
-        <v>3.947945018128319</v>
+        <v>3.94794501812832</v>
       </c>
       <c r="F54" t="n">
         <v>11.10649857756533</v>
@@ -13603,13 +13603,13 @@
         <v>12.17587815010157</v>
       </c>
       <c r="H54" t="n">
-        <v>7.034302786481907</v>
+        <v>7.034302786481909</v>
       </c>
       <c r="I54" t="n">
         <v>18.18260673103703</v>
       </c>
       <c r="J54" t="n">
-        <v>8.398348825648933</v>
+        <v>8.398348825648934</v>
       </c>
       <c r="K54" t="n">
         <v>4.658500798528419</v>
@@ -13624,10 +13624,10 @@
         <v>1.723080185052602</v>
       </c>
       <c r="O54" t="n">
-        <v>7.038558409255781</v>
+        <v>7.038558409255783</v>
       </c>
       <c r="P54" t="n">
-        <v>7.416708599741424</v>
+        <v>7.416708599741425</v>
       </c>
       <c r="Q54" t="n">
         <v>4.612195459223687</v>
@@ -13639,7 +13639,7 @@
         <v>5.509961528341084</v>
       </c>
       <c r="T54" t="n">
-        <v>3.12920447112724</v>
+        <v>3.129204471127241</v>
       </c>
       <c r="U54" t="n">
         <v>8.026988087658209</v>
@@ -13657,7 +13657,7 @@
         <v>0.613106189526462</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.03603871069040424</v>
+        <v>0.03603871069040422</v>
       </c>
       <c r="AA54" t="n">
         <v>1.461450973766823</v>
@@ -13678,19 +13678,19 @@
         <v>1.004629926236123</v>
       </c>
       <c r="AG54" t="n">
-        <v>3.435641938094725</v>
+        <v>3.435641938094729</v>
       </c>
       <c r="AH54" t="n">
-        <v>3.142998522049817</v>
+        <v>3.142998522049821</v>
       </c>
       <c r="AI54" t="n">
-        <v>1.339638538322015</v>
+        <v>1.339638538322016</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5.572106629956503</v>
+        <v>5.572106629956496</v>
       </c>
       <c r="AK54" t="n">
-        <v>-1.751766257619213</v>
+        <v>-1.751766257619209</v>
       </c>
       <c r="AL54" t="n">
         <v>-2.577785170908848</v>
@@ -13699,7 +13699,7 @@
         <v>-0.2653088665525445</v>
       </c>
       <c r="AN54" t="n">
-        <v>-5.187245642383997</v>
+        <v>-5.187245642384005</v>
       </c>
       <c r="AO54" t="n">
         <v>-5.320899306247114</v>
@@ -13708,7 +13708,7 @@
         <v>-4.40341827385032</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.14391544103363</v>
+        <v>2.143915441033629</v>
       </c>
       <c r="AR54" t="n">
         <v>0.9526615514082555</v>
@@ -13717,7 +13717,7 @@
         <v>3.641083260416661</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.181788770052757</v>
+        <v>3.181788770052756</v>
       </c>
       <c r="AU54" t="n">
         <v>1.587993496901857</v>
@@ -13729,7 +13729,7 @@
         <v>2.284744708229998</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.9303616823883725</v>
+        <v>0.9303616823883722</v>
       </c>
       <c r="AY54" t="n">
         <v>3.992736840348384</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="BF54" t="n">
-        <v>1.198529746230282</v>
+        <v>1.198529746230285</v>
       </c>
       <c r="BG54" t="n">
         <v>0.4706461576246816</v>
@@ -13762,16 +13762,16 @@
         <v>2.16250714811404</v>
       </c>
       <c r="BI54" t="n">
-        <v>3.641747916812568</v>
+        <v>3.641747916812565</v>
       </c>
       <c r="BJ54" t="n">
         <v>1.82035781030973</v>
       </c>
       <c r="BK54" t="n">
-        <v>5.983926649159432</v>
+        <v>5.983926649159427</v>
       </c>
       <c r="BL54" t="n">
-        <v>2.68391986539182</v>
+        <v>2.683919865391822</v>
       </c>
       <c r="BM54" t="n">
         <v>1.215475678730463</v>
@@ -13780,19 +13780,19 @@
         <v>4.698886590670744</v>
       </c>
       <c r="BO54" t="n">
-        <v>-1.133742930396489</v>
+        <v>-1.133742930396487</v>
       </c>
       <c r="BP54" t="n">
         <v>-1.602108660631522</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-0.1138257997732701</v>
+        <v>-0.1138257997732737</v>
       </c>
       <c r="BR54" t="n">
         <v>2.176087961621112</v>
       </c>
       <c r="BS54" t="n">
-        <v>0.6509495281007069</v>
+        <v>0.6509495281007061</v>
       </c>
       <c r="BT54" t="n">
         <v>4.223762271070138</v>
@@ -13816,7 +13816,7 @@
         <v>5.125375808429271</v>
       </c>
       <c r="CA54" t="n">
-        <v>0.8642008291689118</v>
+        <v>0.8642008291689117</v>
       </c>
       <c r="CB54" t="n">
         <v>0.13590318849878</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>8.577567670510222</v>
+        <v>8.57756767051022</v>
       </c>
       <c r="E55" t="n">
         <v>4.963559307791463</v>
@@ -13851,7 +13851,7 @@
         <v>8.621261052390466</v>
       </c>
       <c r="I55" t="n">
-        <v>20.83572380668213</v>
+        <v>20.83572380668214</v>
       </c>
       <c r="J55" t="n">
         <v>10.3686506012539</v>
@@ -13896,13 +13896,13 @@
         <v>1.071108384102793</v>
       </c>
       <c r="X55" t="n">
-        <v>4.070814252105409</v>
+        <v>4.07081425210541</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5151991056671343</v>
+        <v>0.5151991056671344</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0287112351668956</v>
+        <v>0.02871123516689558</v>
       </c>
       <c r="AA55" t="n">
         <v>1.244139661392493</v>
@@ -13920,40 +13920,40 @@
         <v>3.956671205908375</v>
       </c>
       <c r="AF55" t="n">
-        <v>2.419881803069666</v>
+        <v>2.419881803069665</v>
       </c>
       <c r="AG55" t="n">
-        <v>5.728974767730493</v>
+        <v>5.728974767730495</v>
       </c>
       <c r="AH55" t="n">
-        <v>6.660040157047618</v>
+        <v>6.660040157047622</v>
       </c>
       <c r="AI55" t="n">
-        <v>4.049011962831425</v>
+        <v>4.049011962831427</v>
       </c>
       <c r="AJ55" t="n">
-        <v>9.819499254372804</v>
+        <v>9.819499254372801</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.083474342609454</v>
+        <v>2.083474342609458</v>
       </c>
       <c r="AL55" t="n">
         <v>0.3277563113442881</v>
       </c>
       <c r="AM55" t="n">
-        <v>4.470435140346398</v>
+        <v>4.4704351403464</v>
       </c>
       <c r="AN55" t="n">
-        <v>-2.187465236817294</v>
+        <v>-2.187465236817298</v>
       </c>
       <c r="AO55" t="n">
         <v>-3.00561492438608</v>
       </c>
       <c r="AP55" t="n">
-        <v>-0.7519646380275091</v>
+        <v>-0.7519646380275127</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.500770098109916</v>
+        <v>2.500770098109915</v>
       </c>
       <c r="AR55" t="n">
         <v>1.162484478891315</v>
@@ -13974,7 +13974,7 @@
         <v>2.029788219692178</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.8160456038784456</v>
+        <v>0.8160456038784455</v>
       </c>
       <c r="AY55" t="n">
         <v>3.584065006181733</v>
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="BF55" t="n">
-        <v>2.000484508602113</v>
+        <v>2.000484508602116</v>
       </c>
       <c r="BG55" t="n">
         <v>0.9409399298102021</v>
@@ -14007,16 +14007,16 @@
         <v>3.317643245775032</v>
       </c>
       <c r="BI55" t="n">
-        <v>6.035509878452259</v>
+        <v>6.035509878452257</v>
       </c>
       <c r="BJ55" t="n">
         <v>3.451616481046468</v>
       </c>
       <c r="BK55" t="n">
-        <v>9.090632824342933</v>
+        <v>9.090632824342929</v>
       </c>
       <c r="BL55" t="n">
-        <v>5.716020671494665</v>
+        <v>5.716020671494666</v>
       </c>
       <c r="BM55" t="n">
         <v>3.277837669772711</v>
@@ -14025,13 +14025,13 @@
         <v>8.636444546225475</v>
       </c>
       <c r="BO55" t="n">
-        <v>1.741770815038835</v>
+        <v>1.741770815038834</v>
       </c>
       <c r="BP55" t="n">
         <v>0.3667128386445775</v>
       </c>
       <c r="BQ55" t="n">
-        <v>3.63339401029193</v>
+        <v>3.633394010291928</v>
       </c>
       <c r="BR55" t="n">
         <v>3.140362955498084</v>
@@ -14061,7 +14061,7 @@
         <v>4.678893715064532</v>
       </c>
       <c r="CA55" t="n">
-        <v>0.7526159423966327</v>
+        <v>0.7526159423966325</v>
       </c>
       <c r="CB55" t="n">
         <v>0.115872537131874</v>
@@ -14120,7 +14120,7 @@
         <v>6.557735537327005</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.768088715742345</v>
+        <v>3.768088715742344</v>
       </c>
       <c r="R56" t="n">
         <v>9.864945543102946</v>
@@ -14129,13 +14129,13 @@
         <v>2.373709704405541</v>
       </c>
       <c r="T56" t="n">
-        <v>1.094576623089468</v>
+        <v>1.094576623089467</v>
       </c>
       <c r="U56" t="n">
         <v>4.145506177856928</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8053603387034218</v>
+        <v>0.8053603387034216</v>
       </c>
       <c r="W56" t="n">
         <v>0.2840838910632061</v>
@@ -14150,7 +14150,7 @@
         <v>0.0170317716972826</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.3550590069025881</v>
+        <v>0.355059006902588</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
@@ -14162,13 +14162,13 @@
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>4.645081737050246</v>
+        <v>4.645081737050245</v>
       </c>
       <c r="AF56" t="n">
         <v>3.440071327032568</v>
       </c>
       <c r="AG56" t="n">
-        <v>5.833601000251258</v>
+        <v>5.83360100025126</v>
       </c>
       <c r="AH56" t="n">
         <v>15.83381799367601</v>
@@ -14189,7 +14189,7 @@
         <v>28.35640340021691</v>
       </c>
       <c r="AN56" t="n">
-        <v>21.89075928891014</v>
+        <v>21.89075928891015</v>
       </c>
       <c r="AO56" t="n">
         <v>15.48084049384265</v>
@@ -14201,7 +14201,7 @@
         <v>8.005042395544681</v>
       </c>
       <c r="AR56" t="n">
-        <v>4.629427081723466</v>
+        <v>4.629427081723465</v>
       </c>
       <c r="AS56" t="n">
         <v>11.84682412739029</v>
@@ -14219,16 +14219,16 @@
         <v>1.418332559580487</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.60654356816729</v>
+        <v>0.6065435681672902</v>
       </c>
       <c r="AY56" t="n">
         <v>2.561112017655438</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.2887053780736832</v>
+        <v>0.2887053780736833</v>
       </c>
       <c r="BA56" t="n">
-        <v>0.05518096807542348</v>
+        <v>0.05518096807542347</v>
       </c>
       <c r="BB56" t="n">
         <v>0.6734434395929552</v>
@@ -14243,16 +14243,16 @@
         <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>1.819897578443558</v>
+        <v>1.819897578443557</v>
       </c>
       <c r="BG56" t="n">
         <v>1.017406258682681</v>
       </c>
       <c r="BH56" t="n">
-        <v>2.69266206484393</v>
+        <v>2.692662064843931</v>
       </c>
       <c r="BI56" t="n">
-        <v>9.678685947976152</v>
+        <v>9.678685947976156</v>
       </c>
       <c r="BJ56" t="n">
         <v>6.141267827024057</v>
@@ -14300,19 +14300,19 @@
         <v>2.118298882360836</v>
       </c>
       <c r="BY56" t="n">
-        <v>0.8648068117981331</v>
+        <v>0.8648068117981332</v>
       </c>
       <c r="BZ56" t="n">
         <v>3.942436579709129</v>
       </c>
       <c r="CA56" t="n">
-        <v>0.3727212872862509</v>
+        <v>0.372721287286251</v>
       </c>
       <c r="CB56" t="n">
-        <v>0.07472550437512393</v>
+        <v>0.07472550437512394</v>
       </c>
       <c r="CC56" t="n">
-        <v>0.9284452053880109</v>
+        <v>0.928445205388011</v>
       </c>
     </row>
     <row r="57">
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.090120240805148</v>
+        <v>1.090120240805149</v>
       </c>
       <c r="E57" t="n">
         <v>1.071689992038965</v>
@@ -14374,13 +14374,13 @@
         <v>2.391120326389034</v>
       </c>
       <c r="T57" t="n">
-        <v>1.07863246001397</v>
+        <v>1.078632460013969</v>
       </c>
       <c r="U57" t="n">
         <v>4.284981347457558</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6565764084175989</v>
+        <v>0.6565764084175987</v>
       </c>
       <c r="W57" t="n">
         <v>0.2238641239613701</v>
@@ -14389,7 +14389,7 @@
         <v>1.398246510964738</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.07911381116993466</v>
+        <v>0.07911381116993468</v>
       </c>
       <c r="Z57" t="n">
         <v>0.0198798048242073</v>
@@ -14416,13 +14416,13 @@
         <v>3.66126537690378</v>
       </c>
       <c r="AH57" t="n">
-        <v>14.24637122066107</v>
+        <v>14.24637122066106</v>
       </c>
       <c r="AI57" t="n">
         <v>10.74761648706813</v>
       </c>
       <c r="AJ57" t="n">
-        <v>17.59406738309135</v>
+        <v>17.59406738309136</v>
       </c>
       <c r="AK57" t="n">
         <v>25.58358622212268</v>
@@ -14434,7 +14434,7 @@
         <v>32.75274383035446</v>
       </c>
       <c r="AN57" t="n">
-        <v>29.69256750432197</v>
+        <v>29.69256750432198</v>
       </c>
       <c r="AO57" t="n">
         <v>21.48290133897726</v>
@@ -14464,7 +14464,7 @@
         <v>1.469289928597372</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.6636866024772725</v>
+        <v>0.6636866024772726</v>
       </c>
       <c r="AY57" t="n">
         <v>2.632967463102684</v>
@@ -14476,7 +14476,7 @@
         <v>0.06337148414975444</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.6219365101486295</v>
+        <v>0.6219365101486296</v>
       </c>
       <c r="BC57" t="n">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="BF57" t="n">
-        <v>1.055013334734327</v>
+        <v>1.055013334734324</v>
       </c>
       <c r="BG57" t="n">
         <v>0.6515743110073557</v>
@@ -14497,13 +14497,13 @@
         <v>1.441279068759128</v>
       </c>
       <c r="BI57" t="n">
-        <v>7.788151167294738</v>
+        <v>7.788151167294741</v>
       </c>
       <c r="BJ57" t="n">
         <v>4.996210764591373</v>
       </c>
       <c r="BK57" t="n">
-        <v>10.60158948926383</v>
+        <v>10.60158948926384</v>
       </c>
       <c r="BL57" t="n">
         <v>17.55318891896331</v>
@@ -14589,7 +14589,7 @@
         <v>26.22598830816506</v>
       </c>
       <c r="J58" t="n">
-        <v>9.202687139737128</v>
+        <v>9.202687139737126</v>
       </c>
       <c r="K58" t="n">
         <v>5.379398588819967</v>
@@ -14619,7 +14619,7 @@
         <v>3.944902375018567</v>
       </c>
       <c r="T58" t="n">
-        <v>2.171243550668803</v>
+        <v>2.171243550668804</v>
       </c>
       <c r="U58" t="n">
         <v>5.887600122209756</v>
@@ -14631,7 +14631,7 @@
         <v>0.9217115258907544</v>
       </c>
       <c r="X58" t="n">
-        <v>3.634162022153668</v>
+        <v>3.634162022153669</v>
       </c>
       <c r="Y58" t="n">
         <v>0.4637638676758495</v>
@@ -14655,7 +14655,7 @@
         <v>8.786377276253859</v>
       </c>
       <c r="AF58" t="n">
-        <v>5.771979961013574</v>
+        <v>5.771979961013573</v>
       </c>
       <c r="AG58" t="n">
         <v>12.01766897798242</v>
@@ -14664,22 +14664,22 @@
         <v>10.41636870681171</v>
       </c>
       <c r="AI58" t="n">
-        <v>6.628518918901648</v>
+        <v>6.62851891890165</v>
       </c>
       <c r="AJ58" t="n">
-        <v>14.83407716675601</v>
+        <v>14.834077166756</v>
       </c>
       <c r="AK58" t="n">
-        <v>1.585127320126135</v>
+        <v>1.585127320126137</v>
       </c>
       <c r="AL58" t="n">
-        <v>-0.206479563191369</v>
+        <v>-0.2064795631913672</v>
       </c>
       <c r="AM58" t="n">
         <v>4.145297182933861</v>
       </c>
       <c r="AN58" t="n">
-        <v>-6.595943205315171</v>
+        <v>-6.595943205315175</v>
       </c>
       <c r="AO58" t="n">
         <v>-6.344751824441973</v>
@@ -14688,10 +14688,10 @@
         <v>-6.062595986659865</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.6909242137520391</v>
+        <v>0.6909242137520373</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.002510637165837437</v>
+        <v>0.002510637165837881</v>
       </c>
       <c r="AS58" t="n">
         <v>1.801941826288889</v>
@@ -14703,13 +14703,13 @@
         <v>0.9984947661044127</v>
       </c>
       <c r="AV58" t="n">
-        <v>3.646061836901303</v>
+        <v>3.646061836901304</v>
       </c>
       <c r="AW58" t="n">
-        <v>1.685250061536474</v>
+        <v>1.685250061536475</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.6302163926595412</v>
+        <v>0.6302163926595411</v>
       </c>
       <c r="AY58" t="n">
         <v>3.059024009258459</v>
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="BF58" t="n">
-        <v>4.359835562074867</v>
+        <v>4.35983556207487</v>
       </c>
       <c r="BG58" t="n">
         <v>2.229128968921122</v>
@@ -14751,7 +14751,7 @@
         <v>14.61205671975156</v>
       </c>
       <c r="BL58" t="n">
-        <v>7.323011278115325</v>
+        <v>7.323011278115326</v>
       </c>
       <c r="BM58" t="n">
         <v>4.375868090750481</v>
@@ -14781,7 +14781,7 @@
         <v>2.959435956250934</v>
       </c>
       <c r="BV58" t="n">
-        <v>1.60974104173771</v>
+        <v>1.609741041737709</v>
       </c>
       <c r="BW58" t="n">
         <v>4.627100941535255</v>
@@ -14828,7 +14828,7 @@
         <v>11.00877615344154</v>
       </c>
       <c r="H59" t="n">
-        <v>7.051298843075477</v>
+        <v>7.051298843075476</v>
       </c>
       <c r="I59" t="n">
         <v>15.04518227022311</v>
@@ -14855,7 +14855,7 @@
         <v>7.562250140720799</v>
       </c>
       <c r="Q59" t="n">
-        <v>4.487036720706827</v>
+        <v>4.487036720706828</v>
       </c>
       <c r="R59" t="n">
         <v>11.0624135127979</v>
@@ -14903,13 +14903,13 @@
         <v>3.321072361565034</v>
       </c>
       <c r="AG59" t="n">
-        <v>5.970969180307073</v>
+        <v>5.970969180307071</v>
       </c>
       <c r="AH59" t="n">
         <v>10.51922988101334</v>
       </c>
       <c r="AI59" t="n">
-        <v>7.544553563197707</v>
+        <v>7.544553563197706</v>
       </c>
       <c r="AJ59" t="n">
         <v>13.58064927051602</v>
@@ -14927,7 +14927,7 @@
         <v>19.41571200513977</v>
       </c>
       <c r="AO59" t="n">
-        <v>13.62907552960519</v>
+        <v>13.6290755296052</v>
       </c>
       <c r="AP59" t="n">
         <v>25.68194222588648</v>
@@ -14966,7 +14966,7 @@
         <v>0.06324744026498552</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.8066679897685499</v>
+        <v>0.80666798976855</v>
       </c>
       <c r="BC59" t="n">
         <v>0</v>
@@ -14978,22 +14978,22 @@
         <v>0</v>
       </c>
       <c r="BF59" t="n">
-        <v>2.074625545927314</v>
+        <v>2.074625545927312</v>
       </c>
       <c r="BG59" t="n">
         <v>1.149863578830592</v>
       </c>
       <c r="BH59" t="n">
-        <v>3.125149448927414</v>
+        <v>3.125149448927413</v>
       </c>
       <c r="BI59" t="n">
-        <v>7.041964240368814</v>
+        <v>7.041964240368815</v>
       </c>
       <c r="BJ59" t="n">
         <v>4.424019697654576</v>
       </c>
       <c r="BK59" t="n">
-        <v>9.796599294314618</v>
+        <v>9.796599294314621</v>
       </c>
       <c r="BL59" t="n">
         <v>12.78908495952099</v>
@@ -15011,7 +15011,7 @@
         <v>11.45337139377475</v>
       </c>
       <c r="BQ59" t="n">
-        <v>25.16586795713479</v>
+        <v>25.1658679571348</v>
       </c>
       <c r="BR59" t="n">
         <v>12.17905342201863</v>
@@ -15032,7 +15032,7 @@
         <v>9.291978252719073</v>
       </c>
       <c r="BX59" t="n">
-        <v>2.463349654149101</v>
+        <v>2.463349654149102</v>
       </c>
       <c r="BY59" t="n">
         <v>1.099474526284244</v>
@@ -15044,7 +15044,7 @@
         <v>0.4730667247761424</v>
       </c>
       <c r="CB59" t="n">
-        <v>0.09762063753055601</v>
+        <v>0.097620637530556</v>
       </c>
       <c r="CC59" t="n">
         <v>1.120321450721416</v>
@@ -15064,7 +15064,7 @@
         <v>11.71605373256684</v>
       </c>
       <c r="E60" t="n">
-        <v>6.845097845724315</v>
+        <v>6.845097845724316</v>
       </c>
       <c r="F60" t="n">
         <v>17.55342634992443</v>
@@ -15079,7 +15079,7 @@
         <v>26.38411165055675</v>
       </c>
       <c r="J60" t="n">
-        <v>7.982893139826421</v>
+        <v>7.982893139826423</v>
       </c>
       <c r="K60" t="n">
         <v>4.466560077385802</v>
@@ -15100,7 +15100,7 @@
         <v>5.357156646781444</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.241739282581217</v>
+        <v>3.241739282581216</v>
       </c>
       <c r="R60" t="n">
         <v>7.609650199939644</v>
@@ -15109,25 +15109,25 @@
         <v>4.707360239904407</v>
       </c>
       <c r="T60" t="n">
-        <v>2.649956689212934</v>
+        <v>2.649956689212935</v>
       </c>
       <c r="U60" t="n">
         <v>6.863465521537632</v>
       </c>
       <c r="V60" t="n">
-        <v>2.592671574902906</v>
+        <v>2.592671574902907</v>
       </c>
       <c r="W60" t="n">
         <v>1.131328151204629</v>
       </c>
       <c r="X60" t="n">
-        <v>4.269898610323822</v>
+        <v>4.269898610323823</v>
       </c>
       <c r="Y60" t="n">
         <v>0.5634400547242303</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0258632020399709</v>
+        <v>0.02586320203997088</v>
       </c>
       <c r="AA60" t="n">
         <v>1.357331865689326</v>
@@ -15145,13 +15145,13 @@
         <v>5.47926253616183</v>
       </c>
       <c r="AF60" t="n">
-        <v>3.384538400655526</v>
+        <v>3.384538400655523</v>
       </c>
       <c r="AG60" t="n">
-        <v>7.90131039107797</v>
+        <v>7.901310391077973</v>
       </c>
       <c r="AH60" t="n">
-        <v>8.247486930062557</v>
+        <v>8.247486930062561</v>
       </c>
       <c r="AI60" t="n">
         <v>5.010614587157699</v>
@@ -15160,16 +15160,16 @@
         <v>12.1863168707175</v>
       </c>
       <c r="AK60" t="n">
-        <v>-1.646289606517287</v>
+        <v>-1.646289606517284</v>
       </c>
       <c r="AL60" t="n">
-        <v>-2.674091349090121</v>
+        <v>-2.674091349090123</v>
       </c>
       <c r="AM60" t="n">
         <v>0.07409471020884695</v>
       </c>
       <c r="AN60" t="n">
-        <v>-9.989273452229122</v>
+        <v>-9.989273452229126</v>
       </c>
       <c r="AO60" t="n">
         <v>-9.007675769520684</v>
@@ -15199,13 +15199,13 @@
         <v>1.978830850675293</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.7589025695684632</v>
+        <v>0.7589025695684631</v>
       </c>
       <c r="AY60" t="n">
         <v>3.512209560734486</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.5315990265936148</v>
+        <v>0.5315990265936147</v>
       </c>
       <c r="BA60" t="n">
         <v>0.06142057243340893</v>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="BF60" t="n">
-        <v>2.765368752311345</v>
+        <v>2.765368752311348</v>
       </c>
       <c r="BG60" t="n">
         <v>1.306771877485527</v>
@@ -15232,22 +15232,22 @@
         <v>4.569026241859834</v>
       </c>
       <c r="BI60" t="n">
-        <v>7.926044659133673</v>
+        <v>7.926044659133671</v>
       </c>
       <c r="BJ60" t="n">
         <v>4.596673543479153</v>
       </c>
       <c r="BK60" t="n">
-        <v>11.84435576454059</v>
+        <v>11.84435576454058</v>
       </c>
       <c r="BL60" t="n">
         <v>5.211589333584346</v>
       </c>
       <c r="BM60" t="n">
-        <v>2.987892137239174</v>
+        <v>2.987892137239175</v>
       </c>
       <c r="BN60" t="n">
-        <v>7.93422368433489</v>
+        <v>7.934223684334892</v>
       </c>
       <c r="BO60" t="n">
         <v>-3.526848704980514</v>
@@ -15271,13 +15271,13 @@
         <v>3.061443793828865</v>
       </c>
       <c r="BV60" t="n">
-        <v>1.756808996595472</v>
+        <v>1.756808996595471</v>
       </c>
       <c r="BW60" t="n">
         <v>4.630080446851183</v>
       </c>
       <c r="BX60" t="n">
-        <v>2.82856756603767</v>
+        <v>2.828567566037669</v>
       </c>
       <c r="BY60" t="n">
         <v>1.395611348685071</v>
@@ -15289,7 +15289,7 @@
         <v>0.7808056644345986</v>
       </c>
       <c r="CB60" t="n">
-        <v>0.1049678355656269</v>
+        <v>0.104967835565627</v>
       </c>
       <c r="CC60" t="n">
         <v>1.676459891108008</v>
@@ -15342,7 +15342,7 @@
         <v>13.93391460608813</v>
       </c>
       <c r="P61" t="n">
-        <v>2.648433761812721</v>
+        <v>2.648433761812722</v>
       </c>
       <c r="Q61" t="n">
         <v>1.172910149061526</v>
@@ -15354,25 +15354,25 @@
         <v>0.7988175296219793</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1580528011884195</v>
+        <v>0.1580528011884192</v>
       </c>
       <c r="U61" t="n">
         <v>1.882703708538534</v>
       </c>
       <c r="V61" t="n">
-        <v>0.2187862838531256</v>
+        <v>0.2187862838531254</v>
       </c>
       <c r="W61" t="n">
         <v>-0.02051522272922324</v>
       </c>
       <c r="X61" t="n">
-        <v>0.6981641166681343</v>
+        <v>0.6981641166681345</v>
       </c>
       <c r="Y61" t="n">
         <v>0.02566368637049621</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.007926142450647582</v>
+        <v>-0.007926142450647586</v>
       </c>
       <c r="AA61" t="n">
         <v>0.1575830995208399</v>
@@ -15390,10 +15390,10 @@
         <v>13.35253218102932</v>
       </c>
       <c r="AF61" t="n">
-        <v>9.496141187237381</v>
+        <v>9.496141187237377</v>
       </c>
       <c r="AG61" t="n">
-        <v>17.19563891590933</v>
+        <v>17.19563891590932</v>
       </c>
       <c r="AH61" t="n">
         <v>24.24524833203662</v>
@@ -15402,7 +15402,7 @@
         <v>17.59587908537848</v>
       </c>
       <c r="AJ61" t="n">
-        <v>31.05646237645432</v>
+        <v>31.05646237645433</v>
       </c>
       <c r="AK61" t="n">
         <v>21.25967734375279</v>
@@ -15420,10 +15420,10 @@
         <v>8.570806984919082</v>
       </c>
       <c r="AP61" t="n">
-        <v>17.50530354108654</v>
+        <v>17.50530354108653</v>
       </c>
       <c r="AQ61" t="n">
-        <v>4.285043383491345</v>
+        <v>4.285043383491344</v>
       </c>
       <c r="AR61" t="n">
         <v>2.211599116306614</v>
@@ -15441,16 +15441,16 @@
         <v>3.192392884092103</v>
       </c>
       <c r="AW61" t="n">
-        <v>0.7550057770030794</v>
+        <v>0.7550057770030792</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.2444652113288114</v>
+        <v>0.2444652113288115</v>
       </c>
       <c r="AY61" t="n">
         <v>1.540705835348474</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.1479274675717099</v>
+        <v>0.14792746757171</v>
       </c>
       <c r="BA61" t="n">
         <v>0.01274938752919914</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="BF61" t="n">
-        <v>6.010258320461272</v>
+        <v>6.01025832046127</v>
       </c>
       <c r="BG61" t="n">
         <v>3.292408790737805</v>
@@ -15486,7 +15486,7 @@
         <v>24.62416370026044</v>
       </c>
       <c r="BL61" t="n">
-        <v>20.87652470200889</v>
+        <v>20.87652470200888</v>
       </c>
       <c r="BM61" t="n">
         <v>13.58964762498395</v>
@@ -15522,7 +15522,7 @@
         <v>5.804381399110003</v>
       </c>
       <c r="BX61" t="n">
-        <v>1.159222782027122</v>
+        <v>1.159222782027123</v>
       </c>
       <c r="BY61" t="n">
         <v>0.3776832133314509</v>
@@ -15534,10 +15534,10 @@
         <v>0.1946915085352369</v>
       </c>
       <c r="CB61" t="n">
-        <v>0.01571928029734393</v>
+        <v>0.01571928029734394</v>
       </c>
       <c r="CC61" t="n">
-        <v>0.5934960161473232</v>
+        <v>0.5934960161473233</v>
       </c>
     </row>
     <row r="62">
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>8.540768237626416</v>
+        <v>8.540768237626418</v>
       </c>
       <c r="E62" t="n">
         <v>5.481815353376357</v>
@@ -15563,7 +15563,7 @@
         <v>18.42399536411311</v>
       </c>
       <c r="H62" t="n">
-        <v>11.86296027248775</v>
+        <v>11.86296027248776</v>
       </c>
       <c r="I62" t="n">
         <v>25.12084746843403</v>
@@ -15581,7 +15581,7 @@
         <v>14.50453446604425</v>
       </c>
       <c r="N62" t="n">
-        <v>9.43271185850074</v>
+        <v>9.432711858500738</v>
       </c>
       <c r="O62" t="n">
         <v>19.95530269005682</v>
@@ -15617,7 +15617,7 @@
         <v>0.174416307158091</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.01188029014682615</v>
+        <v>0.01188029014682614</v>
       </c>
       <c r="AA62" t="n">
         <v>0.4736323655860445</v>
@@ -15635,7 +15635,7 @@
         <v>7.119634764015593</v>
       </c>
       <c r="AF62" t="n">
-        <v>5.052854380301431</v>
+        <v>5.05285438030143</v>
       </c>
       <c r="AG62" t="n">
         <v>9.221287128444526</v>
@@ -15689,7 +15689,7 @@
         <v>1.341625656829603</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.5398204682579776</v>
+        <v>0.5398204682579777</v>
       </c>
       <c r="AY62" t="n">
         <v>2.459580760668608</v>
@@ -15698,7 +15698,7 @@
         <v>0.2926776992487367</v>
       </c>
       <c r="BA62" t="n">
-        <v>0.04533751799801946</v>
+        <v>0.04533751799801945</v>
       </c>
       <c r="BB62" t="n">
         <v>0.7072576578553713</v>
@@ -15770,19 +15770,19 @@
         <v>1.995900558358831</v>
       </c>
       <c r="BY62" t="n">
-        <v>0.8333717497694101</v>
+        <v>0.83337174976941</v>
       </c>
       <c r="BZ62" t="n">
         <v>3.640942007339721</v>
       </c>
       <c r="CA62" t="n">
-        <v>0.395291284683023</v>
+        <v>0.3952912846830231</v>
       </c>
       <c r="CB62" t="n">
         <v>0.06525304370313995</v>
       </c>
       <c r="CC62" t="n">
-        <v>0.9681054711134718</v>
+        <v>0.968105471113472</v>
       </c>
     </row>
     <row r="63">
@@ -15799,7 +15799,7 @@
         <v>26.00406150505347</v>
       </c>
       <c r="E63" t="n">
-        <v>16.48298469677086</v>
+        <v>16.48298469677087</v>
       </c>
       <c r="F63" t="n">
         <v>36.08618458992912</v>
@@ -15814,7 +15814,7 @@
         <v>48.6301587452559</v>
       </c>
       <c r="J63" t="n">
-        <v>18.88890959050418</v>
+        <v>18.88890959050417</v>
       </c>
       <c r="K63" t="n">
         <v>12.53501264327194</v>
@@ -15835,7 +15835,7 @@
         <v>-1.365769078904401</v>
       </c>
       <c r="Q63" t="n">
-        <v>-1.495135310921354</v>
+        <v>-1.495135310921355</v>
       </c>
       <c r="R63" t="n">
         <v>-0.6090842078850809</v>
@@ -15844,7 +15844,7 @@
         <v>-0.7912298462064786</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.7894568916764111</v>
+        <v>-0.7894568916764106</v>
       </c>
       <c r="U63" t="n">
         <v>-0.4122200922412391</v>
@@ -15853,19 +15853,19 @@
         <v>-0.3707370854389913</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.3309197338900053</v>
+        <v>-0.3309197338900052</v>
       </c>
       <c r="X63" t="n">
-        <v>-0.2268649284584168</v>
+        <v>-0.2268649284584159</v>
       </c>
       <c r="Y63" t="n">
         <v>-0.07484798536000276</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.030580608175046</v>
+        <v>-0.03058060817504601</v>
       </c>
       <c r="AA63" t="n">
-        <v>-0.04527396224753155</v>
+        <v>-0.04527396224753166</v>
       </c>
       <c r="AB63" t="n">
         <v>0</v>
@@ -15880,7 +15880,7 @@
         <v>21.1080209282965</v>
       </c>
       <c r="AF63" t="n">
-        <v>14.90408459175919</v>
+        <v>14.90408459175918</v>
       </c>
       <c r="AG63" t="n">
         <v>27.3423263267216</v>
@@ -15895,7 +15895,7 @@
         <v>43.21846130572446</v>
       </c>
       <c r="AK63" t="n">
-        <v>21.06808153023315</v>
+        <v>21.06808153023314</v>
       </c>
       <c r="AL63" t="n">
         <v>14.3708982353445</v>
@@ -15904,19 +15904,19 @@
         <v>28.38493463891461</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.46974773222415</v>
+        <v>3.469747732224148</v>
       </c>
       <c r="AO63" t="n">
         <v>1.429013767183724</v>
       </c>
       <c r="AP63" t="n">
-        <v>6.079487761583128</v>
+        <v>6.079487761583126</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.4647371281004276</v>
       </c>
       <c r="AR63" t="n">
-        <v>-0.3041091310761339</v>
+        <v>-0.304109131076133</v>
       </c>
       <c r="AS63" t="n">
         <v>1.866968947491574</v>
@@ -15934,7 +15934,7 @@
         <v>0.1174285281596705</v>
       </c>
       <c r="AX63" t="n">
-        <v>-0.1080330799103371</v>
+        <v>-0.1080330799103369</v>
       </c>
       <c r="AY63" t="n">
         <v>0.5499754645810944</v>
@@ -15946,7 +15946,7 @@
         <v>-0.02802925901395215</v>
       </c>
       <c r="BB63" t="n">
-        <v>0.1519531336668755</v>
+        <v>0.1519531336668752</v>
       </c>
       <c r="BC63" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>17.11754657175264</v>
       </c>
       <c r="BK63" t="n">
-        <v>36.11901845104107</v>
+        <v>36.11901845104106</v>
       </c>
       <c r="BL63" t="n">
         <v>25.31807773067936</v>
@@ -16021,13 +16021,13 @@
         <v>0.9650662560353909</v>
       </c>
       <c r="CA63" t="n">
-        <v>0.02228145442541662</v>
+        <v>0.02228145442541668</v>
       </c>
       <c r="CB63" t="n">
-        <v>-0.04471918467469911</v>
+        <v>-0.04471918467469908</v>
       </c>
       <c r="CC63" t="n">
-        <v>0.2661761344128352</v>
+        <v>0.2661761344128355</v>
       </c>
     </row>
     <row r="64">
@@ -16044,7 +16044,7 @@
         <v>12.30289166892086</v>
       </c>
       <c r="E64" t="n">
-        <v>7.168621988460159</v>
+        <v>7.16862198846016</v>
       </c>
       <c r="F64" t="n">
         <v>18.3341183490706</v>
@@ -16062,7 +16062,7 @@
         <v>7.73272388126167</v>
       </c>
       <c r="K64" t="n">
-        <v>4.292599938734317</v>
+        <v>4.292599938734316</v>
       </c>
       <c r="L64" t="n">
         <v>11.87055054845726</v>
@@ -16089,25 +16089,25 @@
         <v>4.714937840426855</v>
       </c>
       <c r="T64" t="n">
-        <v>2.655449624694825</v>
+        <v>2.655449624694826</v>
       </c>
       <c r="U64" t="n">
         <v>6.879526187268322</v>
       </c>
       <c r="V64" t="n">
-        <v>2.594146232123816</v>
+        <v>2.594146232123817</v>
       </c>
       <c r="W64" t="n">
         <v>1.134230849888805</v>
       </c>
       <c r="X64" t="n">
-        <v>4.282829756629589</v>
+        <v>4.28282975662959</v>
       </c>
       <c r="Y64" t="n">
         <v>0.5628503536612126</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.02471147782820502</v>
+        <v>0.024711477828205</v>
       </c>
       <c r="AA64" t="n">
         <v>1.360022442882638</v>
@@ -16122,46 +16122,46 @@
         <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>5.955243384517776</v>
+        <v>5.955243384517775</v>
       </c>
       <c r="AF64" t="n">
-        <v>3.708601628497028</v>
+        <v>3.708601628497026</v>
       </c>
       <c r="AG64" t="n">
-        <v>8.508985643500864</v>
+        <v>8.508985643500868</v>
       </c>
       <c r="AH64" t="n">
-        <v>7.79810031064634</v>
+        <v>7.798100310646346</v>
       </c>
       <c r="AI64" t="n">
-        <v>4.646791556235878</v>
+        <v>4.646791556235879</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11.65310609459157</v>
+        <v>11.65310609459156</v>
       </c>
       <c r="AK64" t="n">
-        <v>-1.847564164379037</v>
+        <v>-1.847564164379031</v>
       </c>
       <c r="AL64" t="n">
-        <v>-2.820067914541584</v>
+        <v>-2.820067914541582</v>
       </c>
       <c r="AM64" t="n">
         <v>-0.1474191345157969</v>
       </c>
       <c r="AN64" t="n">
-        <v>-9.85809017178004</v>
+        <v>-9.858090171780043</v>
       </c>
       <c r="AO64" t="n">
-        <v>-8.891795915114795</v>
+        <v>-8.891795915114791</v>
       </c>
       <c r="AP64" t="n">
-        <v>-10.11632616360203</v>
+        <v>-10.11632616360202</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.2337623133381719</v>
+        <v>0.233762313338171</v>
       </c>
       <c r="AR64" t="n">
-        <v>-0.3051925722831186</v>
+        <v>-0.3051925722831181</v>
       </c>
       <c r="AS64" t="n">
         <v>1.110163421039122</v>
@@ -16173,13 +16173,13 @@
         <v>1.157758844741465</v>
       </c>
       <c r="AV64" t="n">
-        <v>3.953816884112456</v>
+        <v>3.953816884112457</v>
       </c>
       <c r="AW64" t="n">
         <v>1.965956083808293</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.7541125367687982</v>
+        <v>0.7541125367687981</v>
       </c>
       <c r="AY64" t="n">
         <v>3.497371654964694</v>
@@ -16188,7 +16188,7 @@
         <v>0.5276525987352891</v>
       </c>
       <c r="BA64" t="n">
-        <v>0.06059410543187241</v>
+        <v>0.0605941054318724</v>
       </c>
       <c r="BB64" t="n">
         <v>1.289562367589399</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="BF64" t="n">
-        <v>3.029539434775241</v>
+        <v>3.029539434775245</v>
       </c>
       <c r="BG64" t="n">
         <v>1.457459650568885</v>
@@ -16212,37 +16212,37 @@
         <v>4.965932112295953</v>
       </c>
       <c r="BI64" t="n">
-        <v>7.865304722641762</v>
+        <v>7.86530472264176</v>
       </c>
       <c r="BJ64" t="n">
         <v>4.575176178820968</v>
       </c>
       <c r="BK64" t="n">
-        <v>11.73135402454975</v>
+        <v>11.73135402454974</v>
       </c>
       <c r="BL64" t="n">
-        <v>4.904696379727057</v>
+        <v>4.904696379727058</v>
       </c>
       <c r="BM64" t="n">
-        <v>2.763096791395528</v>
+        <v>2.763096791395529</v>
       </c>
       <c r="BN64" t="n">
         <v>7.558849697304304</v>
       </c>
       <c r="BO64" t="n">
-        <v>-3.525864274819549</v>
+        <v>-3.525864274819545</v>
       </c>
       <c r="BP64" t="n">
         <v>-3.176017704128988</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-3.334862598336908</v>
+        <v>-3.334862598336912</v>
       </c>
       <c r="BR64" t="n">
         <v>-0.3495622741622579</v>
       </c>
       <c r="BS64" t="n">
-        <v>-1.204360103812947</v>
+        <v>-1.204360103812948</v>
       </c>
       <c r="BT64" t="n">
         <v>1.150343105984016</v>
@@ -16251,7 +16251,7 @@
         <v>3.087437273215859</v>
       </c>
       <c r="BV64" t="n">
-        <v>1.767560550507182</v>
+        <v>1.767560550507181</v>
       </c>
       <c r="BW64" t="n">
         <v>4.658292277107192</v>
@@ -16269,7 +16269,7 @@
         <v>0.7779958021140017</v>
       </c>
       <c r="CB64" t="n">
-        <v>0.1056839560127584</v>
+        <v>0.1056839560127585</v>
       </c>
       <c r="CC64" t="n">
         <v>1.672645237354908</v>
@@ -16292,13 +16292,13 @@
         <v>-1.825462835557032</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.525459627543585</v>
+        <v>-5.525459627543583</v>
       </c>
       <c r="G65" t="n">
         <v>6.011817302710702</v>
       </c>
       <c r="H65" t="n">
-        <v>4.012947687818713</v>
+        <v>4.012947687818712</v>
       </c>
       <c r="I65" t="n">
         <v>7.696727139856268</v>
@@ -16307,7 +16307,7 @@
         <v>24.85296103243272</v>
       </c>
       <c r="K65" t="n">
-        <v>16.16513672942518</v>
+        <v>16.16513672942517</v>
       </c>
       <c r="L65" t="n">
         <v>34.10063753683896</v>
@@ -16340,7 +16340,7 @@
         <v>5.448503913578135</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9528127502845677</v>
+        <v>0.9528127502845675</v>
       </c>
       <c r="W65" t="n">
         <v>0.3819690782259373</v>
@@ -16352,7 +16352,7 @@
         <v>0.1287799459721664</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.03005531347464063</v>
+        <v>0.03005531347464064</v>
       </c>
       <c r="AA65" t="n">
         <v>0.3459859106832524</v>
@@ -16370,13 +16370,13 @@
         <v>-0.2792731184808552</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.09550625502730714</v>
+        <v>0.09550625502730892</v>
       </c>
       <c r="AG65" t="n">
-        <v>-0.8044030760794625</v>
+        <v>-0.8044030760794643</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.141882812648328</v>
+        <v>9.141882812648324</v>
       </c>
       <c r="AI65" t="n">
         <v>7.076640438232443</v>
@@ -16394,7 +16394,7 @@
         <v>32.41334025359307</v>
       </c>
       <c r="AN65" t="n">
-        <v>34.49459531416709</v>
+        <v>34.4945953141671</v>
       </c>
       <c r="AO65" t="n">
         <v>25.16967780225083</v>
@@ -16406,7 +16406,7 @@
         <v>12.28251055134946</v>
       </c>
       <c r="AR65" t="n">
-        <v>7.45283853855517</v>
+        <v>7.452838538555169</v>
       </c>
       <c r="AS65" t="n">
         <v>17.60044221139514</v>
@@ -16427,7 +16427,7 @@
         <v>0.8351457152971817</v>
       </c>
       <c r="AY65" t="n">
-        <v>3.113494742716582</v>
+        <v>3.113494742716583</v>
       </c>
       <c r="AZ65" t="n">
         <v>0.3393363007163142</v>
@@ -16436,7 +16436,7 @@
         <v>0.08293434041979356</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.7390395532437174</v>
+        <v>0.7390395532437175</v>
       </c>
       <c r="BC65" t="n">
         <v>0</v>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>-0.5118256713467368</v>
+        <v>-0.5118256713467404</v>
       </c>
       <c r="BG65" t="n">
         <v>-0.1845514088534901</v>
@@ -16457,13 +16457,13 @@
         <v>-0.9652400249866648</v>
       </c>
       <c r="BI65" t="n">
-        <v>3.503854424973634</v>
+        <v>3.503854424973635</v>
       </c>
       <c r="BJ65" t="n">
-        <v>2.219895031421949</v>
+        <v>2.219895031421948</v>
       </c>
       <c r="BK65" t="n">
-        <v>4.741160373882671</v>
+        <v>4.741160373882679</v>
       </c>
       <c r="BL65" t="n">
         <v>15.02551945077078</v>
@@ -16481,7 +16481,7 @@
         <v>18.47527800829104</v>
       </c>
       <c r="BQ65" t="n">
-        <v>39.00086006493768</v>
+        <v>39.00086006493769</v>
       </c>
       <c r="BR65" t="n">
         <v>19.0286138618934</v>
@@ -16496,7 +16496,7 @@
         <v>7.962649813389087</v>
       </c>
       <c r="BV65" t="n">
-        <v>4.264100127095913</v>
+        <v>4.264100127095914</v>
       </c>
       <c r="BW65" t="n">
         <v>12.40388279705224</v>
@@ -16511,7 +16511,7 @@
         <v>4.962835139286982</v>
       </c>
       <c r="CA65" t="n">
-        <v>0.4279267299825982</v>
+        <v>0.4279267299825983</v>
       </c>
       <c r="CB65" t="n">
         <v>0.116565558874524</v>
@@ -16570,16 +16570,16 @@
         <v>2.178306754828975</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.9488824091397756</v>
+        <v>0.9488824091397747</v>
       </c>
       <c r="R66" t="n">
-        <v>3.854606630117872</v>
+        <v>3.854606630117871</v>
       </c>
       <c r="S66" t="n">
         <v>1.56659757409167</v>
       </c>
       <c r="T66" t="n">
-        <v>0.6691889092537202</v>
+        <v>0.6691889092537204</v>
       </c>
       <c r="U66" t="n">
         <v>2.76727593545785</v>
@@ -16597,7 +16597,7 @@
         <v>0.1718117192869197</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.003446700054063646</v>
+        <v>-0.003446700054063653</v>
       </c>
       <c r="AA66" t="n">
         <v>0.4880866161920036</v>
@@ -16615,7 +16615,7 @@
         <v>12.99595131625859</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.045545907989696</v>
+        <v>9.045545907989693</v>
       </c>
       <c r="AG66" t="n">
         <v>17.07464170962104</v>
@@ -16633,7 +16633,7 @@
         <v>13.69467279439738</v>
       </c>
       <c r="AL66" t="n">
-        <v>8.948074579922423</v>
+        <v>8.948074579922421</v>
       </c>
       <c r="AM66" t="n">
         <v>19.01707073780462</v>
@@ -16645,7 +16645,7 @@
         <v>0.2534617579234446</v>
       </c>
       <c r="AP66" t="n">
-        <v>4.28835010912954</v>
+        <v>4.288350109129539</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.611027319974524</v>
@@ -16669,7 +16669,7 @@
         <v>0.9590048965240138</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.3016382555287558</v>
+        <v>0.3016382555287559</v>
       </c>
       <c r="AY66" t="n">
         <v>1.877522224067879</v>
@@ -16681,7 +16681,7 @@
         <v>0.01593121165057632</v>
       </c>
       <c r="BB66" t="n">
-        <v>0.6239688330226998</v>
+        <v>0.6239688330226996</v>
       </c>
       <c r="BC66" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>5.973187801798671</v>
+        <v>5.973187801798672</v>
       </c>
       <c r="BG66" t="n">
         <v>3.187946966227609</v>
@@ -16735,19 +16735,19 @@
         <v>1.416981544044341</v>
       </c>
       <c r="BT66" t="n">
-        <v>6.218216071085256</v>
+        <v>6.218216071085255</v>
       </c>
       <c r="BU66" t="n">
         <v>2.341490690873215</v>
       </c>
       <c r="BV66" t="n">
-        <v>1.039518530223904</v>
+        <v>1.039518530223903</v>
       </c>
       <c r="BW66" t="n">
         <v>4.279620462515358</v>
       </c>
       <c r="BX66" t="n">
-        <v>1.400008661378263</v>
+        <v>1.400008661378262</v>
       </c>
       <c r="BY66" t="n">
         <v>0.5471043998665992</v>
@@ -16759,10 +16759,10 @@
         <v>0.334466117345482</v>
       </c>
       <c r="CB66" t="n">
-        <v>0.02484523009800289</v>
+        <v>0.02484523009800292</v>
       </c>
       <c r="CC66" t="n">
-        <v>0.8479204497247885</v>
+        <v>0.8479204497247889</v>
       </c>
     </row>
     <row r="67">
@@ -16842,7 +16842,7 @@
         <v>0.2202984519631161</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.004425360172837929</v>
+        <v>0.004425360172837933</v>
       </c>
       <c r="AA67" t="n">
         <v>0.5975868786561245</v>
@@ -16860,7 +16860,7 @@
         <v>10.54614948769284</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.313763889253298</v>
+        <v>7.313763889253297</v>
       </c>
       <c r="AG67" t="n">
         <v>13.82432376148358</v>
@@ -16884,16 +16884,16 @@
         <v>18.23463947159394</v>
       </c>
       <c r="AN67" t="n">
-        <v>7.074242540780985</v>
+        <v>7.074242540780983</v>
       </c>
       <c r="AO67" t="n">
         <v>4.171997930008804</v>
       </c>
       <c r="AP67" t="n">
-        <v>10.60467281056027</v>
+        <v>10.60467281056026</v>
       </c>
       <c r="AQ67" t="n">
-        <v>3.671641312676354</v>
+        <v>3.671641312676353</v>
       </c>
       <c r="AR67" t="n">
         <v>1.889833543306391</v>
@@ -16923,7 +16923,7 @@
         <v>0.2887571647071388</v>
       </c>
       <c r="BA67" t="n">
-        <v>0.03384113391754238</v>
+        <v>0.03384113391754239</v>
       </c>
       <c r="BB67" t="n">
         <v>0.7233791649358783</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="BF67" t="n">
-        <v>4.934690160645402</v>
+        <v>4.934690160645403</v>
       </c>
       <c r="BG67" t="n">
         <v>2.65319679253348</v>
@@ -17027,22 +17027,22 @@
         <v>1.095834051987937</v>
       </c>
       <c r="F68" t="n">
-        <v>4.071569219326614</v>
+        <v>4.071569219326615</v>
       </c>
       <c r="G68" t="n">
         <v>10.35992138110164</v>
       </c>
       <c r="H68" t="n">
-        <v>5.94150910532236</v>
+        <v>5.941509105322362</v>
       </c>
       <c r="I68" t="n">
-        <v>15.4454593051992</v>
+        <v>15.44545930519921</v>
       </c>
       <c r="J68" t="n">
         <v>11.53461406277066</v>
       </c>
       <c r="K68" t="n">
-        <v>6.807040863014113</v>
+        <v>6.807040863014112</v>
       </c>
       <c r="L68" t="n">
         <v>16.84069750847662</v>
@@ -17060,7 +17060,7 @@
         <v>8.52419648190903</v>
       </c>
       <c r="Q68" t="n">
-        <v>5.300137077552706</v>
+        <v>5.300137077552705</v>
       </c>
       <c r="R68" t="n">
         <v>11.90790418297821</v>
@@ -17087,7 +17087,7 @@
         <v>0.5666343436584194</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.04234191645262657</v>
+        <v>0.04234191645262655</v>
       </c>
       <c r="AA68" t="n">
         <v>1.340187037890055</v>
@@ -17105,37 +17105,37 @@
         <v>-0.8730348644371091</v>
       </c>
       <c r="AF68" t="n">
-        <v>-0.9322163548742415</v>
+        <v>-0.9322163548742424</v>
       </c>
       <c r="AG68" t="n">
-        <v>-0.5597194425214367</v>
+        <v>-0.5597194425214314</v>
       </c>
       <c r="AH68" t="n">
-        <v>2.903711607283526</v>
+        <v>2.90371160728353</v>
       </c>
       <c r="AI68" t="n">
-        <v>1.469505006761203</v>
+        <v>1.469505006761205</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4.804921341989601</v>
+        <v>4.804921341989598</v>
       </c>
       <c r="AK68" t="n">
-        <v>2.581821365092773</v>
+        <v>2.581821365092779</v>
       </c>
       <c r="AL68" t="n">
-        <v>0.8619921858799451</v>
+        <v>0.8619921858799433</v>
       </c>
       <c r="AM68" t="n">
-        <v>4.795573097758934</v>
+        <v>4.795573097758938</v>
       </c>
       <c r="AN68" t="n">
-        <v>2.221012731680581</v>
+        <v>2.221012731680579</v>
       </c>
       <c r="AO68" t="n">
         <v>0.3335219756698109</v>
       </c>
       <c r="AP68" t="n">
-        <v>4.558666710604843</v>
+        <v>4.558666710604845</v>
       </c>
       <c r="AQ68" t="n">
         <v>4.310615982467793</v>
@@ -17165,7 +17165,7 @@
         <v>4.109106003105007</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.5940692328112225</v>
+        <v>0.5940692328112224</v>
       </c>
       <c r="BA68" t="n">
         <v>0.0916533457823886</v>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="BF68" t="n">
-        <v>-0.3588665448706401</v>
+        <v>-0.3588665448706374</v>
       </c>
       <c r="BG68" t="n">
         <v>-0.3472491093007175</v>
@@ -17195,10 +17195,10 @@
         <v>1.933432945606889</v>
       </c>
       <c r="BJ68" t="n">
-        <v>0.7397928418516013</v>
+        <v>0.7397928418516022</v>
       </c>
       <c r="BK68" t="n">
-        <v>3.569208928934302</v>
+        <v>3.569208928934299</v>
       </c>
       <c r="BL68" t="n">
         <v>4.109030064874005</v>
@@ -17219,7 +17219,7 @@
         <v>6.752909699400782</v>
       </c>
       <c r="BR68" t="n">
-        <v>5.53572317183554</v>
+        <v>5.535723171835539</v>
       </c>
       <c r="BS68" t="n">
         <v>3.077737373422149</v>
@@ -17237,7 +17237,7 @@
         <v>7.857811817524313</v>
       </c>
       <c r="BX68" t="n">
-        <v>3.427481701612385</v>
+        <v>3.427481701612384</v>
       </c>
       <c r="BY68" t="n">
         <v>1.676243454267509</v>
@@ -17246,10 +17246,10 @@
         <v>5.434138550430104</v>
       </c>
       <c r="CA68" t="n">
-        <v>0.8444406940927366</v>
+        <v>0.8444406940927365</v>
       </c>
       <c r="CB68" t="n">
-        <v>0.1446595287236324</v>
+        <v>0.1446595287236325</v>
       </c>
       <c r="CC68" t="n">
         <v>1.800459566249791</v>
@@ -17305,22 +17305,22 @@
         <v>3.013659703593629</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.324070995681215</v>
+        <v>1.324070995681214</v>
       </c>
       <c r="R69" t="n">
-        <v>5.401254705099992</v>
+        <v>5.401254705099993</v>
       </c>
       <c r="S69" t="n">
         <v>0.01588228410739179</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.3640691778406631</v>
+        <v>-0.3640691778406639</v>
       </c>
       <c r="U69" t="n">
         <v>0.9660101501578398</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.3779672330273094</v>
+        <v>-0.3779672330273098</v>
       </c>
       <c r="W69" t="n">
         <v>-0.3048651085658151</v>
@@ -17353,10 +17353,10 @@
         <v>9.298610010802058</v>
       </c>
       <c r="AG69" t="n">
-        <v>16.10128561735183</v>
+        <v>16.10128561735182</v>
       </c>
       <c r="AH69" t="n">
-        <v>27.07361643285192</v>
+        <v>27.07361643285191</v>
       </c>
       <c r="AI69" t="n">
         <v>20.07129594740526</v>
@@ -17365,7 +17365,7 @@
         <v>34.0034589367778</v>
       </c>
       <c r="AK69" t="n">
-        <v>29.2272310088317</v>
+        <v>29.22723100883169</v>
       </c>
       <c r="AL69" t="n">
         <v>21.05480599620044</v>
@@ -17380,10 +17380,10 @@
         <v>16.65639250310293</v>
       </c>
       <c r="AP69" t="n">
-        <v>30.31998043192419</v>
+        <v>30.31998043192418</v>
       </c>
       <c r="AQ69" t="n">
-        <v>6.858752203670583</v>
+        <v>6.858752203670584</v>
       </c>
       <c r="AR69" t="n">
         <v>3.84015895398116</v>
@@ -17395,28 +17395,28 @@
         <v>1.999313599273884</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.8770835299933932</v>
+        <v>0.8770835299933933</v>
       </c>
       <c r="AV69" t="n">
         <v>3.665214015878862</v>
       </c>
       <c r="AW69" t="n">
-        <v>0.5767561912161436</v>
+        <v>0.5767561912161434</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.196872232728197</v>
+        <v>0.1968722327281973</v>
       </c>
       <c r="AY69" t="n">
-        <v>1.233565258168652</v>
+        <v>1.233565258168653</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.06959386997061651</v>
+        <v>0.06959386997061656</v>
       </c>
       <c r="BA69" t="n">
         <v>0.011220497410895</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.2014277402371308</v>
+        <v>0.2014277402371307</v>
       </c>
       <c r="BC69" t="n">
         <v>0</v>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="BF69" t="n">
-        <v>5.518987474196077</v>
+        <v>5.518987474196075</v>
       </c>
       <c r="BG69" t="n">
         <v>3.095495069081284</v>
@@ -17443,7 +17443,7 @@
         <v>12.13710617235059</v>
       </c>
       <c r="BK69" t="n">
-        <v>25.20315041522796</v>
+        <v>25.20315041522797</v>
       </c>
       <c r="BL69" t="n">
         <v>25.02684275373662</v>
@@ -17491,13 +17491,13 @@
         <v>2.301495727245502</v>
       </c>
       <c r="CA69" t="n">
-        <v>0.06053662436618557</v>
+        <v>0.06053662436618568</v>
       </c>
       <c r="CB69" t="n">
         <v>0.005161089602421925</v>
       </c>
       <c r="CC69" t="n">
-        <v>0.3467008900760575</v>
+        <v>0.3467008900760576</v>
       </c>
     </row>
     <row r="70">
@@ -17511,13 +17511,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5496461215235771</v>
+        <v>-0.5496461215235779</v>
       </c>
       <c r="E70" t="n">
         <v>-0.8307463474005292</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.03328255559397952</v>
+        <v>-0.03328255559397775</v>
       </c>
       <c r="G70" t="n">
         <v>2.262179514064579</v>
@@ -17532,7 +17532,7 @@
         <v>11.19956197289892</v>
       </c>
       <c r="K70" t="n">
-        <v>6.477101168202273</v>
+        <v>6.477101168202272</v>
       </c>
       <c r="L70" t="n">
         <v>16.91953298663161</v>
@@ -17550,7 +17550,7 @@
         <v>10.74110003267327</v>
       </c>
       <c r="Q70" t="n">
-        <v>6.779893594148269</v>
+        <v>6.77989359414827</v>
       </c>
       <c r="R70" t="n">
         <v>14.81745708261968</v>
@@ -17559,10 +17559,10 @@
         <v>6.329973438761254</v>
       </c>
       <c r="T70" t="n">
-        <v>3.592508089966048</v>
+        <v>3.592508089966049</v>
       </c>
       <c r="U70" t="n">
-        <v>9.329985823379415</v>
+        <v>9.329985823379417</v>
       </c>
       <c r="V70" t="n">
         <v>3.036360328351021</v>
@@ -17595,34 +17595,34 @@
         <v>-2.846855844646914</v>
       </c>
       <c r="AF70" t="n">
-        <v>-2.339935145769137</v>
+        <v>-2.339935145769136</v>
       </c>
       <c r="AG70" t="n">
         <v>-3.202362138235993</v>
       </c>
       <c r="AH70" t="n">
-        <v>-3.548936658977864</v>
+        <v>-3.548936658977858</v>
       </c>
       <c r="AI70" t="n">
-        <v>-3.29294013483994</v>
+        <v>-3.292940134839938</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-3.408921227149198</v>
+        <v>-3.408921227149202</v>
       </c>
       <c r="AK70" t="n">
-        <v>1.872521040405605</v>
+        <v>1.872521040405607</v>
       </c>
       <c r="AL70" t="n">
         <v>0.5203686677068351</v>
       </c>
       <c r="AM70" t="n">
-        <v>3.791627986823618</v>
+        <v>3.791627986823617</v>
       </c>
       <c r="AN70" t="n">
-        <v>7.41659038287295</v>
+        <v>7.416590382872949</v>
       </c>
       <c r="AO70" t="n">
-        <v>4.367938002161063</v>
+        <v>4.367938002161064</v>
       </c>
       <c r="AP70" t="n">
         <v>11.07612768259525</v>
@@ -17631,7 +17631,7 @@
         <v>6.421383596838414</v>
       </c>
       <c r="AR70" t="n">
-        <v>3.776073008239959</v>
+        <v>3.77607300823996</v>
       </c>
       <c r="AS70" t="n">
         <v>9.394701344421504</v>
@@ -17673,25 +17673,25 @@
         <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-1.133193503560013</v>
+        <v>-1.133193503560011</v>
       </c>
       <c r="BG70" t="n">
         <v>-0.7313115099114895</v>
       </c>
       <c r="BH70" t="n">
-        <v>-1.495394941716555</v>
+        <v>-1.495394941716556</v>
       </c>
       <c r="BI70" t="n">
-        <v>-2.533083606189953</v>
+        <v>-2.533083606189955</v>
       </c>
       <c r="BJ70" t="n">
         <v>-2.101014985292379</v>
       </c>
       <c r="BK70" t="n">
-        <v>-2.630225406419386</v>
+        <v>-2.630225406419385</v>
       </c>
       <c r="BL70" t="n">
-        <v>0.6606817351096144</v>
+        <v>0.6606817351096179</v>
       </c>
       <c r="BM70" t="n">
         <v>-0.2669952472447141</v>
@@ -17700,13 +17700,13 @@
         <v>2.165770358897182</v>
       </c>
       <c r="BO70" t="n">
-        <v>6.527982364206887</v>
+        <v>6.527982364206886</v>
       </c>
       <c r="BP70" t="n">
         <v>3.578085396670352</v>
       </c>
       <c r="BQ70" t="n">
-        <v>10.17698871687399</v>
+        <v>10.176988716874</v>
       </c>
       <c r="BR70" t="n">
         <v>8.32195344651074</v>
@@ -17721,7 +17721,7 @@
         <v>6.640514238458302</v>
       </c>
       <c r="BV70" t="n">
-        <v>3.860819777381095</v>
+        <v>3.860819777381096</v>
       </c>
       <c r="BW70" t="n">
         <v>9.642438237054897</v>
@@ -17736,7 +17736,7 @@
         <v>6.145774368007125</v>
       </c>
       <c r="CA70" t="n">
-        <v>0.9194062718652591</v>
+        <v>0.9194062718652589</v>
       </c>
       <c r="CB70" t="n">
         <v>0.17774324299818</v>
@@ -17774,7 +17774,7 @@
         <v>-2.915741162724153</v>
       </c>
       <c r="J71" t="n">
-        <v>16.97175393001287</v>
+        <v>16.97175393001288</v>
       </c>
       <c r="K71" t="n">
         <v>10.42626101987069</v>
@@ -17840,10 +17840,10 @@
         <v>-7.795961898577611</v>
       </c>
       <c r="AF71" t="n">
-        <v>-5.565501252306864</v>
+        <v>-5.565501252306862</v>
       </c>
       <c r="AG71" t="n">
-        <v>-9.97773439462253</v>
+        <v>-9.977734394622527</v>
       </c>
       <c r="AH71" t="n">
         <v>-4.926283727342875</v>
@@ -17870,13 +17870,13 @@
         <v>15.9085402748067</v>
       </c>
       <c r="AP71" t="n">
-        <v>29.40257419262492</v>
+        <v>29.40257419262493</v>
       </c>
       <c r="AQ71" t="n">
         <v>10.85509192304432</v>
       </c>
       <c r="AR71" t="n">
-        <v>6.613546828622932</v>
+        <v>6.613546828622931</v>
       </c>
       <c r="AS71" t="n">
         <v>15.40862530084181</v>
@@ -17897,7 +17897,7 @@
         <v>1.292410029336889</v>
       </c>
       <c r="AY71" t="n">
-        <v>4.74818207938319</v>
+        <v>4.748182079383189</v>
       </c>
       <c r="AZ71" t="n">
         <v>0.6367814064204743</v>
@@ -17906,7 +17906,7 @@
         <v>0.1284237012026262</v>
       </c>
       <c r="BB71" t="n">
-        <v>1.413479443401371</v>
+        <v>1.413479443401372</v>
       </c>
       <c r="BC71" t="n">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="BF71" t="n">
-        <v>-3.719644720834063</v>
+        <v>-3.719644720834065</v>
       </c>
       <c r="BG71" t="n">
         <v>-2.065726497595572</v>
@@ -17927,22 +17927,22 @@
         <v>-5.585784415630634</v>
       </c>
       <c r="BI71" t="n">
-        <v>-6.071193421585132</v>
+        <v>-6.071193421585134</v>
       </c>
       <c r="BJ71" t="n">
         <v>-4.305139651525007</v>
       </c>
       <c r="BK71" t="n">
-        <v>-7.685664326851329</v>
+        <v>-7.685664326851326</v>
       </c>
       <c r="BL71" t="n">
         <v>2.897116226359406</v>
       </c>
       <c r="BM71" t="n">
-        <v>1.212077201196945</v>
+        <v>1.212077201196944</v>
       </c>
       <c r="BN71" t="n">
-        <v>5.071708030800696</v>
+        <v>5.071708030800695</v>
       </c>
       <c r="BO71" t="n">
         <v>17.06128368360172</v>
@@ -17981,13 +17981,13 @@
         <v>6.74876351274594</v>
       </c>
       <c r="CA71" t="n">
-        <v>0.8742662770717149</v>
+        <v>0.8742662770717148</v>
       </c>
       <c r="CB71" t="n">
         <v>0.196688164342148</v>
       </c>
       <c r="CC71" t="n">
-        <v>1.869540360653714</v>
+        <v>1.869540360653713</v>
       </c>
     </row>
     <row r="72">
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5400817373349343</v>
+        <v>0.5400817373349351</v>
       </c>
       <c r="E72" t="n">
         <v>0.229909803718229</v>
@@ -18013,7 +18013,7 @@
         <v>8.683045802849499</v>
       </c>
       <c r="H72" t="n">
-        <v>5.156528000664866</v>
+        <v>5.156528000664867</v>
       </c>
       <c r="I72" t="n">
         <v>12.55018853696969</v>
@@ -18022,7 +18022,7 @@
         <v>15.8906732998031</v>
       </c>
       <c r="K72" t="n">
-        <v>9.868419438933973</v>
+        <v>9.868419438933971</v>
       </c>
       <c r="L72" t="n">
         <v>22.51500136840834</v>
@@ -18067,7 +18067,7 @@
         <v>0.4204863107419958</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.03786247405604264</v>
+        <v>0.03786247405604262</v>
       </c>
       <c r="AA72" t="n">
         <v>1.009683521218891</v>
@@ -18082,28 +18082,28 @@
         <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>-0.5164539996663748</v>
+        <v>-0.5164539996663757</v>
       </c>
       <c r="AF72" t="n">
         <v>-0.481621075626558</v>
       </c>
       <c r="AG72" t="n">
-        <v>-0.4387222362331462</v>
+        <v>-0.4387222362331435</v>
       </c>
       <c r="AH72" t="n">
-        <v>4.833306469266389</v>
+        <v>4.83330646926639</v>
       </c>
       <c r="AI72" t="n">
-        <v>3.217275806944343</v>
+        <v>3.217275806944345</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6.685496350061209</v>
+        <v>6.685496350061207</v>
       </c>
       <c r="AK72" t="n">
-        <v>10.14682591444818</v>
+        <v>10.14682591444819</v>
       </c>
       <c r="AL72" t="n">
-        <v>6.769381328567491</v>
+        <v>6.76938132856749</v>
       </c>
       <c r="AM72" t="n">
         <v>13.92765753479543</v>
@@ -18118,7 +18118,7 @@
         <v>17.77562014256184</v>
       </c>
       <c r="AQ72" t="n">
-        <v>6.984632045984613</v>
+        <v>6.984632045984614</v>
       </c>
       <c r="AR72" t="n">
         <v>4.048898440257235</v>
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="BF72" t="n">
-        <v>-0.3217960262080397</v>
+        <v>-0.3217960262080393</v>
       </c>
       <c r="BG72" t="n">
         <v>-0.2427872847905224</v>
@@ -18178,10 +18178,10 @@
         <v>1.225994450155656</v>
       </c>
       <c r="BK72" t="n">
-        <v>3.922192163920144</v>
+        <v>3.922192163920146</v>
       </c>
       <c r="BL72" t="n">
-        <v>7.645562208887169</v>
+        <v>7.645562208887168</v>
       </c>
       <c r="BM72" t="n">
         <v>4.532114772370722</v>
@@ -18196,7 +18196,7 @@
         <v>7.420396688676286</v>
       </c>
       <c r="BQ72" t="n">
-        <v>17.51914667282221</v>
+        <v>17.51914667282222</v>
       </c>
       <c r="BR72" t="n">
         <v>10.05506840509581</v>
@@ -18211,7 +18211,7 @@
         <v>6.202557248819497</v>
       </c>
       <c r="BV72" t="n">
-        <v>3.469919882460181</v>
+        <v>3.469919882460182</v>
       </c>
       <c r="BW72" t="n">
         <v>9.382572754118957</v>
